--- a/events/events/_event_data_collector.xlsx
+++ b/events/events/_event_data_collector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patcallahan/Documents/Coding/Open Science Center/lmu-osc.github.io/events/events/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75D43CF-275A-6848-9F92-7644B9E8FF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67F2AF7-50D1-E84D-8A47-03E18DFF573F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="46960" windowHeight="25560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="736">
   <si>
     <t>file_paths</t>
   </si>
@@ -421,9 +421,6 @@
     <t>20-Jan-20</t>
   </si>
   <si>
-    <t>Prof Dr. Felix Schönbrodt</t>
-  </si>
-  <si>
     <t>Volker Schallehn</t>
   </si>
   <si>
@@ -529,9 +526,6 @@
     <t>Maximilian Kasy</t>
   </si>
   <si>
-    <t>Felix Schönbrodt</t>
-  </si>
-  <si>
     <t>Eva Vivalt</t>
   </si>
   <si>
@@ -706,12 +700,6 @@
     <t>6-Mar-24</t>
   </si>
   <si>
-    <t> Dr. Florian Pargent</t>
-  </si>
-  <si>
-    <t>Florian Kohrt </t>
-  </si>
-  <si>
     <t>events/events/20230126_reproducible_research_in_r_how_to_do_the_same_thing_more_than_once_(26012023).qmd</t>
   </si>
   <si>
@@ -928,9 +916,6 @@
     <t>Jean-Claude Passy</t>
   </si>
   <si>
-    <t>Florian Pargent</t>
-  </si>
-  <si>
     <t>Florian Kohrt</t>
   </si>
   <si>
@@ -991,9 +976,6 @@
     <t>27-Oct-22</t>
   </si>
   <si>
-    <t>Dr. Malika Ihle </t>
-  </si>
-  <si>
     <t>Ramona Schödel</t>
   </si>
   <si>
@@ -1072,9 +1054,6 @@
     <t>28-Jun-24</t>
   </si>
   <si>
-    <t>Florian Pargent </t>
-  </si>
-  <si>
     <t>Open Science Initiative for Psychology (OSIP)</t>
   </si>
   <si>
@@ -1141,9 +1120,6 @@
     <t>11-Jul-24</t>
   </si>
   <si>
-    <t>Maximilian Frank </t>
-  </si>
-  <si>
     <t>events/events/20230911_5day_open_research_summer_school_2023.qmd</t>
   </si>
   <si>
@@ -1276,9 +1252,6 @@
     <t>1-Oct-18</t>
   </si>
   <si>
-    <t>Prof. Dr. Schönbrodt</t>
-  </si>
-  <si>
     <t>events/events/20230210_offene_forschungsdaten_vs_datenschutz_und_anonymitat_(10022023).qmd</t>
   </si>
   <si>
@@ -2167,9 +2140,6 @@
     <t>Prof. Björn Brembs</t>
   </si>
   <si>
-    <t>Prof. Felix Schönbrodt </t>
-  </si>
-  <si>
     <t>events/events/20250721_helmholtz_open_science_strategy.qmd</t>
   </si>
   <si>
@@ -2258,13 +2228,16 @@
   </si>
   <si>
     <t>Crash Course (Crashkurs): Open Science</t>
+  </si>
+  <si>
+    <t>Dr. Moritz Fischer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2279,6 +2252,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2301,12 +2280,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2647,13 +2627,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C92" zoomScale="174" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="139.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2900,392 +2881,393 @@
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H2" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L2" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="N2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="BB2" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="BD2" t="s">
         <v>86</v>
       </c>
       <c r="BL2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" t="s">
+        <v>369</v>
+      </c>
+      <c r="N3" t="s">
+        <v>370</v>
+      </c>
+      <c r="P3" t="s">
+        <v>371</v>
+      </c>
+      <c r="R3" t="s">
+        <v>297</v>
+      </c>
+      <c r="T3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AH3" t="s">
         <v>373</v>
       </c>
-      <c r="B3" t="s">
+      <c r="AJ3" t="s">
         <v>374</v>
       </c>
-      <c r="C3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="AL3" t="s">
         <v>375</v>
       </c>
-      <c r="F3" t="s">
+      <c r="AN3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP3" t="s">
         <v>376</v>
       </c>
-      <c r="H3" t="s">
-        <v>247</v>
-      </c>
-      <c r="J3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="AR3" t="s">
         <v>377</v>
       </c>
-      <c r="N3" t="s">
+      <c r="AT3" t="s">
         <v>378</v>
       </c>
-      <c r="P3" t="s">
+      <c r="AV3" t="s">
         <v>379</v>
       </c>
-      <c r="R3" t="s">
-        <v>302</v>
-      </c>
-      <c r="T3" t="s">
-        <v>187</v>
-      </c>
-      <c r="X3" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AX3" t="s">
         <v>380</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>383</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>385</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>386</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>387</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>388</v>
       </c>
       <c r="BB3" t="s">
         <v>86</v>
       </c>
       <c r="BD3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="BL3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C4" t="s">
         <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="BB4" t="s">
         <v>86</v>
       </c>
       <c r="BL4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C5" t="s">
         <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E5" t="s">
-        <v>392</v>
-      </c>
-      <c r="F5" t="s">
-        <v>132</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="BB5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BD5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="BL5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="BN5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="BP5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="BR5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B6" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="C6" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D6" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="E6" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="BB6" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL6" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN6" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BP6" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BR6" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="BT6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BV6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CB6" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="E7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="AH7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="BB7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CB7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B8" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C8" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D8" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E8" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="AH8" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="BB8" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL8" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN8" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CB8" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="B9" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="C9" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D9" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E9" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="BB9" t="s">
         <v>86</v>
       </c>
       <c r="BL9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B10" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E10" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="AH10" t="s">
         <v>111</v>
       </c>
       <c r="AJ10" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AL10" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="AN10" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AP10" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AR10" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AT10" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="BB10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="BL10" t="s">
         <v>118</v>
@@ -3296,22 +3278,22 @@
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="C11" t="s">
         <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="E11" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="AH11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="BB11" t="s">
         <v>86</v>
@@ -3325,23 +3307,24 @@
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B12" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="C12" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D12" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E12" t="s">
-        <v>416</v>
-      </c>
-      <c r="F12" t="s">
-        <v>417</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="BB12" t="s">
         <v>86</v>
       </c>
@@ -3354,530 +3337,531 @@
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C13" t="s">
         <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E13" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F13" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="BB13" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="BL13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BN13" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="CB13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B14" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C14" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D14" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="E14" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="AH14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="BB14" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL14" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN14" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BR14" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="BT14" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BV14" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BX14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BZ14" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="CB14" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B15" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="C15" t="s">
         <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="E15" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="BB15" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="BD15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BF15" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="BL15" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="BN15" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="CB15" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="B16" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="C16" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="D16" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="E16" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="AH16" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="BB16" t="s">
         <v>86</v>
       </c>
-      <c r="BL16" t="s">
-        <v>714</v>
-      </c>
+      <c r="BL16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM16" s="3"/>
       <c r="CB16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B17" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C17" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D17" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="E17" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="AH17" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BB17" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL17" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN17" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BP17" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BR17" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="BT17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BV17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CB17" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C18" t="s">
         <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E18" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H18" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="J18" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="BB18" t="s">
         <v>86</v>
       </c>
       <c r="BL18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CB18" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B19" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C19" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D19" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E19" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="BB19" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL19" t="s">
         <v>118</v>
       </c>
       <c r="BN19" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BP19" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BR19" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CB19" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B20" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C20" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D20" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E20" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="BB20" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL20" t="s">
         <v>118</v>
       </c>
       <c r="BN20" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BP20" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BR20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CB20" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B21" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C21" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D21" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="E21" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="BB21" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL21" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN21" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CB21" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B22" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C22" t="s">
         <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E22" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F22" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="BB22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BD22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="BL22" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BN22" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="CB22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B23" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C23" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D23" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="E23" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="BB23" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL23" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN23" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP23" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BR23" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="BT23" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BX23" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="CB23" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>681</v>
+      </c>
+      <c r="B24" t="s">
+        <v>682</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" t="s">
+        <v>683</v>
+      </c>
+      <c r="E24" t="s">
+        <v>683</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>684</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>685</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>686</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>687</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>688</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>689</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BL24" t="s">
         <v>690</v>
       </c>
-      <c r="B24" t="s">
+      <c r="BN24" t="s">
         <v>691</v>
       </c>
-      <c r="C24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="CB24" t="s">
         <v>692</v>
-      </c>
-      <c r="E24" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>693</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>694</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>695</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>696</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>697</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>698</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>243</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>699</v>
-      </c>
-      <c r="BN24" t="s">
-        <v>700</v>
-      </c>
-      <c r="CB24" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="25" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
         <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F25" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="BB25" t="s">
         <v>86</v>
       </c>
       <c r="BL25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B26" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C26" t="s">
         <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F26" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="BB26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="BL26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B27" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C27" t="s">
         <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="E27" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="BB27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BL27" t="s">
         <v>118</v>
@@ -3888,57 +3872,57 @@
     </row>
     <row r="28" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B28" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C28" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D28" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="E28" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="AH28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BB28" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL28" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN28" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CB28" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B29" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C29" t="s">
         <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E29" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F29" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="BB29" t="s">
         <v>86</v>
@@ -3952,185 +3936,186 @@
     </row>
     <row r="30" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="B30" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C30" t="s">
         <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="E30" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="AH30" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="BB30" t="s">
         <v>86</v>
       </c>
       <c r="BL30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B31" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E31" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AH31" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AJ31" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="AL31" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="BB31" t="s">
         <v>86</v>
       </c>
       <c r="BL31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BN31" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="BP31" t="s">
         <v>118</v>
       </c>
       <c r="CB31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="B32" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="C32" t="s">
         <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="E32" t="s">
-        <v>618</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>417</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="AH32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI32" s="3"/>
       <c r="BB32" t="s">
         <v>86</v>
       </c>
       <c r="BL32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B33" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="C33" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D33" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="E33" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="BB33" t="s">
         <v>86</v>
       </c>
       <c r="BL33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="B34" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C34" t="s">
         <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="E34" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="AH34" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BB34" t="s">
         <v>86</v>
       </c>
       <c r="BL34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C35" t="s">
         <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F35" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="BB35" t="s">
         <v>86</v>
       </c>
       <c r="BL35" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="BN35" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="CB35" t="s">
         <v>119</v>
@@ -4138,442 +4123,442 @@
     </row>
     <row r="36" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B36" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C36" t="s">
         <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="E36" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="AH36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BB36" t="s">
         <v>86</v>
       </c>
       <c r="BL36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C37" t="s">
         <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E37" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H37" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J37" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="BB37" t="s">
         <v>86</v>
       </c>
       <c r="BL37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB37" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B38" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="C38" t="s">
         <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="E38" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="AH38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BB38" t="s">
         <v>86</v>
       </c>
       <c r="BL38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" t="s">
+        <v>331</v>
+      </c>
+      <c r="E39" t="s">
+        <v>331</v>
+      </c>
+      <c r="F39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H39" t="s">
+        <v>155</v>
+      </c>
+      <c r="J39" t="s">
+        <v>279</v>
+      </c>
+      <c r="L39" t="s">
+        <v>285</v>
+      </c>
+      <c r="N39" t="s">
+        <v>332</v>
+      </c>
+      <c r="P39" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>333</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL39" t="s">
         <v>335</v>
       </c>
-      <c r="B39" t="s">
+      <c r="AN39" t="s">
         <v>336</v>
       </c>
-      <c r="C39" t="s">
-        <v>296</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="AP39" t="s">
         <v>337</v>
       </c>
-      <c r="E39" t="s">
-        <v>337</v>
-      </c>
-      <c r="F39" t="s">
-        <v>302</v>
-      </c>
-      <c r="H39" t="s">
-        <v>156</v>
-      </c>
-      <c r="J39" t="s">
-        <v>283</v>
-      </c>
-      <c r="L39" t="s">
-        <v>289</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="AR39" t="s">
         <v>338</v>
-      </c>
-      <c r="P39" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>339</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>340</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>341</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>342</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>343</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>344</v>
       </c>
       <c r="BB39" t="s">
         <v>86</v>
       </c>
       <c r="BD39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BL39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BN39" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="CB39" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B40" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="C40" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D40" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="E40" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="BB40" t="s">
         <v>86</v>
       </c>
       <c r="BD40" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="BL40" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="CB40" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="41" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B41" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" t="s">
+        <v>293</v>
+      </c>
+      <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="B41" t="s">
+      <c r="F41" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" t="s">
         <v>295</v>
       </c>
-      <c r="C41" t="s">
+      <c r="J41" t="s">
         <v>296</v>
       </c>
-      <c r="D41" t="s">
+      <c r="L41" t="s">
+        <v>155</v>
+      </c>
+      <c r="N41" t="s">
+        <v>285</v>
+      </c>
+      <c r="P41" t="s">
+        <v>369</v>
+      </c>
+      <c r="R41" t="s">
         <v>297</v>
       </c>
-      <c r="E41" t="s">
+      <c r="V41" t="s">
         <v>298</v>
       </c>
-      <c r="F41" t="s">
-        <v>187</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="X41" t="s">
         <v>299</v>
       </c>
-      <c r="J41" t="s">
+      <c r="Z41" t="s">
         <v>300</v>
       </c>
-      <c r="L41" t="s">
-        <v>156</v>
-      </c>
-      <c r="N41" t="s">
-        <v>289</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="AB41" t="s">
         <v>301</v>
       </c>
-      <c r="R41" t="s">
+      <c r="AD41" t="s">
         <v>302</v>
       </c>
-      <c r="V41" t="s">
+      <c r="AF41" t="s">
         <v>303</v>
       </c>
-      <c r="X41" t="s">
+      <c r="AH41" t="s">
         <v>304</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AJ41" t="s">
         <v>305</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AL41" t="s">
         <v>306</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AN41" t="s">
         <v>307</v>
       </c>
-      <c r="AF41" t="s">
+      <c r="AP41" t="s">
         <v>308</v>
       </c>
-      <c r="AH41" t="s">
+      <c r="AR41" t="s">
         <v>309</v>
       </c>
-      <c r="AJ41" t="s">
+      <c r="AT41" t="s">
         <v>310</v>
       </c>
-      <c r="AL41" t="s">
+      <c r="AV41" t="s">
         <v>311</v>
       </c>
-      <c r="AN41" t="s">
+      <c r="AX41" t="s">
+        <v>310</v>
+      </c>
+      <c r="AZ41" t="s">
         <v>312</v>
       </c>
-      <c r="AP41" t="s">
+      <c r="BB41" t="s">
         <v>313</v>
-      </c>
-      <c r="AR41" t="s">
-        <v>314</v>
-      </c>
-      <c r="AT41" t="s">
-        <v>315</v>
-      </c>
-      <c r="AV41" t="s">
-        <v>316</v>
-      </c>
-      <c r="AX41" t="s">
-        <v>315</v>
-      </c>
-      <c r="AZ41" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB41" t="s">
-        <v>318</v>
       </c>
       <c r="BD41" t="s">
         <v>86</v>
       </c>
       <c r="BL41" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="BN41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B42" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C42" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D42" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E42" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="BB42" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL42" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN42" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP42" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CB42" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B43" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C43" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D43" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="E43" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="AH43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL43" t="s">
         <v>118</v>
       </c>
       <c r="AN43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP43" t="s">
         <v>156</v>
       </c>
-      <c r="AP43" t="s">
-        <v>157</v>
-      </c>
       <c r="AR43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AT43" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="BB43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BL43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BN43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="CB43" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="B44" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C44" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D44" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="E44" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="AH44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AJ44" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="AL44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AP44" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="BB44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BD44" t="s">
         <v>86</v>
       </c>
       <c r="BF44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CB44" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="45" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C45" t="s">
         <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E45" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F45" t="s">
         <v>118</v>
       </c>
       <c r="H45" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="BB45" t="s">
         <v>86</v>
@@ -4587,271 +4572,271 @@
     </row>
     <row r="46" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="B46" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="C46" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="D46" t="s">
+        <v>647</v>
+      </c>
+      <c r="E46" t="s">
+        <v>647</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>651</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>652</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>653</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>654</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>655</v>
+      </c>
+      <c r="AR46" t="s">
         <v>656</v>
       </c>
-      <c r="E46" t="s">
-        <v>656</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>660</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>661</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>662</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>663</v>
-      </c>
-      <c r="AP46" t="s">
-        <v>664</v>
-      </c>
-      <c r="AR46" t="s">
-        <v>665</v>
-      </c>
       <c r="BB46" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="BL46" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BN46" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="CB46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B47" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="C47" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="D47" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="E47" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="AH47" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="AJ47" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="AL47" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="AN47" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="AP47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AR47" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="BB47" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="BL47" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BN47" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="CB47" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
     </row>
     <row r="48" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E48" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F48" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H48" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="BB48" t="s">
         <v>86</v>
       </c>
       <c r="BL48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C49" t="s">
         <v>104</v>
       </c>
       <c r="D49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH49" t="s">
         <v>206</v>
       </c>
-      <c r="E49" t="s">
+      <c r="AJ49" t="s">
         <v>207</v>
       </c>
-      <c r="AH49" t="s">
+      <c r="BB49" t="s">
         <v>208</v>
       </c>
-      <c r="AJ49" t="s">
+      <c r="BD49" t="s">
         <v>209</v>
       </c>
-      <c r="BB49" t="s">
+      <c r="BF49" t="s">
         <v>210</v>
       </c>
-      <c r="BD49" t="s">
+      <c r="BL49" t="s">
         <v>211</v>
       </c>
-      <c r="BF49" t="s">
+      <c r="CB49" t="s">
         <v>212</v>
-      </c>
-      <c r="BL49" t="s">
-        <v>213</v>
-      </c>
-      <c r="CB49" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B50" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C50" t="s">
         <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E50" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="AH50" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="BB50" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BD50" t="s">
         <v>86</v>
       </c>
       <c r="BL50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="B51" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="C51" t="s">
         <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="E51" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="AH51" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="BB51" t="s">
         <v>86</v>
       </c>
       <c r="BL51" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="CB51" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="C52" t="s">
         <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E52" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F52" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H52" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="BB52" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BD52" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="BL52" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="BN52" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="BP52" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="BR52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:80" x14ac:dyDescent="0.2">
@@ -4894,72 +4879,72 @@
     </row>
     <row r="54" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C54" t="s">
         <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E54" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F54" t="s">
         <v>118</v>
       </c>
       <c r="H54" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="BB54" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="CB54" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="B55" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C55" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D55" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E55" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="BB55" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL55" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN55" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BP55" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BR55" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="BT55" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BV55" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CB55" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56" spans="1:80" x14ac:dyDescent="0.2">
@@ -4978,82 +4963,83 @@
       <c r="E56" t="s">
         <v>131</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" t="s">
         <v>132</v>
       </c>
-      <c r="H56" t="s">
+      <c r="J56" t="s">
         <v>133</v>
       </c>
-      <c r="J56" t="s">
+      <c r="L56" t="s">
         <v>134</v>
       </c>
-      <c r="L56" t="s">
+      <c r="N56" t="s">
         <v>135</v>
       </c>
-      <c r="N56" t="s">
+      <c r="P56" t="s">
         <v>136</v>
-      </c>
-      <c r="P56" t="s">
-        <v>137</v>
       </c>
       <c r="BB56" t="s">
         <v>86</v>
       </c>
       <c r="BD56" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF56" t="s">
         <v>138</v>
       </c>
-      <c r="BF56" t="s">
+      <c r="BL56" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN56" t="s">
+        <v>136</v>
+      </c>
+      <c r="CB56" t="s">
         <v>139</v>
-      </c>
-      <c r="BL56" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN56" t="s">
-        <v>137</v>
-      </c>
-      <c r="CB56" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" t="s">
         <v>173</v>
       </c>
-      <c r="B57" t="s">
+      <c r="E57" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH57" t="s">
         <v>174</v>
       </c>
-      <c r="C57" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="AJ57" t="s">
         <v>175</v>
       </c>
-      <c r="E57" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH57" t="s">
+      <c r="AL57" t="s">
         <v>176</v>
       </c>
-      <c r="AJ57" t="s">
+      <c r="AN57" t="s">
         <v>177</v>
       </c>
-      <c r="AL57" t="s">
+      <c r="AP57" t="s">
         <v>178</v>
       </c>
-      <c r="AN57" t="s">
+      <c r="AR57" t="s">
         <v>179</v>
-      </c>
-      <c r="AP57" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR57" t="s">
-        <v>181</v>
       </c>
       <c r="BB57" t="s">
         <v>96</v>
       </c>
       <c r="BD57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BL57" t="s">
         <v>100</v>
@@ -5064,55 +5050,55 @@
     </row>
     <row r="58" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B58" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E58" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="AH58" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="AJ58" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="AL58" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="AN58" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="AP58" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AR58" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="BB58" t="s">
         <v>86</v>
       </c>
       <c r="BD58" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="BF58" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="BL58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BN58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:80" x14ac:dyDescent="0.2">
@@ -5161,63 +5147,63 @@
     </row>
     <row r="60" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B60" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="C60" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D60" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="E60" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="BB60" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL60" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN60" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BP60" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BR60" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="BT60" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BV60" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CB60" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" t="s">
         <v>141</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>142</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>143</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH61" t="s">
         <v>144</v>
-      </c>
-      <c r="E61" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>145</v>
       </c>
       <c r="AJ61" t="s">
         <v>89</v>
@@ -5226,69 +5212,69 @@
         <v>118</v>
       </c>
       <c r="AN61" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP61" t="s">
         <v>146</v>
       </c>
-      <c r="AP61" t="s">
+      <c r="AR61" t="s">
         <v>147</v>
       </c>
-      <c r="AR61" t="s">
+      <c r="AT61" t="s">
         <v>148</v>
-      </c>
-      <c r="AT61" t="s">
-        <v>149</v>
       </c>
       <c r="BB61" t="s">
         <v>96</v>
       </c>
       <c r="BL61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BN61" t="s">
+        <v>149</v>
+      </c>
+      <c r="CB61" t="s">
         <v>150</v>
-      </c>
-      <c r="CB61" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C62" t="s">
         <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E62" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F62" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H62" t="s">
         <v>118</v>
       </c>
       <c r="BB62" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="BD62" t="s">
         <v>86</v>
       </c>
       <c r="BF62" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="BL62" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BN62" t="s">
         <v>118</v>
       </c>
       <c r="BP62" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CB62" t="s">
         <v>119</v>
@@ -5296,189 +5282,189 @@
     </row>
     <row r="63" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C63" t="s">
         <v>82</v>
       </c>
       <c r="D63" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E63" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="BL63" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="CB63" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B64" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C64" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D64" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E64" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="AH64" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="BB64" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL64" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN64" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP64" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CB64" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B65" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C65" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D65" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="E65" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="AH65" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BB65" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL65" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN65" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BP65" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BR65" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="BT65" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BV65" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CB65" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B66" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C66" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D66" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E66" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="AH66" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="AJ66" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BB66" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL66" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN66" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BP66" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BR66" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="BT66" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BV66" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CB66" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B67" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E67" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AH67" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="AJ67" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AL67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AN67" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="BB67" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="BD67" t="s">
         <v>86</v>
       </c>
       <c r="BF67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BL67" t="s">
         <v>118</v>
@@ -5489,314 +5475,315 @@
     </row>
     <row r="68" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B68" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C68" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D68" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E68" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F68" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="BB68" t="s">
         <v>86</v>
       </c>
       <c r="BL68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B69" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C69" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D69" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="E69" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="BB69" t="s">
         <v>86</v>
       </c>
       <c r="CB69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B70" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C70" t="s">
         <v>104</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="BB70" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="BL70" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="BN70" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="CB70" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B71" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C71" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D71" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="E71" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="BB71" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL71" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN71" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP71" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BR71" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="BT71" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BV71" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BX71" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="CB71" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
         <v>158</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" t="s">
         <v>159</v>
       </c>
-      <c r="C72" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>160</v>
       </c>
-      <c r="E72" t="s">
+      <c r="AH72" t="s">
         <v>161</v>
       </c>
-      <c r="AH72" t="s">
+      <c r="AJ72" t="s">
         <v>162</v>
       </c>
-      <c r="AJ72" t="s">
+      <c r="AL72" t="s">
         <v>163</v>
       </c>
-      <c r="AL72" t="s">
+      <c r="AN72" t="s">
         <v>164</v>
-      </c>
-      <c r="AN72" t="s">
-        <v>165</v>
       </c>
       <c r="AP72" t="s">
         <v>111</v>
       </c>
       <c r="AR72" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT72" t="s">
         <v>166</v>
       </c>
-      <c r="AT72" t="s">
+      <c r="AV72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW72" s="3"/>
+      <c r="AX72" t="s">
         <v>167</v>
       </c>
-      <c r="AV72" t="s">
+      <c r="BB72" t="s">
         <v>168</v>
-      </c>
-      <c r="AX72" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB72" t="s">
-        <v>170</v>
       </c>
       <c r="BD72" t="s">
         <v>86</v>
       </c>
       <c r="BL72" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="CB72" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C73" t="s">
         <v>122</v>
       </c>
       <c r="D73" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB73" t="s">
         <v>191</v>
       </c>
-      <c r="E73" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH73" t="s">
+      <c r="BL73" t="s">
         <v>192</v>
       </c>
-      <c r="BB73" t="s">
+      <c r="CB73" t="s">
         <v>193</v>
-      </c>
-      <c r="BL73" t="s">
-        <v>194</v>
-      </c>
-      <c r="CB73" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B74" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="C74" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D74" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="E74" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="BB74" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL74" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN74" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BP74" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BR74" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="BT74" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BV74" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CB74" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B75" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C75" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D75" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E75" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="AH75" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="AJ75" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="BB75" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL75" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN75" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP75" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CB75" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="76" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B76" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D76" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="E76" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="AH76" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="AJ76" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="BB76" t="s">
         <v>96</v>
@@ -5805,135 +5792,135 @@
         <v>100</v>
       </c>
       <c r="CB76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B77" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C77" t="s">
         <v>93</v>
       </c>
       <c r="D77" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E77" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F77" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="H77" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="BB77" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="BL77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="CB77" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="78" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B78" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
       <c r="D78" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E78" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="F78" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="H78" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="BB78" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="BL78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="CB78" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B79" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C79" t="s">
         <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E79" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="AH79" t="s">
         <v>118</v>
       </c>
       <c r="AJ79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL79" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="BB79" t="s">
         <v>86</v>
       </c>
       <c r="BL79" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB79" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B80" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D80" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E80" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="AH80" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="AJ80" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="AL80" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="AN80" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="AP80" t="s">
         <v>118</v>
@@ -5942,71 +5929,71 @@
         <v>86</v>
       </c>
       <c r="BL80" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BN80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CB80" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C81" t="s">
         <v>93</v>
       </c>
       <c r="D81" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E81" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="BB81" t="s">
         <v>86</v>
       </c>
       <c r="BL81" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB81" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B82" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C82" t="s">
         <v>122</v>
       </c>
       <c r="D82" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="E82" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="AH82" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="BB82" t="s">
         <v>86</v>
       </c>
       <c r="BL82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB82" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:80" x14ac:dyDescent="0.2">
@@ -6049,28 +6036,28 @@
     </row>
     <row r="84" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B84" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C84" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D84" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="E84" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="BB84" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL84" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="CB84" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="85" spans="1:80" x14ac:dyDescent="0.2">
@@ -6113,173 +6100,173 @@
     </row>
     <row r="86" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="B86" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="C86" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D86" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="E86" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="BB86" t="s">
         <v>86</v>
       </c>
       <c r="BL86" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB86" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B87" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C87" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D87" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="E87" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="BB87" t="s">
         <v>86</v>
       </c>
       <c r="BL87" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB87" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
         <v>93</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E88" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F88" t="s">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="H88" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="BB88" t="s">
         <v>86</v>
       </c>
       <c r="BL88" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB88" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B89" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C89" t="s">
         <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E89" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F89" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="H89" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="BB89" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="BL89" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BN89" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="CB89" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B90" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C90" t="s">
         <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E90" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F90" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="X90" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="BB90" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="BN90" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB90" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B91" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C91" t="s">
         <v>122</v>
       </c>
       <c r="D91" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E91" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AH91" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="BL91" t="s">
         <v>89</v>
@@ -6290,43 +6277,43 @@
     </row>
     <row r="92" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" t="s">
         <v>152</v>
-      </c>
-      <c r="B92" t="s">
-        <v>153</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F92" t="s">
         <v>118</v>
       </c>
       <c r="H92" t="s">
+        <v>154</v>
+      </c>
+      <c r="J92" t="s">
+        <v>135</v>
+      </c>
+      <c r="L92" t="s">
         <v>155</v>
       </c>
-      <c r="J92" t="s">
-        <v>136</v>
-      </c>
-      <c r="L92" t="s">
+      <c r="N92" t="s">
         <v>156</v>
-      </c>
-      <c r="N92" t="s">
-        <v>157</v>
       </c>
       <c r="BB92" t="s">
         <v>86</v>
       </c>
       <c r="BD92" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF92" t="s">
         <v>138</v>
-      </c>
-      <c r="BF92" t="s">
-        <v>139</v>
       </c>
       <c r="BL92" t="s">
         <v>118</v>
@@ -6337,294 +6324,294 @@
     </row>
     <row r="93" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B93" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C93" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D93" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="E93" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="AH93" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="AJ93" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BB93" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL93" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN93" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BP93" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BR93" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="BT93" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BV93" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CB93" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="B94" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="C94" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D94" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="E94" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="BB94" t="s">
         <v>86</v>
       </c>
       <c r="BL94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B95" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C95" t="s">
         <v>122</v>
       </c>
       <c r="D95" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="E95" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AH95" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="BB95" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="BL95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B96" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C96" t="s">
         <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E96" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F96" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BB96" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BL96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B97" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C97" t="s">
         <v>93</v>
       </c>
       <c r="D97" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E97" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F97" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H97" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J97" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="BB97" t="s">
         <v>86</v>
       </c>
       <c r="BD97" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BL97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B98" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C98" t="s">
         <v>93</v>
       </c>
       <c r="D98" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E98" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F98" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H98" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J98" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="BB98" t="s">
         <v>86</v>
       </c>
       <c r="BD98" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BF98" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="BL98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s">
         <v>93</v>
       </c>
       <c r="D99" t="s">
+        <v>233</v>
+      </c>
+      <c r="E99" t="s">
+        <v>234</v>
+      </c>
+      <c r="F99" t="s">
+        <v>235</v>
+      </c>
+      <c r="H99" t="s">
+        <v>236</v>
+      </c>
+      <c r="J99" t="s">
         <v>237</v>
       </c>
-      <c r="E99" t="s">
+      <c r="L99" t="s">
         <v>238</v>
-      </c>
-      <c r="F99" t="s">
-        <v>239</v>
-      </c>
-      <c r="H99" t="s">
-        <v>240</v>
-      </c>
-      <c r="J99" t="s">
-        <v>241</v>
-      </c>
-      <c r="L99" t="s">
-        <v>242</v>
       </c>
       <c r="BB99" t="s">
         <v>86</v>
       </c>
       <c r="BD99" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BL99" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB99" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B100" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C100" t="s">
         <v>93</v>
       </c>
       <c r="D100" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E100" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H100" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="J100" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="X100" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Z100" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="BB100" t="s">
         <v>86</v>
       </c>
       <c r="BL100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB100" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:80" x14ac:dyDescent="0.2">
@@ -6632,7 +6619,7 @@
         <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C101" t="s">
         <v>93</v>
@@ -6664,898 +6651,900 @@
     </row>
     <row r="102" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="B102" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C102" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D102" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E102" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="BB102" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL102" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN102" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP102" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BR102" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="BT102" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BV102" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BX102" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BZ102" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="CB102" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="103" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C103" t="s">
         <v>82</v>
       </c>
       <c r="D103" t="s">
+        <v>196</v>
+      </c>
+      <c r="E103" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ103" t="s">
         <v>198</v>
       </c>
-      <c r="E103" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH103" t="s">
+      <c r="AL103" t="s">
         <v>199</v>
-      </c>
-      <c r="AJ103" t="s">
-        <v>200</v>
-      </c>
-      <c r="AL103" t="s">
-        <v>201</v>
       </c>
       <c r="BB103" t="s">
         <v>96</v>
       </c>
       <c r="BL103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="CB103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B104" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C104" t="s">
         <v>122</v>
       </c>
       <c r="D104" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="E104" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="AH104" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="BB104" t="s">
         <v>86</v>
       </c>
       <c r="BL104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CB104" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B105" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C105" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D105" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="E105" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="AH105" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="BB105" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL105" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN105" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP105" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BR105" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="BT105" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BV105" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BX105" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BZ105" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="CB105" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="106" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B106" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C106" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D106" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E106" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="BB106" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL106" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN106" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP106" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BR106" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="BT106" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BV106" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="CB106" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B107" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="C107" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D107" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="E107" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="AH107" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="BB107" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL107" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN107" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BP107" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BR107" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="BT107" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BV107" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CB107" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B108" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="C108" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D108" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="E108" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="AH108" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BB108" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL108" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN108" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BP108" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BR108" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="BT108" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BV108" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CB108" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="B109" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="C109" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D109" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="E109" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="AH109" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BB109" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL109" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN109" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP109" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BR109" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="BT109" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BV109" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BX109" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BZ109" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="CB109" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="110" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B110" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C110" t="s">
         <v>93</v>
       </c>
       <c r="D110" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E110" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F110" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="BB110" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BD110" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="BL110" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="BN110" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="BP110" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="CB110" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C111" t="s">
         <v>93</v>
       </c>
       <c r="D111" t="s">
+        <v>266</v>
+      </c>
+      <c r="E111" t="s">
+        <v>267</v>
+      </c>
+      <c r="F111" t="s">
+        <v>268</v>
+      </c>
+      <c r="H111" t="s">
+        <v>735</v>
+      </c>
+      <c r="BB111" t="s">
+        <v>257</v>
+      </c>
+      <c r="BL111" t="s">
+        <v>268</v>
+      </c>
+      <c r="BN111" t="s">
+        <v>269</v>
+      </c>
+      <c r="CB111" t="s">
         <v>270</v>
-      </c>
-      <c r="E111" t="s">
-        <v>271</v>
-      </c>
-      <c r="F111" t="s">
-        <v>272</v>
-      </c>
-      <c r="H111" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB111" t="s">
-        <v>261</v>
-      </c>
-      <c r="BL111" t="s">
-        <v>272</v>
-      </c>
-      <c r="BN111" t="s">
-        <v>273</v>
-      </c>
-      <c r="CB111" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="112" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B112" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="C112" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D112" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="E112" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="BB112" t="s">
         <v>86</v>
       </c>
       <c r="BL112" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB112" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B113" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C113" t="s">
         <v>93</v>
       </c>
       <c r="D113" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E113" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F113" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="X113" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB113" t="s">
         <v>289</v>
-      </c>
-      <c r="Z113" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB113" t="s">
-        <v>293</v>
       </c>
       <c r="BB113" t="s">
         <v>86</v>
       </c>
       <c r="BL113" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB113" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B114" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C114" t="s">
         <v>93</v>
       </c>
       <c r="D114" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E114" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F114" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="X114" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Z114" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="BB114" t="s">
         <v>86</v>
       </c>
       <c r="BL114" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB114" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B115" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C115" t="s">
         <v>93</v>
       </c>
       <c r="D115" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E115" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F115" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="X115" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="BB115" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BD115" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="BL115" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BN115" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="BP115" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="BR115" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="CB115" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B116" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C116" t="s">
         <v>93</v>
       </c>
       <c r="D116" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E116" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F116" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="H116" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="BB116" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BD116" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="BL116" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CB116" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="B117" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="C117" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D117" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="E117" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="AH117" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="AJ117" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="AL117" t="s">
-        <v>713</v>
-      </c>
-      <c r="AN117" t="s">
-        <v>714</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="AN117" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO117" s="3"/>
       <c r="BB117" t="s">
         <v>86</v>
       </c>
-      <c r="BL117" t="s">
-        <v>714</v>
-      </c>
+      <c r="BL117" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM117" s="3"/>
       <c r="CB117" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B118" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C118" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D118" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E118" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="AH118" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="AJ118" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BB118" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL118" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN118" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP118" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BR118" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="BT118" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BV118" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="CB118" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="119" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B119" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C119" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D119" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="E119" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="AH119" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="AJ119" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BB119" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL119" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN119" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BP119" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BR119" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="BT119" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BV119" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="CB119" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="120" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B120" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C120" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D120" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E120" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="AH120" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AJ120" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BB120" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BL120" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="BN120" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="BP120" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="BR120" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="BT120" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BV120" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CB120" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="121" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="B121" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="C121" t="s">
         <v>82</v>
       </c>
       <c r="D121" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E121" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="AH121" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>619</v>
+      </c>
+      <c r="BB121" t="s">
+        <v>620</v>
+      </c>
+      <c r="BD121" t="s">
+        <v>208</v>
+      </c>
+      <c r="BF121" t="s">
+        <v>621</v>
+      </c>
+      <c r="BL121" t="s">
         <v>211</v>
       </c>
-      <c r="AJ121" t="s">
-        <v>628</v>
-      </c>
-      <c r="BB121" t="s">
-        <v>629</v>
-      </c>
-      <c r="BD121" t="s">
-        <v>210</v>
-      </c>
-      <c r="BF121" t="s">
-        <v>630</v>
-      </c>
-      <c r="BL121" t="s">
-        <v>213</v>
-      </c>
       <c r="CB121" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="122" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B122" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D122" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E122" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AH122" t="s">
         <v>118</v>
       </c>
       <c r="AJ122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL122" t="s">
         <v>89</v>
       </c>
       <c r="AN122" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AP122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BB122" t="s">
         <v>96</v>
       </c>
       <c r="BL122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CB122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>213</v>
+      </c>
+      <c r="B123" t="s">
+        <v>725</v>
+      </c>
+      <c r="C123" t="s">
+        <v>142</v>
+      </c>
+      <c r="D123" t="s">
+        <v>214</v>
+      </c>
+      <c r="E123" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH123" t="s">
         <v>215</v>
       </c>
-      <c r="B123" t="s">
-        <v>735</v>
-      </c>
-      <c r="C123" t="s">
-        <v>143</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="AJ123" t="s">
         <v>216</v>
       </c>
-      <c r="E123" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH123" t="s">
+      <c r="AL123" t="s">
         <v>217</v>
       </c>
-      <c r="AJ123" t="s">
+      <c r="AN123" t="s">
         <v>218</v>
       </c>
-      <c r="AL123" t="s">
+      <c r="AP123" t="s">
         <v>219</v>
       </c>
-      <c r="AN123" t="s">
+      <c r="AR123" t="s">
         <v>220</v>
       </c>
-      <c r="AP123" t="s">
-        <v>221</v>
-      </c>
-      <c r="AR123" t="s">
-        <v>222</v>
-      </c>
       <c r="AT123" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BB123" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BL123" t="s">
         <v>89</v>
       </c>
       <c r="BN123" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="CB123" t="s">
         <v>90</v>

--- a/events/events/_event_data_collector.xlsx
+++ b/events/events/_event_data_collector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patcallahan/Documents/Coding/Open Science Center/lmu-osc.github.io/events/events/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67F2AF7-50D1-E84D-8A47-03E18DFF573F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394092D4-6153-F44C-BDE4-E6AA0CCB161D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="46960" windowHeight="25560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="735">
   <si>
     <t>file_paths</t>
   </si>
@@ -1178,9 +1178,6 @@
   </si>
   <si>
     <t>14-Oct-22</t>
-  </si>
-  <si>
-    <t>Dr. Moritz Fischer </t>
   </si>
   <si>
     <t>events/events/20240315_multiverse_analysis_and_visualizations_in_r.qmd</t>
@@ -2627,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C92" zoomScale="174" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2881,37 +2878,37 @@
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" t="s">
         <v>412</v>
-      </c>
-      <c r="B2" t="s">
-        <v>413</v>
       </c>
       <c r="C2" t="s">
         <v>292</v>
       </c>
       <c r="D2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E2" t="s">
         <v>414</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>415</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>416</v>
-      </c>
-      <c r="H2" t="s">
-        <v>417</v>
       </c>
       <c r="J2" t="s">
         <v>185</v>
       </c>
       <c r="L2" t="s">
+        <v>417</v>
+      </c>
+      <c r="N2" t="s">
         <v>418</v>
       </c>
-      <c r="N2" t="s">
+      <c r="BB2" t="s">
         <v>419</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>420</v>
       </c>
       <c r="BD2" t="s">
         <v>86</v>
@@ -3068,7 +3065,7 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" t="s">
-        <v>385</v>
+        <v>734</v>
       </c>
       <c r="BB5" t="s">
         <v>257</v>
@@ -3094,34 +3091,34 @@
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B6" t="s">
         <v>634</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" t="s">
         <v>635</v>
       </c>
-      <c r="C6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D6" t="s">
-        <v>636</v>
-      </c>
       <c r="E6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="BB6" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL6" t="s">
         <v>456</v>
       </c>
-      <c r="BL6" t="s">
-        <v>457</v>
-      </c>
       <c r="BN6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BP6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BR6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BT6" t="s">
         <v>236</v>
@@ -3130,94 +3127,94 @@
         <v>300</v>
       </c>
       <c r="CB6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B7" t="s">
         <v>521</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" t="s">
         <v>522</v>
       </c>
-      <c r="C7" t="s">
-        <v>454</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>522</v>
+      </c>
+      <c r="AH7" t="s">
         <v>523</v>
       </c>
-      <c r="E7" t="s">
-        <v>523</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>524</v>
-      </c>
       <c r="BB7" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL7" t="s">
         <v>456</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BN7" t="s">
         <v>457</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>458</v>
       </c>
       <c r="BP7" t="s">
         <v>253</v>
       </c>
       <c r="CB7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B8" t="s">
         <v>499</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D8" t="s">
         <v>500</v>
       </c>
-      <c r="C8" t="s">
-        <v>454</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>500</v>
+      </c>
+      <c r="AH8" t="s">
         <v>501</v>
       </c>
-      <c r="E8" t="s">
-        <v>501</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>502</v>
-      </c>
       <c r="BB8" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL8" t="s">
         <v>456</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BN8" t="s">
         <v>457</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>458</v>
       </c>
       <c r="BP8" t="s">
         <v>253</v>
       </c>
       <c r="CB8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B9" t="s">
         <v>645</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D9" t="s">
         <v>646</v>
       </c>
-      <c r="C9" t="s">
-        <v>423</v>
-      </c>
-      <c r="D9" t="s">
-        <v>647</v>
-      </c>
       <c r="E9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="BB9" t="s">
         <v>86</v>
@@ -3231,40 +3228,40 @@
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B10" t="s">
         <v>468</v>
-      </c>
-      <c r="B10" t="s">
-        <v>469</v>
       </c>
       <c r="C10" t="s">
         <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AH10" t="s">
         <v>111</v>
       </c>
       <c r="AJ10" t="s">
+        <v>470</v>
+      </c>
+      <c r="AL10" t="s">
         <v>471</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AN10" t="s">
         <v>472</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AP10" t="s">
+        <v>441</v>
+      </c>
+      <c r="AR10" t="s">
         <v>473</v>
       </c>
-      <c r="AP10" t="s">
-        <v>442</v>
-      </c>
-      <c r="AR10" t="s">
+      <c r="AT10" t="s">
         <v>474</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>475</v>
       </c>
       <c r="BB10" t="s">
         <v>230</v>
@@ -3278,19 +3275,19 @@
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C11" t="s">
         <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AH11" t="s">
         <v>192</v>
@@ -3307,19 +3304,19 @@
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" t="s">
+        <v>733</v>
+      </c>
+      <c r="C12" t="s">
         <v>406</v>
       </c>
-      <c r="B12" t="s">
-        <v>734</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>407</v>
       </c>
-      <c r="D12" t="s">
-        <v>408</v>
-      </c>
       <c r="E12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>118</v>
@@ -3369,107 +3366,107 @@
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B14" t="s">
         <v>574</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>453</v>
+      </c>
+      <c r="D14" t="s">
         <v>575</v>
       </c>
-      <c r="C14" t="s">
-        <v>454</v>
-      </c>
-      <c r="D14" t="s">
-        <v>576</v>
-      </c>
       <c r="E14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AH14" t="s">
         <v>184</v>
       </c>
       <c r="BB14" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL14" t="s">
         <v>456</v>
       </c>
-      <c r="BL14" t="s">
+      <c r="BN14" t="s">
         <v>457</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>458</v>
       </c>
       <c r="BP14" t="s">
         <v>253</v>
       </c>
       <c r="BR14" t="s">
+        <v>527</v>
+      </c>
+      <c r="BT14" t="s">
         <v>528</v>
       </c>
-      <c r="BT14" t="s">
-        <v>529</v>
-      </c>
       <c r="BV14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BX14" t="s">
         <v>236</v>
       </c>
       <c r="BZ14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="CB14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>713</v>
+      </c>
+      <c r="B15" t="s">
         <v>714</v>
-      </c>
-      <c r="B15" t="s">
-        <v>715</v>
       </c>
       <c r="C15" t="s">
         <v>104</v>
       </c>
       <c r="D15" t="s">
+        <v>715</v>
+      </c>
+      <c r="E15" t="s">
+        <v>715</v>
+      </c>
+      <c r="BB15" t="s">
         <v>716</v>
-      </c>
-      <c r="E15" t="s">
-        <v>716</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>717</v>
       </c>
       <c r="BD15" t="s">
         <v>239</v>
       </c>
       <c r="BF15" t="s">
+        <v>688</v>
+      </c>
+      <c r="BL15" t="s">
         <v>689</v>
       </c>
-      <c r="BL15" t="s">
+      <c r="BN15" t="s">
         <v>690</v>
       </c>
-      <c r="BN15" t="s">
-        <v>691</v>
-      </c>
       <c r="CB15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>708</v>
+      </c>
+      <c r="B16" t="s">
         <v>709</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>710</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>711</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>711</v>
+      </c>
+      <c r="AH16" t="s">
         <v>712</v>
-      </c>
-      <c r="E16" t="s">
-        <v>712</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>713</v>
       </c>
       <c r="BB16" t="s">
         <v>86</v>
@@ -3484,37 +3481,37 @@
     </row>
     <row r="17" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>594</v>
+      </c>
+      <c r="B17" t="s">
         <v>595</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>453</v>
+      </c>
+      <c r="D17" t="s">
         <v>596</v>
       </c>
-      <c r="C17" t="s">
-        <v>454</v>
-      </c>
-      <c r="D17" t="s">
-        <v>597</v>
-      </c>
       <c r="E17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AH17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BB17" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL17" t="s">
         <v>456</v>
       </c>
-      <c r="BL17" t="s">
-        <v>457</v>
-      </c>
       <c r="BN17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BP17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BR17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BT17" t="s">
         <v>236</v>
@@ -3523,7 +3520,7 @@
         <v>300</v>
       </c>
       <c r="CB17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:80" x14ac:dyDescent="0.2">
@@ -3563,124 +3560,124 @@
     </row>
     <row r="19" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>451</v>
+      </c>
+      <c r="B19" t="s">
         <v>452</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>453</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>454</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>454</v>
+      </c>
+      <c r="BB19" t="s">
         <v>455</v>
-      </c>
-      <c r="E19" t="s">
-        <v>455</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>456</v>
       </c>
       <c r="BL19" t="s">
         <v>118</v>
       </c>
       <c r="BN19" t="s">
+        <v>456</v>
+      </c>
+      <c r="BP19" t="s">
         <v>457</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>458</v>
       </c>
       <c r="BR19" t="s">
         <v>253</v>
       </c>
       <c r="CB19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>459</v>
+      </c>
+      <c r="B20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C20" t="s">
+        <v>453</v>
+      </c>
+      <c r="D20" t="s">
         <v>460</v>
       </c>
-      <c r="B20" t="s">
-        <v>453</v>
-      </c>
-      <c r="C20" t="s">
-        <v>454</v>
-      </c>
-      <c r="D20" t="s">
-        <v>461</v>
-      </c>
       <c r="E20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="BB20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BL20" t="s">
         <v>118</v>
       </c>
       <c r="BN20" t="s">
+        <v>456</v>
+      </c>
+      <c r="BP20" t="s">
         <v>457</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>458</v>
       </c>
       <c r="BR20" t="s">
         <v>253</v>
       </c>
       <c r="CB20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>487</v>
+      </c>
+      <c r="B21" t="s">
         <v>488</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>453</v>
+      </c>
+      <c r="D21" t="s">
         <v>489</v>
       </c>
-      <c r="C21" t="s">
-        <v>454</v>
-      </c>
-      <c r="D21" t="s">
-        <v>490</v>
-      </c>
       <c r="E21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="BB21" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL21" t="s">
         <v>456</v>
       </c>
-      <c r="BL21" t="s">
+      <c r="BN21" t="s">
         <v>457</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>458</v>
       </c>
       <c r="BP21" t="s">
         <v>253</v>
       </c>
       <c r="CB21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>401</v>
+      </c>
+      <c r="B22" t="s">
         <v>402</v>
-      </c>
-      <c r="B22" t="s">
-        <v>403</v>
       </c>
       <c r="C22" t="s">
         <v>93</v>
       </c>
       <c r="D22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E22" t="s">
+        <v>403</v>
+      </c>
+      <c r="F22" t="s">
         <v>404</v>
-      </c>
-      <c r="E22" t="s">
-        <v>404</v>
-      </c>
-      <c r="F22" t="s">
-        <v>405</v>
       </c>
       <c r="BB22" t="s">
         <v>257</v>
@@ -3700,90 +3697,90 @@
     </row>
     <row r="23" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>533</v>
+      </c>
+      <c r="B23" t="s">
         <v>534</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>453</v>
+      </c>
+      <c r="D23" t="s">
         <v>535</v>
       </c>
-      <c r="C23" t="s">
-        <v>454</v>
-      </c>
-      <c r="D23" t="s">
-        <v>536</v>
-      </c>
       <c r="E23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="BB23" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL23" t="s">
         <v>456</v>
       </c>
-      <c r="BL23" t="s">
+      <c r="BN23" t="s">
         <v>457</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>458</v>
       </c>
       <c r="BP23" t="s">
         <v>253</v>
       </c>
       <c r="BR23" t="s">
+        <v>527</v>
+      </c>
+      <c r="BT23" t="s">
         <v>528</v>
       </c>
-      <c r="BT23" t="s">
+      <c r="BX23" t="s">
         <v>529</v>
       </c>
-      <c r="BX23" t="s">
-        <v>530</v>
-      </c>
       <c r="CB23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>680</v>
+      </c>
+      <c r="B24" t="s">
         <v>681</v>
-      </c>
-      <c r="B24" t="s">
-        <v>682</v>
       </c>
       <c r="C24" t="s">
         <v>142</v>
       </c>
       <c r="D24" t="s">
+        <v>682</v>
+      </c>
+      <c r="E24" t="s">
+        <v>682</v>
+      </c>
+      <c r="AH24" t="s">
         <v>683</v>
       </c>
-      <c r="E24" t="s">
-        <v>683</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="AJ24" t="s">
         <v>684</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AL24" t="s">
         <v>685</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AN24" t="s">
         <v>686</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AP24" t="s">
         <v>687</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="BB24" t="s">
         <v>688</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>689</v>
       </c>
       <c r="BD24" t="s">
         <v>239</v>
       </c>
       <c r="BL24" t="s">
+        <v>689</v>
+      </c>
+      <c r="BN24" t="s">
         <v>690</v>
       </c>
-      <c r="BN24" t="s">
+      <c r="CB24" t="s">
         <v>691</v>
-      </c>
-      <c r="CB24" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:80" x14ac:dyDescent="0.2">
@@ -3817,22 +3814,22 @@
     </row>
     <row r="26" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>390</v>
+      </c>
+      <c r="B26" t="s">
         <v>391</v>
-      </c>
-      <c r="B26" t="s">
-        <v>392</v>
       </c>
       <c r="C26" t="s">
         <v>93</v>
       </c>
       <c r="D26" t="s">
+        <v>392</v>
+      </c>
+      <c r="E26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F26" t="s">
         <v>393</v>
-      </c>
-      <c r="E26" t="s">
-        <v>393</v>
-      </c>
-      <c r="F26" t="s">
-        <v>394</v>
       </c>
       <c r="BB26" t="s">
         <v>230</v>
@@ -3846,19 +3843,19 @@
     </row>
     <row r="27" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>493</v>
+      </c>
+      <c r="B27" t="s">
         <v>494</v>
-      </c>
-      <c r="B27" t="s">
-        <v>495</v>
       </c>
       <c r="C27" t="s">
         <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="BB27" t="s">
         <v>210</v>
@@ -3872,37 +3869,37 @@
     </row>
     <row r="28" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>514</v>
+      </c>
+      <c r="B28" t="s">
         <v>515</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>453</v>
+      </c>
+      <c r="D28" t="s">
         <v>516</v>
       </c>
-      <c r="C28" t="s">
-        <v>454</v>
-      </c>
-      <c r="D28" t="s">
-        <v>517</v>
-      </c>
       <c r="E28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AH28" t="s">
         <v>185</v>
       </c>
       <c r="BB28" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL28" t="s">
         <v>456</v>
       </c>
-      <c r="BL28" t="s">
+      <c r="BN28" t="s">
         <v>457</v>
-      </c>
-      <c r="BN28" t="s">
-        <v>458</v>
       </c>
       <c r="BP28" t="s">
         <v>253</v>
       </c>
       <c r="CB28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:80" x14ac:dyDescent="0.2">
@@ -3936,22 +3933,22 @@
     </row>
     <row r="30" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>704</v>
+      </c>
+      <c r="B30" t="s">
         <v>705</v>
-      </c>
-      <c r="B30" t="s">
-        <v>706</v>
       </c>
       <c r="C30" t="s">
         <v>122</v>
       </c>
       <c r="D30" t="s">
+        <v>706</v>
+      </c>
+      <c r="E30" t="s">
+        <v>706</v>
+      </c>
+      <c r="AH30" t="s">
         <v>707</v>
-      </c>
-      <c r="E30" t="s">
-        <v>707</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>708</v>
       </c>
       <c r="BB30" t="s">
         <v>86</v>
@@ -3965,28 +3962,28 @@
     </row>
     <row r="31" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>502</v>
+      </c>
+      <c r="B31" t="s">
         <v>503</v>
-      </c>
-      <c r="B31" t="s">
-        <v>504</v>
       </c>
       <c r="C31" t="s">
         <v>142</v>
       </c>
       <c r="D31" t="s">
+        <v>504</v>
+      </c>
+      <c r="E31" t="s">
+        <v>504</v>
+      </c>
+      <c r="AH31" t="s">
         <v>505</v>
       </c>
-      <c r="E31" t="s">
-        <v>505</v>
-      </c>
-      <c r="AH31" t="s">
+      <c r="AJ31" t="s">
         <v>506</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AL31" t="s">
         <v>507</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>508</v>
       </c>
       <c r="BB31" t="s">
         <v>86</v>
@@ -3995,7 +3992,7 @@
         <v>185</v>
       </c>
       <c r="BN31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="BP31" t="s">
         <v>118</v>
@@ -4006,19 +4003,19 @@
     </row>
     <row r="32" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>606</v>
+      </c>
+      <c r="B32" t="s">
         <v>607</v>
-      </c>
-      <c r="B32" t="s">
-        <v>608</v>
       </c>
       <c r="C32" t="s">
         <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AH32" s="3" t="s">
         <v>118</v>
@@ -4036,19 +4033,19 @@
     </row>
     <row r="33" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>612</v>
+      </c>
+      <c r="B33" t="s">
         <v>613</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>422</v>
+      </c>
+      <c r="D33" t="s">
         <v>614</v>
       </c>
-      <c r="C33" t="s">
-        <v>423</v>
-      </c>
-      <c r="D33" t="s">
-        <v>615</v>
-      </c>
       <c r="E33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="BB33" t="s">
         <v>86</v>
@@ -4062,22 +4059,22 @@
     </row>
     <row r="34" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>624</v>
+      </c>
+      <c r="B34" t="s">
         <v>625</v>
-      </c>
-      <c r="B34" t="s">
-        <v>626</v>
       </c>
       <c r="C34" t="s">
         <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AH34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BB34" t="s">
         <v>86</v>
@@ -4123,19 +4120,19 @@
     </row>
     <row r="36" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>551</v>
+      </c>
+      <c r="B36" t="s">
         <v>552</v>
-      </c>
-      <c r="B36" t="s">
-        <v>553</v>
       </c>
       <c r="C36" t="s">
         <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AH36" t="s">
         <v>185</v>
@@ -4187,19 +4184,19 @@
     </row>
     <row r="38" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C38" t="s">
         <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AH38" t="s">
         <v>185</v>
@@ -4284,31 +4281,31 @@
     </row>
     <row r="40" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>692</v>
+      </c>
+      <c r="B40" t="s">
         <v>693</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>422</v>
+      </c>
+      <c r="D40" t="s">
         <v>694</v>
       </c>
-      <c r="C40" t="s">
-        <v>423</v>
-      </c>
-      <c r="D40" t="s">
-        <v>695</v>
-      </c>
       <c r="E40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="BB40" t="s">
         <v>86</v>
       </c>
       <c r="BD40" t="s">
+        <v>695</v>
+      </c>
+      <c r="BL40" t="s">
         <v>696</v>
       </c>
-      <c r="BL40" t="s">
+      <c r="CB40" t="s">
         <v>697</v>
-      </c>
-      <c r="CB40" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="41" spans="1:80" x14ac:dyDescent="0.2">
@@ -4414,51 +4411,51 @@
     </row>
     <row r="42" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>490</v>
+      </c>
+      <c r="B42" t="s">
         <v>491</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>453</v>
+      </c>
+      <c r="D42" t="s">
         <v>492</v>
       </c>
-      <c r="C42" t="s">
-        <v>454</v>
-      </c>
-      <c r="D42" t="s">
-        <v>493</v>
-      </c>
       <c r="E42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="BB42" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL42" t="s">
         <v>456</v>
       </c>
-      <c r="BL42" t="s">
+      <c r="BN42" t="s">
         <v>457</v>
-      </c>
-      <c r="BN42" t="s">
-        <v>458</v>
       </c>
       <c r="BP42" t="s">
         <v>253</v>
       </c>
       <c r="CB42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>540</v>
+      </c>
+      <c r="B43" t="s">
         <v>541</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>542</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>543</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>544</v>
-      </c>
-      <c r="E43" t="s">
-        <v>545</v>
       </c>
       <c r="AH43" t="s">
         <v>135</v>
@@ -4479,7 +4476,7 @@
         <v>134</v>
       </c>
       <c r="AT43" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BB43" t="s">
         <v>137</v>
@@ -4491,30 +4488,30 @@
         <v>156</v>
       </c>
       <c r="CB43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>718</v>
+      </c>
+      <c r="B44" t="s">
+        <v>541</v>
+      </c>
+      <c r="C44" t="s">
+        <v>542</v>
+      </c>
+      <c r="D44" t="s">
         <v>719</v>
       </c>
-      <c r="B44" t="s">
-        <v>542</v>
-      </c>
-      <c r="C44" t="s">
-        <v>543</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>720</v>
-      </c>
-      <c r="E44" t="s">
-        <v>721</v>
       </c>
       <c r="AH44" t="s">
         <v>185</v>
       </c>
       <c r="AJ44" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AL44" t="s">
         <v>154</v>
@@ -4523,7 +4520,7 @@
         <v>156</v>
       </c>
       <c r="AP44" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="BB44" t="s">
         <v>137</v>
@@ -4535,30 +4532,30 @@
         <v>138</v>
       </c>
       <c r="CB44" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="45" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>394</v>
+      </c>
+      <c r="B45" t="s">
         <v>395</v>
-      </c>
-      <c r="B45" t="s">
-        <v>396</v>
       </c>
       <c r="C45" t="s">
         <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E45" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F45" t="s">
         <v>118</v>
       </c>
       <c r="H45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BB45" t="s">
         <v>86</v>
@@ -4572,37 +4569,37 @@
     </row>
     <row r="46" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>647</v>
+      </c>
+      <c r="B46" t="s">
         <v>648</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>649</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>646</v>
+      </c>
+      <c r="E46" t="s">
+        <v>646</v>
+      </c>
+      <c r="AH46" t="s">
         <v>650</v>
       </c>
-      <c r="D46" t="s">
-        <v>647</v>
-      </c>
-      <c r="E46" t="s">
-        <v>647</v>
-      </c>
-      <c r="AH46" t="s">
+      <c r="AJ46" t="s">
         <v>651</v>
       </c>
-      <c r="AJ46" t="s">
+      <c r="AL46" t="s">
         <v>652</v>
       </c>
-      <c r="AL46" t="s">
+      <c r="AN46" t="s">
         <v>653</v>
       </c>
-      <c r="AN46" t="s">
+      <c r="AP46" t="s">
         <v>654</v>
       </c>
-      <c r="AP46" t="s">
+      <c r="AR46" t="s">
         <v>655</v>
-      </c>
-      <c r="AR46" t="s">
-        <v>656</v>
       </c>
       <c r="BB46" t="s">
         <v>343</v>
@@ -4619,37 +4616,37 @@
     </row>
     <row r="47" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>661</v>
+      </c>
+      <c r="B47" t="s">
         <v>662</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>649</v>
+      </c>
+      <c r="D47" t="s">
         <v>663</v>
       </c>
-      <c r="C47" t="s">
-        <v>650</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>663</v>
+      </c>
+      <c r="AH47" t="s">
         <v>664</v>
       </c>
-      <c r="E47" t="s">
-        <v>664</v>
-      </c>
-      <c r="AH47" t="s">
+      <c r="AJ47" t="s">
         <v>665</v>
       </c>
-      <c r="AJ47" t="s">
+      <c r="AL47" t="s">
         <v>666</v>
       </c>
-      <c r="AL47" t="s">
+      <c r="AN47" t="s">
         <v>667</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>668</v>
       </c>
       <c r="AP47" t="s">
         <v>185</v>
       </c>
       <c r="AR47" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="BB47" t="s">
         <v>343</v>
@@ -4661,30 +4658,30 @@
         <v>319</v>
       </c>
       <c r="CB47" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="48" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>385</v>
+      </c>
+      <c r="B48" t="s">
         <v>386</v>
-      </c>
-      <c r="B48" t="s">
-        <v>387</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
       </c>
       <c r="D48" t="s">
+        <v>387</v>
+      </c>
+      <c r="E48" t="s">
+        <v>387</v>
+      </c>
+      <c r="F48" t="s">
         <v>388</v>
       </c>
-      <c r="E48" t="s">
-        <v>388</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>389</v>
-      </c>
-      <c r="H48" t="s">
-        <v>390</v>
       </c>
       <c r="BB48" t="s">
         <v>86</v>
@@ -4736,25 +4733,25 @@
     </row>
     <row r="50" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>563</v>
+      </c>
+      <c r="B50" t="s">
         <v>564</v>
-      </c>
-      <c r="B50" t="s">
-        <v>565</v>
       </c>
       <c r="C50" t="s">
         <v>122</v>
       </c>
       <c r="D50" t="s">
+        <v>565</v>
+      </c>
+      <c r="E50" t="s">
+        <v>565</v>
+      </c>
+      <c r="AH50" t="s">
         <v>566</v>
       </c>
-      <c r="E50" t="s">
-        <v>566</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>567</v>
-      </c>
       <c r="BB50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BD50" t="s">
         <v>86</v>
@@ -4768,22 +4765,22 @@
     </row>
     <row r="51" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B51" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C51" t="s">
         <v>122</v>
       </c>
       <c r="D51" t="s">
+        <v>657</v>
+      </c>
+      <c r="E51" t="s">
+        <v>657</v>
+      </c>
+      <c r="AH51" t="s">
         <v>658</v>
-      </c>
-      <c r="E51" t="s">
-        <v>658</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>659</v>
       </c>
       <c r="BB51" t="s">
         <v>86</v>
@@ -4797,25 +4794,25 @@
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B52" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C52" t="s">
         <v>93</v>
       </c>
       <c r="D52" t="s">
+        <v>409</v>
+      </c>
+      <c r="E52" t="s">
+        <v>409</v>
+      </c>
+      <c r="F52" t="s">
         <v>410</v>
       </c>
-      <c r="E52" t="s">
-        <v>410</v>
-      </c>
-      <c r="F52" t="s">
-        <v>411</v>
-      </c>
       <c r="H52" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BB52" t="s">
         <v>257</v>
@@ -4879,19 +4876,19 @@
     </row>
     <row r="54" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>398</v>
+      </c>
+      <c r="B54" t="s">
         <v>399</v>
-      </c>
-      <c r="B54" t="s">
-        <v>400</v>
       </c>
       <c r="C54" t="s">
         <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F54" t="s">
         <v>118</v>
@@ -4908,34 +4905,34 @@
     </row>
     <row r="55" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>642</v>
+      </c>
+      <c r="B55" t="s">
+        <v>399</v>
+      </c>
+      <c r="C55" t="s">
+        <v>453</v>
+      </c>
+      <c r="D55" t="s">
         <v>643</v>
       </c>
-      <c r="B55" t="s">
-        <v>400</v>
-      </c>
-      <c r="C55" t="s">
-        <v>454</v>
-      </c>
-      <c r="D55" t="s">
-        <v>644</v>
-      </c>
       <c r="E55" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="BB55" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL55" t="s">
         <v>456</v>
       </c>
-      <c r="BL55" t="s">
-        <v>457</v>
-      </c>
       <c r="BN55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BP55" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BR55" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BT55" t="s">
         <v>236</v>
@@ -4944,7 +4941,7 @@
         <v>300</v>
       </c>
       <c r="CB55" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="1:80" x14ac:dyDescent="0.2">
@@ -5050,37 +5047,37 @@
     </row>
     <row r="58" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>579</v>
+      </c>
+      <c r="B58" t="s">
         <v>580</v>
-      </c>
-      <c r="B58" t="s">
-        <v>581</v>
       </c>
       <c r="C58" t="s">
         <v>142</v>
       </c>
       <c r="D58" t="s">
+        <v>581</v>
+      </c>
+      <c r="E58" t="s">
+        <v>581</v>
+      </c>
+      <c r="AH58" t="s">
         <v>582</v>
       </c>
-      <c r="E58" t="s">
-        <v>582</v>
-      </c>
-      <c r="AH58" t="s">
+      <c r="AJ58" t="s">
         <v>583</v>
       </c>
-      <c r="AJ58" t="s">
+      <c r="AL58" t="s">
         <v>584</v>
       </c>
-      <c r="AL58" t="s">
+      <c r="AN58" t="s">
         <v>585</v>
-      </c>
-      <c r="AN58" t="s">
-        <v>586</v>
       </c>
       <c r="AP58" t="s">
         <v>328</v>
       </c>
       <c r="AR58" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="BB58" t="s">
         <v>86</v>
@@ -5089,7 +5086,7 @@
         <v>381</v>
       </c>
       <c r="BF58" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="BL58" t="s">
         <v>156</v>
@@ -5147,34 +5144,34 @@
     </row>
     <row r="60" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>636</v>
+      </c>
+      <c r="B60" t="s">
         <v>637</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>453</v>
+      </c>
+      <c r="D60" t="s">
         <v>638</v>
       </c>
-      <c r="C60" t="s">
-        <v>454</v>
-      </c>
-      <c r="D60" t="s">
-        <v>639</v>
-      </c>
       <c r="E60" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="BB60" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL60" t="s">
         <v>456</v>
       </c>
-      <c r="BL60" t="s">
-        <v>457</v>
-      </c>
       <c r="BN60" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BP60" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BR60" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BT60" t="s">
         <v>236</v>
@@ -5183,7 +5180,7 @@
         <v>300</v>
       </c>
       <c r="CB60" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:80" x14ac:dyDescent="0.2">
@@ -5282,95 +5279,95 @@
     </row>
     <row r="63" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>446</v>
+      </c>
+      <c r="B63" t="s">
         <v>447</v>
-      </c>
-      <c r="B63" t="s">
-        <v>448</v>
       </c>
       <c r="C63" t="s">
         <v>82</v>
       </c>
       <c r="D63" t="s">
+        <v>448</v>
+      </c>
+      <c r="E63" t="s">
+        <v>448</v>
+      </c>
+      <c r="BL63" t="s">
         <v>449</v>
       </c>
-      <c r="E63" t="s">
-        <v>449</v>
-      </c>
-      <c r="BL63" t="s">
+      <c r="CB63" t="s">
         <v>450</v>
-      </c>
-      <c r="CB63" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>517</v>
+      </c>
+      <c r="B64" t="s">
         <v>518</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>453</v>
+      </c>
+      <c r="D64" t="s">
         <v>519</v>
       </c>
-      <c r="C64" t="s">
-        <v>454</v>
-      </c>
-      <c r="D64" t="s">
-        <v>520</v>
-      </c>
       <c r="E64" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AH64" t="s">
         <v>351</v>
       </c>
       <c r="BB64" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL64" t="s">
         <v>456</v>
       </c>
-      <c r="BL64" t="s">
+      <c r="BN64" t="s">
         <v>457</v>
-      </c>
-      <c r="BN64" t="s">
-        <v>458</v>
       </c>
       <c r="BP64" t="s">
         <v>253</v>
       </c>
       <c r="CB64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="65" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>597</v>
+      </c>
+      <c r="B65" t="s">
         <v>598</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>453</v>
+      </c>
+      <c r="D65" t="s">
         <v>599</v>
       </c>
-      <c r="C65" t="s">
-        <v>454</v>
-      </c>
-      <c r="D65" t="s">
-        <v>600</v>
-      </c>
       <c r="E65" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AH65" t="s">
         <v>236</v>
       </c>
       <c r="BB65" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL65" t="s">
         <v>456</v>
       </c>
-      <c r="BL65" t="s">
-        <v>457</v>
-      </c>
       <c r="BN65" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BP65" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BR65" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BT65" t="s">
         <v>236</v>
@@ -5379,45 +5376,45 @@
         <v>300</v>
       </c>
       <c r="CB65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>600</v>
+      </c>
+      <c r="B66" t="s">
         <v>601</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>453</v>
+      </c>
+      <c r="D66" t="s">
         <v>602</v>
       </c>
-      <c r="C66" t="s">
-        <v>454</v>
-      </c>
-      <c r="D66" t="s">
-        <v>603</v>
-      </c>
       <c r="E66" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AH66" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AJ66" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BB66" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL66" t="s">
         <v>456</v>
       </c>
-      <c r="BL66" t="s">
-        <v>457</v>
-      </c>
       <c r="BN66" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BP66" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BR66" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BT66" t="s">
         <v>236</v>
@@ -5426,39 +5423,39 @@
         <v>300</v>
       </c>
       <c r="CB66" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>431</v>
+      </c>
+      <c r="B67" t="s">
         <v>432</v>
-      </c>
-      <c r="B67" t="s">
-        <v>433</v>
       </c>
       <c r="C67" t="s">
         <v>142</v>
       </c>
       <c r="D67" t="s">
+        <v>433</v>
+      </c>
+      <c r="E67" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH67" t="s">
         <v>434</v>
       </c>
-      <c r="E67" t="s">
-        <v>434</v>
-      </c>
-      <c r="AH67" t="s">
+      <c r="AJ67" t="s">
         <v>435</v>
-      </c>
-      <c r="AJ67" t="s">
-        <v>436</v>
       </c>
       <c r="AL67" t="s">
         <v>132</v>
       </c>
       <c r="AN67" t="s">
+        <v>436</v>
+      </c>
+      <c r="BB67" t="s">
         <v>437</v>
-      </c>
-      <c r="BB67" t="s">
-        <v>438</v>
       </c>
       <c r="BD67" t="s">
         <v>86</v>
@@ -5475,19 +5472,19 @@
     </row>
     <row r="68" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>420</v>
+      </c>
+      <c r="B68" t="s">
         <v>421</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>422</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>423</v>
       </c>
-      <c r="D68" t="s">
-        <v>424</v>
-      </c>
       <c r="E68" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F68" t="s">
         <v>334</v>
@@ -5504,19 +5501,19 @@
     </row>
     <row r="69" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>675</v>
+      </c>
+      <c r="B69" t="s">
+        <v>421</v>
+      </c>
+      <c r="C69" t="s">
+        <v>422</v>
+      </c>
+      <c r="D69" t="s">
         <v>676</v>
       </c>
-      <c r="B69" t="s">
-        <v>422</v>
-      </c>
-      <c r="C69" t="s">
-        <v>423</v>
-      </c>
-      <c r="D69" t="s">
-        <v>677</v>
-      </c>
       <c r="E69" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="BB69" t="s">
         <v>86</v>
@@ -5527,10 +5524,10 @@
     </row>
     <row r="70" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>480</v>
+      </c>
+      <c r="B70" t="s">
         <v>481</v>
-      </c>
-      <c r="B70" t="s">
-        <v>482</v>
       </c>
       <c r="C70" t="s">
         <v>104</v>
@@ -5539,63 +5536,63 @@
         <v>159</v>
       </c>
       <c r="E70" t="s">
+        <v>482</v>
+      </c>
+      <c r="BB70" t="s">
         <v>483</v>
       </c>
-      <c r="BB70" t="s">
+      <c r="BL70" t="s">
         <v>484</v>
       </c>
-      <c r="BL70" t="s">
+      <c r="BN70" t="s">
         <v>485</v>
       </c>
-      <c r="BN70" t="s">
+      <c r="CB70" t="s">
         <v>486</v>
-      </c>
-      <c r="CB70" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="71" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>536</v>
+      </c>
+      <c r="B71" t="s">
         <v>537</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>453</v>
+      </c>
+      <c r="D71" t="s">
         <v>538</v>
       </c>
-      <c r="C71" t="s">
-        <v>454</v>
-      </c>
-      <c r="D71" t="s">
-        <v>539</v>
-      </c>
       <c r="E71" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BB71" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL71" t="s">
         <v>456</v>
       </c>
-      <c r="BL71" t="s">
+      <c r="BN71" t="s">
         <v>457</v>
-      </c>
-      <c r="BN71" t="s">
-        <v>458</v>
       </c>
       <c r="BP71" t="s">
         <v>253</v>
       </c>
       <c r="BR71" t="s">
+        <v>527</v>
+      </c>
+      <c r="BT71" t="s">
         <v>528</v>
       </c>
-      <c r="BT71" t="s">
-        <v>529</v>
-      </c>
       <c r="BV71" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BX71" t="s">
         <v>236</v>
       </c>
       <c r="CB71" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="1:80" x14ac:dyDescent="0.2">
@@ -5686,34 +5683,34 @@
     </row>
     <row r="74" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>672</v>
+      </c>
+      <c r="B74" t="s">
         <v>673</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>453</v>
+      </c>
+      <c r="D74" t="s">
         <v>674</v>
       </c>
-      <c r="C74" t="s">
-        <v>454</v>
-      </c>
-      <c r="D74" t="s">
-        <v>675</v>
-      </c>
       <c r="E74" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BB74" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL74" t="s">
         <v>456</v>
       </c>
-      <c r="BL74" t="s">
-        <v>457</v>
-      </c>
       <c r="BN74" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BP74" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BR74" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BT74" t="s">
         <v>236</v>
@@ -5722,68 +5719,68 @@
         <v>300</v>
       </c>
       <c r="CB74" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>509</v>
+      </c>
+      <c r="B75" t="s">
         <v>510</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>453</v>
+      </c>
+      <c r="D75" t="s">
         <v>511</v>
       </c>
-      <c r="C75" t="s">
-        <v>454</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
+        <v>511</v>
+      </c>
+      <c r="AH75" t="s">
         <v>512</v>
       </c>
-      <c r="E75" t="s">
-        <v>512</v>
-      </c>
-      <c r="AH75" t="s">
+      <c r="AJ75" t="s">
         <v>513</v>
       </c>
-      <c r="AJ75" t="s">
-        <v>514</v>
-      </c>
       <c r="BB75" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL75" t="s">
         <v>456</v>
       </c>
-      <c r="BL75" t="s">
+      <c r="BN75" t="s">
         <v>457</v>
-      </c>
-      <c r="BN75" t="s">
-        <v>458</v>
       </c>
       <c r="BP75" t="s">
         <v>253</v>
       </c>
       <c r="CB75" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>475</v>
+      </c>
+      <c r="B76" t="s">
         <v>476</v>
-      </c>
-      <c r="B76" t="s">
-        <v>477</v>
       </c>
       <c r="C76" t="s">
         <v>142</v>
       </c>
       <c r="D76" t="s">
+        <v>477</v>
+      </c>
+      <c r="E76" t="s">
+        <v>477</v>
+      </c>
+      <c r="AH76" t="s">
         <v>478</v>
       </c>
-      <c r="E76" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH76" t="s">
+      <c r="AJ76" t="s">
         <v>479</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>480</v>
       </c>
       <c r="BB76" t="s">
         <v>96</v>
@@ -5797,10 +5794,10 @@
     </row>
     <row r="77" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>429</v>
+      </c>
+      <c r="B77" t="s">
         <v>430</v>
-      </c>
-      <c r="B77" t="s">
-        <v>431</v>
       </c>
       <c r="C77" t="s">
         <v>93</v>
@@ -5812,7 +5809,7 @@
         <v>346</v>
       </c>
       <c r="F77" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H77" t="s">
         <v>381</v>
@@ -5824,27 +5821,27 @@
         <v>155</v>
       </c>
       <c r="CB77" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>424</v>
+      </c>
+      <c r="B78" t="s">
         <v>425</v>
-      </c>
-      <c r="B78" t="s">
-        <v>426</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
       <c r="D78" t="s">
+        <v>426</v>
+      </c>
+      <c r="E78" t="s">
+        <v>426</v>
+      </c>
+      <c r="F78" t="s">
         <v>427</v>
-      </c>
-      <c r="E78" t="s">
-        <v>427</v>
-      </c>
-      <c r="F78" t="s">
-        <v>428</v>
       </c>
       <c r="H78" t="s">
         <v>381</v>
@@ -5856,24 +5853,24 @@
         <v>155</v>
       </c>
       <c r="CB78" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>588</v>
+      </c>
+      <c r="B79" t="s">
         <v>589</v>
-      </c>
-      <c r="B79" t="s">
-        <v>590</v>
       </c>
       <c r="C79" t="s">
         <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E79" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AH79" t="s">
         <v>118</v>
@@ -5882,7 +5879,7 @@
         <v>146</v>
       </c>
       <c r="AL79" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BB79" t="s">
         <v>86</v>
@@ -5896,31 +5893,31 @@
     </row>
     <row r="80" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>554</v>
+      </c>
+      <c r="B80" t="s">
         <v>555</v>
-      </c>
-      <c r="B80" t="s">
-        <v>556</v>
       </c>
       <c r="C80" t="s">
         <v>142</v>
       </c>
       <c r="D80" t="s">
+        <v>556</v>
+      </c>
+      <c r="E80" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH80" t="s">
         <v>557</v>
       </c>
-      <c r="E80" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH80" t="s">
+      <c r="AJ80" t="s">
         <v>558</v>
       </c>
-      <c r="AJ80" t="s">
+      <c r="AL80" t="s">
         <v>559</v>
       </c>
-      <c r="AL80" t="s">
+      <c r="AN80" t="s">
         <v>560</v>
-      </c>
-      <c r="AN80" t="s">
-        <v>561</v>
       </c>
       <c r="AP80" t="s">
         <v>118</v>
@@ -5969,22 +5966,22 @@
     </row>
     <row r="82" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B82" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C82" t="s">
         <v>122</v>
       </c>
       <c r="D82" t="s">
+        <v>640</v>
+      </c>
+      <c r="E82" t="s">
+        <v>640</v>
+      </c>
+      <c r="AH82" t="s">
         <v>641</v>
-      </c>
-      <c r="E82" t="s">
-        <v>641</v>
-      </c>
-      <c r="AH82" t="s">
-        <v>642</v>
       </c>
       <c r="BB82" t="s">
         <v>86</v>
@@ -6036,28 +6033,28 @@
     </row>
     <row r="84" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>670</v>
+      </c>
+      <c r="B84" t="s">
+        <v>732</v>
+      </c>
+      <c r="C84" t="s">
+        <v>453</v>
+      </c>
+      <c r="D84" t="s">
         <v>671</v>
       </c>
-      <c r="B84" t="s">
-        <v>733</v>
-      </c>
-      <c r="C84" t="s">
-        <v>454</v>
-      </c>
-      <c r="D84" t="s">
-        <v>672</v>
-      </c>
       <c r="E84" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="BB84" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BL84" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="CB84" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85" spans="1:80" x14ac:dyDescent="0.2">
@@ -6100,19 +6097,19 @@
     </row>
     <row r="86" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>630</v>
+      </c>
+      <c r="B86" t="s">
         <v>631</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>422</v>
+      </c>
+      <c r="D86" t="s">
         <v>632</v>
       </c>
-      <c r="C86" t="s">
-        <v>423</v>
-      </c>
-      <c r="D86" t="s">
-        <v>633</v>
-      </c>
       <c r="E86" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="BB86" t="s">
         <v>86</v>
@@ -6126,19 +6123,19 @@
     </row>
     <row r="87" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>627</v>
+      </c>
+      <c r="B87" t="s">
         <v>628</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>422</v>
+      </c>
+      <c r="D87" t="s">
         <v>629</v>
       </c>
-      <c r="C87" t="s">
-        <v>423</v>
-      </c>
-      <c r="D87" t="s">
-        <v>630</v>
-      </c>
       <c r="E87" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="BB87" t="s">
         <v>86</v>
@@ -6251,22 +6248,22 @@
     </row>
     <row r="91" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>442</v>
+      </c>
+      <c r="B91" t="s">
         <v>443</v>
-      </c>
-      <c r="B91" t="s">
-        <v>444</v>
       </c>
       <c r="C91" t="s">
         <v>122</v>
       </c>
       <c r="D91" t="s">
+        <v>444</v>
+      </c>
+      <c r="E91" t="s">
+        <v>444</v>
+      </c>
+      <c r="AH91" t="s">
         <v>445</v>
-      </c>
-      <c r="E91" t="s">
-        <v>445</v>
-      </c>
-      <c r="AH91" t="s">
-        <v>446</v>
       </c>
       <c r="BL91" t="s">
         <v>89</v>
@@ -6324,40 +6321,40 @@
     </row>
     <row r="93" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>659</v>
+      </c>
+      <c r="B93" t="s">
         <v>660</v>
       </c>
-      <c r="B93" t="s">
-        <v>661</v>
-      </c>
       <c r="C93" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D93" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E93" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AH93" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AJ93" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BB93" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL93" t="s">
         <v>456</v>
       </c>
-      <c r="BL93" t="s">
-        <v>457</v>
-      </c>
       <c r="BN93" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BP93" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BR93" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BT93" t="s">
         <v>236</v>
@@ -6366,24 +6363,24 @@
         <v>300</v>
       </c>
       <c r="CB93" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="94" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>677</v>
+      </c>
+      <c r="B94" t="s">
         <v>678</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>422</v>
+      </c>
+      <c r="D94" t="s">
         <v>679</v>
       </c>
-      <c r="C94" t="s">
-        <v>423</v>
-      </c>
-      <c r="D94" t="s">
-        <v>680</v>
-      </c>
       <c r="E94" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="BB94" t="s">
         <v>86</v>
@@ -6397,22 +6394,22 @@
     </row>
     <row r="95" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C95" t="s">
         <v>122</v>
       </c>
       <c r="D95" t="s">
+        <v>531</v>
+      </c>
+      <c r="E95" t="s">
+        <v>531</v>
+      </c>
+      <c r="AH95" t="s">
         <v>532</v>
-      </c>
-      <c r="E95" t="s">
-        <v>532</v>
-      </c>
-      <c r="AH95" t="s">
-        <v>533</v>
       </c>
       <c r="BB95" t="s">
         <v>230</v>
@@ -6619,7 +6616,7 @@
         <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C101" t="s">
         <v>93</v>
@@ -6651,49 +6648,49 @@
     </row>
     <row r="102" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>570</v>
+      </c>
+      <c r="B102" t="s">
         <v>571</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
+        <v>453</v>
+      </c>
+      <c r="D102" t="s">
         <v>572</v>
       </c>
-      <c r="C102" t="s">
-        <v>454</v>
-      </c>
-      <c r="D102" t="s">
-        <v>573</v>
-      </c>
       <c r="E102" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="BB102" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL102" t="s">
         <v>456</v>
       </c>
-      <c r="BL102" t="s">
+      <c r="BN102" t="s">
         <v>457</v>
-      </c>
-      <c r="BN102" t="s">
-        <v>458</v>
       </c>
       <c r="BP102" t="s">
         <v>253</v>
       </c>
       <c r="BR102" t="s">
+        <v>527</v>
+      </c>
+      <c r="BT102" t="s">
         <v>528</v>
       </c>
-      <c r="BT102" t="s">
-        <v>529</v>
-      </c>
       <c r="BV102" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BX102" t="s">
         <v>236</v>
       </c>
       <c r="BZ102" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="CB102" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="103" spans="1:80" x14ac:dyDescent="0.2">
@@ -6733,22 +6730,22 @@
     </row>
     <row r="104" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>461</v>
+      </c>
+      <c r="B104" t="s">
         <v>462</v>
-      </c>
-      <c r="B104" t="s">
-        <v>463</v>
       </c>
       <c r="C104" t="s">
         <v>122</v>
       </c>
       <c r="D104" t="s">
+        <v>463</v>
+      </c>
+      <c r="E104" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH104" t="s">
         <v>464</v>
-      </c>
-      <c r="E104" t="s">
-        <v>464</v>
-      </c>
-      <c r="AH104" t="s">
-        <v>465</v>
       </c>
       <c r="BB104" t="s">
         <v>86</v>
@@ -6762,128 +6759,128 @@
     </row>
     <row r="105" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>547</v>
+      </c>
+      <c r="B105" t="s">
         <v>548</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>453</v>
+      </c>
+      <c r="D105" t="s">
         <v>549</v>
       </c>
-      <c r="C105" t="s">
-        <v>454</v>
-      </c>
-      <c r="D105" t="s">
-        <v>550</v>
-      </c>
       <c r="E105" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AH105" t="s">
         <v>228</v>
       </c>
       <c r="BB105" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL105" t="s">
         <v>456</v>
       </c>
-      <c r="BL105" t="s">
+      <c r="BN105" t="s">
         <v>457</v>
-      </c>
-      <c r="BN105" t="s">
-        <v>458</v>
       </c>
       <c r="BP105" t="s">
         <v>253</v>
       </c>
       <c r="BR105" t="s">
+        <v>527</v>
+      </c>
+      <c r="BT105" t="s">
         <v>528</v>
       </c>
-      <c r="BT105" t="s">
-        <v>529</v>
-      </c>
       <c r="BV105" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BX105" t="s">
         <v>236</v>
       </c>
       <c r="BZ105" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="CB105" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>567</v>
+      </c>
+      <c r="B106" t="s">
         <v>568</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
+        <v>453</v>
+      </c>
+      <c r="D106" t="s">
         <v>569</v>
       </c>
-      <c r="C106" t="s">
-        <v>454</v>
-      </c>
-      <c r="D106" t="s">
-        <v>570</v>
-      </c>
       <c r="E106" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="BB106" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL106" t="s">
         <v>456</v>
       </c>
-      <c r="BL106" t="s">
+      <c r="BN106" t="s">
         <v>457</v>
-      </c>
-      <c r="BN106" t="s">
-        <v>458</v>
       </c>
       <c r="BP106" t="s">
         <v>253</v>
       </c>
       <c r="BR106" t="s">
+        <v>527</v>
+      </c>
+      <c r="BT106" t="s">
         <v>528</v>
       </c>
-      <c r="BT106" t="s">
-        <v>529</v>
-      </c>
       <c r="BV106" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="CB106" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>603</v>
+      </c>
+      <c r="B107" t="s">
         <v>604</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>453</v>
+      </c>
+      <c r="D107" t="s">
         <v>605</v>
       </c>
-      <c r="C107" t="s">
-        <v>454</v>
-      </c>
-      <c r="D107" t="s">
-        <v>606</v>
-      </c>
       <c r="E107" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AH107" t="s">
         <v>300</v>
       </c>
       <c r="BB107" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL107" t="s">
         <v>456</v>
       </c>
-      <c r="BL107" t="s">
-        <v>457</v>
-      </c>
       <c r="BN107" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BP107" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BR107" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BT107" t="s">
         <v>236</v>
@@ -6892,42 +6889,42 @@
         <v>300</v>
       </c>
       <c r="CB107" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>609</v>
+      </c>
+      <c r="B108" t="s">
         <v>610</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
+        <v>453</v>
+      </c>
+      <c r="D108" t="s">
         <v>611</v>
       </c>
-      <c r="C108" t="s">
-        <v>454</v>
-      </c>
-      <c r="D108" t="s">
-        <v>612</v>
-      </c>
       <c r="E108" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AH108" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BB108" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL108" t="s">
         <v>456</v>
       </c>
-      <c r="BL108" t="s">
-        <v>457</v>
-      </c>
       <c r="BN108" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BP108" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BR108" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BT108" t="s">
         <v>236</v>
@@ -6936,57 +6933,57 @@
         <v>300</v>
       </c>
       <c r="CB108" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="109" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>576</v>
+      </c>
+      <c r="B109" t="s">
         <v>577</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>453</v>
+      </c>
+      <c r="D109" t="s">
         <v>578</v>
       </c>
-      <c r="C109" t="s">
-        <v>454</v>
-      </c>
-      <c r="D109" t="s">
-        <v>579</v>
-      </c>
       <c r="E109" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AH109" t="s">
+        <v>455</v>
+      </c>
+      <c r="BB109" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL109" t="s">
         <v>456</v>
       </c>
-      <c r="BB109" t="s">
-        <v>456</v>
-      </c>
-      <c r="BL109" t="s">
+      <c r="BN109" t="s">
         <v>457</v>
-      </c>
-      <c r="BN109" t="s">
-        <v>458</v>
       </c>
       <c r="BP109" t="s">
         <v>253</v>
       </c>
       <c r="BR109" t="s">
+        <v>527</v>
+      </c>
+      <c r="BT109" t="s">
         <v>528</v>
       </c>
-      <c r="BT109" t="s">
-        <v>529</v>
-      </c>
       <c r="BV109" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BX109" t="s">
         <v>236</v>
       </c>
       <c r="BZ109" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="CB109" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="110" spans="1:80" x14ac:dyDescent="0.2">
@@ -7047,7 +7044,7 @@
         <v>268</v>
       </c>
       <c r="H111" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="BB111" t="s">
         <v>257</v>
@@ -7064,19 +7061,19 @@
     </row>
     <row r="112" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>621</v>
+      </c>
+      <c r="B112" t="s">
         <v>622</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>422</v>
+      </c>
+      <c r="D112" t="s">
         <v>623</v>
       </c>
-      <c r="C112" t="s">
-        <v>423</v>
-      </c>
-      <c r="D112" t="s">
-        <v>624</v>
-      </c>
       <c r="E112" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BB112" t="s">
         <v>86</v>
@@ -7242,28 +7239,28 @@
     </row>
     <row r="117" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>698</v>
+      </c>
+      <c r="B117" t="s">
         <v>699</v>
-      </c>
-      <c r="B117" t="s">
-        <v>700</v>
       </c>
       <c r="C117" t="s">
         <v>142</v>
       </c>
       <c r="D117" t="s">
+        <v>700</v>
+      </c>
+      <c r="E117" t="s">
+        <v>700</v>
+      </c>
+      <c r="AH117" t="s">
         <v>701</v>
       </c>
-      <c r="E117" t="s">
-        <v>701</v>
-      </c>
-      <c r="AH117" t="s">
+      <c r="AJ117" t="s">
         <v>702</v>
       </c>
-      <c r="AJ117" t="s">
+      <c r="AL117" t="s">
         <v>703</v>
-      </c>
-      <c r="AL117" t="s">
-        <v>704</v>
       </c>
       <c r="AN117" s="3" t="s">
         <v>118</v>
@@ -7282,134 +7279,134 @@
     </row>
     <row r="118" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>524</v>
+      </c>
+      <c r="B118" t="s">
         <v>525</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
+        <v>453</v>
+      </c>
+      <c r="D118" t="s">
         <v>526</v>
       </c>
-      <c r="C118" t="s">
-        <v>454</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH118" t="s">
         <v>527</v>
       </c>
-      <c r="E118" t="s">
-        <v>527</v>
-      </c>
-      <c r="AH118" t="s">
-        <v>528</v>
-      </c>
       <c r="AJ118" t="s">
+        <v>456</v>
+      </c>
+      <c r="BB118" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL118" t="s">
+        <v>456</v>
+      </c>
+      <c r="BN118" t="s">
         <v>457</v>
-      </c>
-      <c r="BB118" t="s">
-        <v>456</v>
-      </c>
-      <c r="BL118" t="s">
-        <v>457</v>
-      </c>
-      <c r="BN118" t="s">
-        <v>458</v>
       </c>
       <c r="BP118" t="s">
         <v>253</v>
       </c>
       <c r="BR118" t="s">
+        <v>527</v>
+      </c>
+      <c r="BT118" t="s">
         <v>528</v>
       </c>
-      <c r="BT118" t="s">
+      <c r="BV118" t="s">
         <v>529</v>
       </c>
-      <c r="BV118" t="s">
-        <v>530</v>
-      </c>
       <c r="CB118" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="119" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>561</v>
+      </c>
+      <c r="B119" t="s">
+        <v>525</v>
+      </c>
+      <c r="C119" t="s">
+        <v>453</v>
+      </c>
+      <c r="D119" t="s">
         <v>562</v>
       </c>
-      <c r="B119" t="s">
-        <v>526</v>
-      </c>
-      <c r="C119" t="s">
-        <v>454</v>
-      </c>
-      <c r="D119" t="s">
-        <v>563</v>
-      </c>
       <c r="E119" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AH119" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AJ119" t="s">
+        <v>456</v>
+      </c>
+      <c r="BB119" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL119" t="s">
+        <v>456</v>
+      </c>
+      <c r="BN119" t="s">
         <v>457</v>
-      </c>
-      <c r="BB119" t="s">
-        <v>456</v>
-      </c>
-      <c r="BL119" t="s">
-        <v>457</v>
-      </c>
-      <c r="BN119" t="s">
-        <v>458</v>
       </c>
       <c r="BP119" t="s">
         <v>253</v>
       </c>
       <c r="BR119" t="s">
+        <v>527</v>
+      </c>
+      <c r="BT119" t="s">
         <v>528</v>
       </c>
-      <c r="BT119" t="s">
-        <v>529</v>
-      </c>
       <c r="BV119" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="CB119" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="120" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>592</v>
+      </c>
+      <c r="B120" t="s">
+        <v>525</v>
+      </c>
+      <c r="C120" t="s">
+        <v>453</v>
+      </c>
+      <c r="D120" t="s">
         <v>593</v>
       </c>
-      <c r="B120" t="s">
-        <v>526</v>
-      </c>
-      <c r="C120" t="s">
-        <v>454</v>
-      </c>
-      <c r="D120" t="s">
-        <v>594</v>
-      </c>
       <c r="E120" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AH120" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ120" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BB120" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL120" t="s">
         <v>456</v>
       </c>
-      <c r="BL120" t="s">
-        <v>457</v>
-      </c>
       <c r="BN120" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BP120" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BR120" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BT120" t="s">
         <v>236</v>
@@ -7418,39 +7415,39 @@
         <v>300</v>
       </c>
       <c r="CB120" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="121" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>615</v>
+      </c>
+      <c r="B121" t="s">
         <v>616</v>
-      </c>
-      <c r="B121" t="s">
-        <v>617</v>
       </c>
       <c r="C121" t="s">
         <v>82</v>
       </c>
       <c r="D121" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E121" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AH121" t="s">
         <v>209</v>
       </c>
       <c r="AJ121" t="s">
+        <v>618</v>
+      </c>
+      <c r="BB121" t="s">
         <v>619</v>
-      </c>
-      <c r="BB121" t="s">
-        <v>620</v>
       </c>
       <c r="BD121" t="s">
         <v>208</v>
       </c>
       <c r="BF121" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="BL121" t="s">
         <v>211</v>
@@ -7461,19 +7458,19 @@
     </row>
     <row r="122" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>438</v>
+      </c>
+      <c r="B122" t="s">
         <v>439</v>
-      </c>
-      <c r="B122" t="s">
-        <v>440</v>
       </c>
       <c r="C122" t="s">
         <v>142</v>
       </c>
       <c r="D122" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E122" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AH122" t="s">
         <v>118</v>
@@ -7485,7 +7482,7 @@
         <v>89</v>
       </c>
       <c r="AN122" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AP122" t="s">
         <v>146</v>
@@ -7505,7 +7502,7 @@
         <v>213</v>
       </c>
       <c r="B123" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C123" t="s">
         <v>142</v>

--- a/events/events/_event_data_collector.xlsx
+++ b/events/events/_event_data_collector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patcallahan/Documents/Coding/Open Science Center/lmu-osc.github.io/events/events/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394092D4-6153-F44C-BDE4-E6AA0CCB161D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E369A49-054C-1C4C-AEC6-B2D1F6A5E729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="46960" windowHeight="25560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CB$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CH$123</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="743">
   <si>
     <t>file_paths</t>
   </si>
@@ -934,9 +934,6 @@
     <t>David Walter</t>
   </si>
   <si>
-    <t>Valkyrie Felso; Diego Theuerkauf; Kathy Su</t>
-  </si>
-  <si>
     <t>Prof. Dr. Sabina Leonelli</t>
   </si>
   <si>
@@ -2228,6 +2225,33 @@
   </si>
   <si>
     <t>Dr. Moritz Fischer</t>
+  </si>
+  <si>
+    <t>helper6</t>
+  </si>
+  <si>
+    <t>url_help6</t>
+  </si>
+  <si>
+    <t>helper7</t>
+  </si>
+  <si>
+    <t>url_help7</t>
+  </si>
+  <si>
+    <t>helper8</t>
+  </si>
+  <si>
+    <t>url_help8</t>
+  </si>
+  <si>
+    <t>Valkyrie Felso</t>
+  </si>
+  <si>
+    <t>Kathy Su</t>
+  </si>
+  <si>
+    <t>Diego Theuerkauf</t>
   </si>
 </sst>
 </file>
@@ -2622,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CB123"/>
+  <dimension ref="A1:CH123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="AH42" sqref="AH42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2634,7 +2658,7 @@
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2735,197 +2759,215 @@
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" t="s">
         <v>411</v>
-      </c>
-      <c r="B2" t="s">
-        <v>412</v>
       </c>
       <c r="C2" t="s">
         <v>292</v>
       </c>
       <c r="D2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E2" t="s">
         <v>413</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>414</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>415</v>
-      </c>
-      <c r="H2" t="s">
-        <v>416</v>
       </c>
       <c r="J2" t="s">
         <v>185</v>
       </c>
       <c r="L2" t="s">
+        <v>416</v>
+      </c>
+      <c r="N2" t="s">
         <v>417</v>
       </c>
-      <c r="N2" t="s">
+      <c r="BH2" t="s">
         <v>418</v>
       </c>
-      <c r="BB2" t="s">
-        <v>419</v>
-      </c>
-      <c r="BD2" t="s">
+      <c r="BJ2" t="s">
         <v>86</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BR2" t="s">
         <v>185</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CH2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" t="s">
         <v>365</v>
-      </c>
-      <c r="B3" t="s">
-        <v>366</v>
       </c>
       <c r="C3" t="s">
         <v>292</v>
@@ -2934,10 +2976,10 @@
         <v>242</v>
       </c>
       <c r="E3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3" t="s">
         <v>367</v>
-      </c>
-      <c r="F3" t="s">
-        <v>368</v>
       </c>
       <c r="H3" t="s">
         <v>243</v>
@@ -2946,13 +2988,13 @@
         <v>155</v>
       </c>
       <c r="L3" t="s">
+        <v>368</v>
+      </c>
+      <c r="N3" t="s">
         <v>369</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>370</v>
-      </c>
-      <c r="P3" t="s">
-        <v>371</v>
       </c>
       <c r="R3" t="s">
         <v>297</v>
@@ -2973,817 +3015,817 @@
         <v>244</v>
       </c>
       <c r="AF3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AN3" t="s">
         <v>372</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AP3" t="s">
         <v>373</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AR3" t="s">
         <v>374</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AT3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV3" t="s">
         <v>375</v>
       </c>
-      <c r="AN3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="AX3" t="s">
         <v>376</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AZ3" t="s">
         <v>377</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="BB3" t="s">
         <v>378</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="BD3" t="s">
         <v>379</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BH3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>380</v>
       </c>
-      <c r="BB3" t="s">
-        <v>86</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>381</v>
-      </c>
-      <c r="BL3" t="s">
+      <c r="BR3" t="s">
         <v>185</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CH3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" t="s">
         <v>344</v>
-      </c>
-      <c r="B4" t="s">
-        <v>345</v>
       </c>
       <c r="C4" t="s">
         <v>93</v>
       </c>
       <c r="D4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F4" t="s">
         <v>346</v>
       </c>
-      <c r="E4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F4" t="s">
-        <v>347</v>
-      </c>
-      <c r="BB4" t="s">
+      <c r="BH4" t="s">
         <v>86</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BR4" t="s">
         <v>185</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CH4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" t="s">
         <v>382</v>
-      </c>
-      <c r="B5" t="s">
-        <v>383</v>
       </c>
       <c r="C5" t="s">
         <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>118</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" t="s">
-        <v>734</v>
-      </c>
-      <c r="BB5" t="s">
+        <v>733</v>
+      </c>
+      <c r="BH5" t="s">
         <v>257</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BJ5" t="s">
         <v>230</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BR5" t="s">
+        <v>316</v>
+      </c>
+      <c r="BT5" t="s">
         <v>317</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BV5" t="s">
         <v>318</v>
       </c>
-      <c r="BP5" t="s">
-        <v>319</v>
-      </c>
-      <c r="BR5" t="s">
+      <c r="BX5" t="s">
         <v>185</v>
       </c>
-      <c r="CB5" t="s">
+      <c r="CH5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>632</v>
+      </c>
+      <c r="B6" t="s">
         <v>633</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" t="s">
         <v>634</v>
       </c>
-      <c r="C6" t="s">
-        <v>453</v>
-      </c>
-      <c r="D6" t="s">
-        <v>635</v>
-      </c>
       <c r="E6" t="s">
-        <v>635</v>
-      </c>
-      <c r="BB6" t="s">
+        <v>634</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR6" t="s">
         <v>455</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BT6" t="s">
+        <v>527</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>538</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>549</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>236</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>300</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" t="s">
+        <v>521</v>
+      </c>
+      <c r="E7" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>522</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT7" t="s">
         <v>456</v>
       </c>
-      <c r="BN6" t="s">
-        <v>528</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>539</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>236</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>300</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>520</v>
-      </c>
-      <c r="B7" t="s">
-        <v>521</v>
-      </c>
-      <c r="C7" t="s">
-        <v>453</v>
-      </c>
-      <c r="D7" t="s">
-        <v>522</v>
-      </c>
-      <c r="E7" t="s">
-        <v>522</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>523</v>
-      </c>
-      <c r="BB7" t="s">
+      <c r="BV7" t="s">
+        <v>253</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" t="s">
+        <v>499</v>
+      </c>
+      <c r="E8" t="s">
+        <v>499</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>500</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR8" t="s">
         <v>455</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BT8" t="s">
         <v>456</v>
       </c>
-      <c r="BN7" t="s">
+      <c r="BV8" t="s">
+        <v>253</v>
+      </c>
+      <c r="CH8" t="s">
         <v>457</v>
       </c>
-      <c r="BP7" t="s">
-        <v>253</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>498</v>
-      </c>
-      <c r="B8" t="s">
-        <v>499</v>
-      </c>
-      <c r="C8" t="s">
-        <v>453</v>
-      </c>
-      <c r="D8" t="s">
-        <v>500</v>
-      </c>
-      <c r="E8" t="s">
-        <v>500</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>501</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>457</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>253</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B9" t="s">
         <v>644</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" t="s">
         <v>645</v>
       </c>
-      <c r="C9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D9" t="s">
-        <v>646</v>
-      </c>
       <c r="E9" t="s">
-        <v>646</v>
-      </c>
-      <c r="BB9" t="s">
+        <v>645</v>
+      </c>
+      <c r="BH9" t="s">
         <v>86</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BR9" t="s">
         <v>185</v>
       </c>
-      <c r="CB9" t="s">
+      <c r="CH9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B10" t="s">
         <v>467</v>
-      </c>
-      <c r="B10" t="s">
-        <v>468</v>
       </c>
       <c r="C10" t="s">
         <v>142</v>
       </c>
       <c r="D10" t="s">
+        <v>468</v>
+      </c>
+      <c r="E10" t="s">
+        <v>468</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP10" t="s">
         <v>469</v>
       </c>
-      <c r="E10" t="s">
-        <v>469</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ10" t="s">
+      <c r="AR10" t="s">
         <v>470</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AT10" t="s">
         <v>471</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AV10" t="s">
+        <v>440</v>
+      </c>
+      <c r="AX10" t="s">
         <v>472</v>
       </c>
-      <c r="AP10" t="s">
-        <v>441</v>
-      </c>
-      <c r="AR10" t="s">
+      <c r="AZ10" t="s">
         <v>473</v>
       </c>
-      <c r="AT10" t="s">
-        <v>474</v>
-      </c>
-      <c r="BB10" t="s">
+      <c r="BH10" t="s">
         <v>230</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BR10" t="s">
         <v>118</v>
       </c>
-      <c r="CB10" t="s">
+      <c r="CH10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C11" t="s">
         <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E11" t="s">
-        <v>466</v>
-      </c>
-      <c r="AH11" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN11" t="s">
         <v>192</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BH11" t="s">
         <v>86</v>
       </c>
-      <c r="BL11" t="s">
+      <c r="BR11" t="s">
         <v>118</v>
       </c>
-      <c r="CB11" t="s">
+      <c r="CH11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B12" t="s">
+        <v>732</v>
+      </c>
+      <c r="C12" t="s">
         <v>405</v>
       </c>
-      <c r="B12" t="s">
-        <v>733</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>406</v>
       </c>
-      <c r="D12" t="s">
-        <v>407</v>
-      </c>
       <c r="E12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>118</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="BB12" t="s">
+      <c r="BH12" t="s">
         <v>86</v>
       </c>
-      <c r="BL12" t="s">
+      <c r="BR12" t="s">
         <v>118</v>
       </c>
-      <c r="CB12" t="s">
+      <c r="CH12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" t="s">
         <v>362</v>
-      </c>
-      <c r="B13" t="s">
-        <v>363</v>
       </c>
       <c r="C13" t="s">
         <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F13" t="s">
-        <v>351</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>343</v>
-      </c>
-      <c r="BL13" t="s">
+        <v>350</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR13" t="s">
         <v>250</v>
       </c>
-      <c r="BN13" t="s">
-        <v>319</v>
-      </c>
-      <c r="CB13" t="s">
+      <c r="BT13" t="s">
+        <v>318</v>
+      </c>
+      <c r="CH13" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>572</v>
+      </c>
+      <c r="B14" t="s">
         <v>573</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D14" t="s">
         <v>574</v>
       </c>
-      <c r="C14" t="s">
-        <v>453</v>
-      </c>
-      <c r="D14" t="s">
-        <v>575</v>
-      </c>
       <c r="E14" t="s">
-        <v>575</v>
-      </c>
-      <c r="AH14" t="s">
+        <v>574</v>
+      </c>
+      <c r="AN14" t="s">
         <v>184</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BH14" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR14" t="s">
         <v>455</v>
       </c>
-      <c r="BL14" t="s">
+      <c r="BT14" t="s">
         <v>456</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="BV14" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>527</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>538</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>549</v>
+      </c>
+      <c r="CH14" t="s">
         <v>457</v>
       </c>
-      <c r="BP14" t="s">
-        <v>253</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>527</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>528</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>539</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>236</v>
-      </c>
-      <c r="BZ14" t="s">
-        <v>550</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>712</v>
+      </c>
+      <c r="B15" t="s">
         <v>713</v>
-      </c>
-      <c r="B15" t="s">
-        <v>714</v>
       </c>
       <c r="C15" t="s">
         <v>104</v>
       </c>
       <c r="D15" t="s">
+        <v>714</v>
+      </c>
+      <c r="E15" t="s">
+        <v>714</v>
+      </c>
+      <c r="BH15" t="s">
         <v>715</v>
       </c>
-      <c r="E15" t="s">
-        <v>715</v>
-      </c>
-      <c r="BB15" t="s">
+      <c r="BJ15" t="s">
+        <v>239</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>687</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>688</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>689</v>
+      </c>
+      <c r="CH15" t="s">
         <v>716</v>
       </c>
-      <c r="BD15" t="s">
-        <v>239</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>688</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>689</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>690</v>
-      </c>
-      <c r="CB15" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>707</v>
+      </c>
+      <c r="B16" t="s">
         <v>708</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>709</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>710</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>710</v>
+      </c>
+      <c r="AN16" t="s">
         <v>711</v>
       </c>
-      <c r="E16" t="s">
-        <v>711</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>712</v>
-      </c>
-      <c r="BB16" t="s">
+      <c r="BH16" t="s">
         <v>86</v>
       </c>
-      <c r="BL16" s="3" t="s">
+      <c r="BR16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="BM16" s="3"/>
-      <c r="CB16" t="s">
+      <c r="BS16" s="3"/>
+      <c r="CH16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>593</v>
+      </c>
+      <c r="B17" t="s">
         <v>594</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>452</v>
+      </c>
+      <c r="D17" t="s">
         <v>595</v>
       </c>
-      <c r="C17" t="s">
-        <v>453</v>
-      </c>
-      <c r="D17" t="s">
-        <v>596</v>
-      </c>
       <c r="E17" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>528</v>
-      </c>
-      <c r="BB17" t="s">
+        <v>595</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>527</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR17" t="s">
         <v>455</v>
       </c>
-      <c r="BL17" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>528</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>539</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>550</v>
-      </c>
       <c r="BT17" t="s">
+        <v>527</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>538</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>549</v>
+      </c>
+      <c r="BZ17" t="s">
         <v>236</v>
       </c>
-      <c r="BV17" t="s">
+      <c r="CB17" t="s">
         <v>300</v>
       </c>
-      <c r="CB17" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="CH17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B18" t="s">
         <v>356</v>
-      </c>
-      <c r="B18" t="s">
-        <v>357</v>
       </c>
       <c r="C18" t="s">
         <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F18" t="s">
         <v>218</v>
       </c>
       <c r="H18" t="s">
+        <v>358</v>
+      </c>
+      <c r="J18" t="s">
         <v>359</v>
       </c>
-      <c r="J18" t="s">
+      <c r="BH18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>146</v>
+      </c>
+      <c r="CH18" t="s">
         <v>360</v>
       </c>
-      <c r="BB18" t="s">
-        <v>86</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>146</v>
-      </c>
-      <c r="CB18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19" t="s">
         <v>451</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>452</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>453</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH19" t="s">
         <v>454</v>
       </c>
-      <c r="E19" t="s">
+      <c r="BR19" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>455</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>456</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>253</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>458</v>
+      </c>
+      <c r="B20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C20" t="s">
+        <v>452</v>
+      </c>
+      <c r="D20" t="s">
+        <v>459</v>
+      </c>
+      <c r="E20" t="s">
+        <v>459</v>
+      </c>
+      <c r="BH20" t="s">
         <v>454</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BR20" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT20" t="s">
         <v>455</v>
       </c>
-      <c r="BL19" t="s">
-        <v>118</v>
-      </c>
-      <c r="BN19" t="s">
+      <c r="BV20" t="s">
         <v>456</v>
       </c>
-      <c r="BP19" t="s">
+      <c r="BX20" t="s">
+        <v>253</v>
+      </c>
+      <c r="CH20" t="s">
         <v>457</v>
       </c>
-      <c r="BR19" t="s">
+    </row>
+    <row r="21" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>486</v>
+      </c>
+      <c r="B21" t="s">
+        <v>487</v>
+      </c>
+      <c r="C21" t="s">
+        <v>452</v>
+      </c>
+      <c r="D21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E21" t="s">
+        <v>488</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>456</v>
+      </c>
+      <c r="BV21" t="s">
         <v>253</v>
       </c>
-      <c r="CB19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>459</v>
-      </c>
-      <c r="B20" t="s">
-        <v>452</v>
-      </c>
-      <c r="C20" t="s">
-        <v>453</v>
-      </c>
-      <c r="D20" t="s">
-        <v>460</v>
-      </c>
-      <c r="E20" t="s">
-        <v>460</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>118</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>456</v>
-      </c>
-      <c r="BP20" t="s">
+      <c r="CH21" t="s">
         <v>457</v>
       </c>
-      <c r="BR20" t="s">
-        <v>253</v>
-      </c>
-      <c r="CB20" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>487</v>
-      </c>
-      <c r="B21" t="s">
-        <v>488</v>
-      </c>
-      <c r="C21" t="s">
-        <v>453</v>
-      </c>
-      <c r="D21" t="s">
-        <v>489</v>
-      </c>
-      <c r="E21" t="s">
-        <v>489</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>457</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>253</v>
-      </c>
-      <c r="CB21" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>400</v>
+      </c>
+      <c r="B22" t="s">
         <v>401</v>
-      </c>
-      <c r="B22" t="s">
-        <v>402</v>
       </c>
       <c r="C22" t="s">
         <v>93</v>
       </c>
       <c r="D22" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" t="s">
+        <v>402</v>
+      </c>
+      <c r="F22" t="s">
         <v>403</v>
       </c>
-      <c r="E22" t="s">
-        <v>403</v>
-      </c>
-      <c r="F22" t="s">
-        <v>404</v>
-      </c>
-      <c r="BB22" t="s">
+      <c r="BH22" t="s">
         <v>257</v>
       </c>
-      <c r="BD22" t="s">
+      <c r="BJ22" t="s">
         <v>230</v>
       </c>
-      <c r="BL22" t="s">
+      <c r="BR22" t="s">
         <v>250</v>
       </c>
-      <c r="BN22" t="s">
-        <v>319</v>
-      </c>
-      <c r="CB22" t="s">
+      <c r="BT22" t="s">
+        <v>318</v>
+      </c>
+      <c r="CH22" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>532</v>
+      </c>
+      <c r="B23" t="s">
         <v>533</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>452</v>
+      </c>
+      <c r="D23" t="s">
         <v>534</v>
       </c>
-      <c r="C23" t="s">
-        <v>453</v>
-      </c>
-      <c r="D23" t="s">
-        <v>535</v>
-      </c>
       <c r="E23" t="s">
-        <v>535</v>
-      </c>
-      <c r="BB23" t="s">
+        <v>534</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR23" t="s">
         <v>455</v>
       </c>
-      <c r="BL23" t="s">
+      <c r="BT23" t="s">
         <v>456</v>
       </c>
-      <c r="BN23" t="s">
+      <c r="BV23" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>527</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>528</v>
+      </c>
+      <c r="CH23" t="s">
         <v>457</v>
       </c>
-      <c r="BP23" t="s">
-        <v>253</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>527</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>528</v>
-      </c>
-      <c r="BX23" t="s">
-        <v>529</v>
-      </c>
-      <c r="CB23" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>679</v>
+      </c>
+      <c r="B24" t="s">
         <v>680</v>
-      </c>
-      <c r="B24" t="s">
-        <v>681</v>
       </c>
       <c r="C24" t="s">
         <v>142</v>
       </c>
       <c r="D24" t="s">
+        <v>681</v>
+      </c>
+      <c r="E24" t="s">
+        <v>681</v>
+      </c>
+      <c r="AN24" t="s">
         <v>682</v>
       </c>
-      <c r="E24" t="s">
-        <v>682</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="AP24" t="s">
         <v>683</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AR24" t="s">
         <v>684</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AT24" t="s">
         <v>685</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AV24" t="s">
         <v>686</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="BH24" t="s">
         <v>687</v>
       </c>
-      <c r="BB24" t="s">
+      <c r="BJ24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BR24" t="s">
         <v>688</v>
       </c>
-      <c r="BD24" t="s">
-        <v>239</v>
-      </c>
-      <c r="BL24" t="s">
+      <c r="BT24" t="s">
         <v>689</v>
       </c>
-      <c r="BN24" t="s">
+      <c r="CH24" t="s">
         <v>690</v>
       </c>
-      <c r="CB24" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>271</v>
       </c>
@@ -3802,352 +3844,352 @@
       <c r="F25" t="s">
         <v>274</v>
       </c>
-      <c r="BB25" t="s">
+      <c r="BH25" t="s">
         <v>86</v>
       </c>
-      <c r="BL25" t="s">
+      <c r="BR25" t="s">
         <v>185</v>
       </c>
-      <c r="CB25" t="s">
+      <c r="CH25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B26" t="s">
         <v>390</v>
-      </c>
-      <c r="B26" t="s">
-        <v>391</v>
       </c>
       <c r="C26" t="s">
         <v>93</v>
       </c>
       <c r="D26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E26" t="s">
+        <v>391</v>
+      </c>
+      <c r="F26" t="s">
         <v>392</v>
       </c>
-      <c r="E26" t="s">
-        <v>392</v>
-      </c>
-      <c r="F26" t="s">
-        <v>393</v>
-      </c>
-      <c r="BB26" t="s">
+      <c r="BH26" t="s">
         <v>230</v>
       </c>
-      <c r="BL26" t="s">
+      <c r="BR26" t="s">
         <v>185</v>
       </c>
-      <c r="CB26" t="s">
+      <c r="CH26" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>492</v>
+      </c>
+      <c r="B27" t="s">
         <v>493</v>
-      </c>
-      <c r="B27" t="s">
-        <v>494</v>
       </c>
       <c r="C27" t="s">
         <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E27" t="s">
-        <v>495</v>
-      </c>
-      <c r="BB27" t="s">
+        <v>494</v>
+      </c>
+      <c r="BH27" t="s">
         <v>210</v>
       </c>
-      <c r="BL27" t="s">
+      <c r="BR27" t="s">
         <v>118</v>
       </c>
-      <c r="CB27" t="s">
+      <c r="CH27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>513</v>
+      </c>
+      <c r="B28" t="s">
         <v>514</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>452</v>
+      </c>
+      <c r="D28" t="s">
         <v>515</v>
       </c>
-      <c r="C28" t="s">
-        <v>453</v>
-      </c>
-      <c r="D28" t="s">
-        <v>516</v>
-      </c>
       <c r="E28" t="s">
-        <v>516</v>
-      </c>
-      <c r="AH28" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN28" t="s">
         <v>185</v>
       </c>
-      <c r="BB28" t="s">
+      <c r="BH28" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR28" t="s">
         <v>455</v>
       </c>
-      <c r="BL28" t="s">
+      <c r="BT28" t="s">
         <v>456</v>
       </c>
-      <c r="BN28" t="s">
+      <c r="BV28" t="s">
+        <v>253</v>
+      </c>
+      <c r="CH28" t="s">
         <v>457</v>
       </c>
-      <c r="BP28" t="s">
-        <v>253</v>
-      </c>
-      <c r="CB28" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>320</v>
+      </c>
+      <c r="B29" t="s">
         <v>321</v>
-      </c>
-      <c r="B29" t="s">
-        <v>322</v>
       </c>
       <c r="C29" t="s">
         <v>93</v>
       </c>
       <c r="D29" t="s">
+        <v>322</v>
+      </c>
+      <c r="E29" t="s">
+        <v>322</v>
+      </c>
+      <c r="F29" t="s">
         <v>323</v>
       </c>
-      <c r="E29" t="s">
-        <v>323</v>
-      </c>
-      <c r="F29" t="s">
-        <v>324</v>
-      </c>
-      <c r="BB29" t="s">
+      <c r="BH29" t="s">
         <v>86</v>
       </c>
-      <c r="BL29" t="s">
+      <c r="BR29" t="s">
         <v>118</v>
       </c>
-      <c r="CB29" t="s">
+      <c r="CH29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>703</v>
+      </c>
+      <c r="B30" t="s">
         <v>704</v>
-      </c>
-      <c r="B30" t="s">
-        <v>705</v>
       </c>
       <c r="C30" t="s">
         <v>122</v>
       </c>
       <c r="D30" t="s">
+        <v>705</v>
+      </c>
+      <c r="E30" t="s">
+        <v>705</v>
+      </c>
+      <c r="AN30" t="s">
         <v>706</v>
       </c>
-      <c r="E30" t="s">
-        <v>706</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>707</v>
-      </c>
-      <c r="BB30" t="s">
+      <c r="BH30" t="s">
         <v>86</v>
       </c>
-      <c r="BL30" t="s">
+      <c r="BR30" t="s">
         <v>185</v>
       </c>
-      <c r="CB30" t="s">
+      <c r="CH30" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>501</v>
+      </c>
+      <c r="B31" t="s">
         <v>502</v>
-      </c>
-      <c r="B31" t="s">
-        <v>503</v>
       </c>
       <c r="C31" t="s">
         <v>142</v>
       </c>
       <c r="D31" t="s">
+        <v>503</v>
+      </c>
+      <c r="E31" t="s">
+        <v>503</v>
+      </c>
+      <c r="AN31" t="s">
         <v>504</v>
       </c>
-      <c r="E31" t="s">
-        <v>504</v>
-      </c>
-      <c r="AH31" t="s">
+      <c r="AP31" t="s">
         <v>505</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AR31" t="s">
         <v>506</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="BH31" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>185</v>
+      </c>
+      <c r="BT31" t="s">
         <v>507</v>
       </c>
-      <c r="BB31" t="s">
-        <v>86</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>185</v>
-      </c>
-      <c r="BN31" t="s">
-        <v>508</v>
-      </c>
-      <c r="BP31" t="s">
+      <c r="BV31" t="s">
         <v>118</v>
       </c>
-      <c r="CB31" t="s">
+      <c r="CH31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>605</v>
+      </c>
+      <c r="B32" t="s">
         <v>606</v>
-      </c>
-      <c r="B32" t="s">
-        <v>607</v>
       </c>
       <c r="C32" t="s">
         <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E32" t="s">
-        <v>608</v>
-      </c>
-      <c r="AH32" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="AN32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AI32" s="3"/>
-      <c r="BB32" t="s">
+      <c r="AO32" s="3"/>
+      <c r="BH32" t="s">
         <v>86</v>
       </c>
-      <c r="BL32" t="s">
+      <c r="BR32" t="s">
         <v>185</v>
       </c>
-      <c r="CB32" t="s">
+      <c r="CH32" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>611</v>
+      </c>
+      <c r="B33" t="s">
         <v>612</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>421</v>
+      </c>
+      <c r="D33" t="s">
         <v>613</v>
       </c>
-      <c r="C33" t="s">
-        <v>422</v>
-      </c>
-      <c r="D33" t="s">
-        <v>614</v>
-      </c>
       <c r="E33" t="s">
-        <v>614</v>
-      </c>
-      <c r="BB33" t="s">
+        <v>613</v>
+      </c>
+      <c r="BH33" t="s">
         <v>86</v>
       </c>
-      <c r="BL33" t="s">
+      <c r="BR33" t="s">
         <v>185</v>
       </c>
-      <c r="CB33" t="s">
+      <c r="CH33" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>623</v>
+      </c>
+      <c r="B34" t="s">
         <v>624</v>
-      </c>
-      <c r="B34" t="s">
-        <v>625</v>
       </c>
       <c r="C34" t="s">
         <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E34" t="s">
-        <v>626</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>388</v>
-      </c>
-      <c r="BB34" t="s">
+        <v>625</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>387</v>
+      </c>
+      <c r="BH34" t="s">
         <v>86</v>
       </c>
-      <c r="BL34" t="s">
+      <c r="BR34" t="s">
         <v>185</v>
       </c>
-      <c r="CB34" t="s">
+      <c r="CH34" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" t="s">
         <v>325</v>
-      </c>
-      <c r="B35" t="s">
-        <v>326</v>
       </c>
       <c r="C35" t="s">
         <v>93</v>
       </c>
       <c r="D35" t="s">
+        <v>326</v>
+      </c>
+      <c r="E35" t="s">
+        <v>326</v>
+      </c>
+      <c r="F35" t="s">
+        <v>310</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR35" t="s">
         <v>327</v>
       </c>
-      <c r="E35" t="s">
-        <v>327</v>
-      </c>
-      <c r="F35" t="s">
-        <v>311</v>
-      </c>
-      <c r="BB35" t="s">
-        <v>86</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>328</v>
-      </c>
-      <c r="BN35" t="s">
-        <v>311</v>
-      </c>
-      <c r="CB35" t="s">
+      <c r="BT35" t="s">
+        <v>310</v>
+      </c>
+      <c r="CH35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>550</v>
+      </c>
+      <c r="B36" t="s">
         <v>551</v>
-      </c>
-      <c r="B36" t="s">
-        <v>552</v>
       </c>
       <c r="C36" t="s">
         <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E36" t="s">
-        <v>553</v>
-      </c>
-      <c r="AH36" t="s">
+        <v>552</v>
+      </c>
+      <c r="AN36" t="s">
         <v>185</v>
       </c>
-      <c r="BB36" t="s">
+      <c r="BH36" t="s">
         <v>86</v>
       </c>
-      <c r="BL36" t="s">
+      <c r="BR36" t="s">
         <v>185</v>
       </c>
-      <c r="CB36" t="s">
+      <c r="CH36" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>240</v>
       </c>
@@ -4172,60 +4214,60 @@
       <c r="J37" t="s">
         <v>245</v>
       </c>
-      <c r="BB37" t="s">
+      <c r="BH37" t="s">
         <v>86</v>
       </c>
-      <c r="BL37" t="s">
+      <c r="BR37" t="s">
         <v>185</v>
       </c>
-      <c r="CB37" t="s">
+      <c r="CH37" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C38" t="s">
         <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E38" t="s">
-        <v>497</v>
-      </c>
-      <c r="AH38" t="s">
+        <v>496</v>
+      </c>
+      <c r="AN38" t="s">
         <v>185</v>
       </c>
-      <c r="BB38" t="s">
+      <c r="BH38" t="s">
         <v>86</v>
       </c>
-      <c r="BL38" t="s">
+      <c r="BR38" t="s">
         <v>185</v>
       </c>
-      <c r="CB38" t="s">
+      <c r="CH38" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39" t="s">
         <v>329</v>
-      </c>
-      <c r="B39" t="s">
-        <v>330</v>
       </c>
       <c r="C39" t="s">
         <v>292</v>
       </c>
       <c r="D39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F39" t="s">
         <v>297</v>
@@ -4240,75 +4282,75 @@
         <v>285</v>
       </c>
       <c r="N39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P39" t="s">
         <v>185</v>
       </c>
-      <c r="AH39" t="s">
+      <c r="AN39" t="s">
+        <v>332</v>
+      </c>
+      <c r="AP39" t="s">
         <v>333</v>
       </c>
-      <c r="AJ39" t="s">
+      <c r="AR39" t="s">
         <v>334</v>
       </c>
-      <c r="AL39" t="s">
+      <c r="AT39" t="s">
         <v>335</v>
       </c>
-      <c r="AN39" t="s">
+      <c r="AV39" t="s">
         <v>336</v>
       </c>
-      <c r="AP39" t="s">
+      <c r="AX39" t="s">
         <v>337</v>
       </c>
-      <c r="AR39" t="s">
+      <c r="BH39" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>185</v>
+      </c>
+      <c r="BT39" t="s">
         <v>338</v>
       </c>
-      <c r="BB39" t="s">
+      <c r="CH39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>691</v>
+      </c>
+      <c r="B40" t="s">
+        <v>692</v>
+      </c>
+      <c r="C40" t="s">
+        <v>421</v>
+      </c>
+      <c r="D40" t="s">
+        <v>693</v>
+      </c>
+      <c r="E40" t="s">
+        <v>693</v>
+      </c>
+      <c r="BH40" t="s">
         <v>86</v>
       </c>
-      <c r="BD39" t="s">
-        <v>137</v>
-      </c>
-      <c r="BL39" t="s">
-        <v>185</v>
-      </c>
-      <c r="BN39" t="s">
-        <v>339</v>
-      </c>
-      <c r="CB39" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="40" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>692</v>
-      </c>
-      <c r="B40" t="s">
-        <v>693</v>
-      </c>
-      <c r="C40" t="s">
-        <v>422</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="BJ40" t="s">
         <v>694</v>
       </c>
-      <c r="E40" t="s">
-        <v>694</v>
-      </c>
-      <c r="BB40" t="s">
-        <v>86</v>
-      </c>
-      <c r="BD40" t="s">
+      <c r="BR40" t="s">
         <v>695</v>
       </c>
-      <c r="BL40" t="s">
+      <c r="CH40" t="s">
         <v>696</v>
       </c>
-      <c r="CB40" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="41" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>290</v>
       </c>
@@ -4340,12 +4382,12 @@
         <v>285</v>
       </c>
       <c r="P41" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R41" t="s">
         <v>297</v>
       </c>
-      <c r="V41" t="s">
+      <c r="T41" t="s">
         <v>298</v>
       </c>
       <c r="X41" t="s">
@@ -4361,339 +4403,345 @@
         <v>302</v>
       </c>
       <c r="AF41" t="s">
+        <v>740</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>741</v>
+      </c>
+      <c r="AN41" t="s">
         <v>303</v>
       </c>
-      <c r="AH41" t="s">
+      <c r="AP41" t="s">
         <v>304</v>
       </c>
-      <c r="AJ41" t="s">
+      <c r="AR41" t="s">
         <v>305</v>
       </c>
-      <c r="AL41" t="s">
+      <c r="AT41" t="s">
         <v>306</v>
       </c>
-      <c r="AN41" t="s">
+      <c r="AV41" t="s">
         <v>307</v>
       </c>
-      <c r="AP41" t="s">
+      <c r="AX41" t="s">
         <v>308</v>
       </c>
-      <c r="AR41" t="s">
+      <c r="AZ41" t="s">
         <v>309</v>
       </c>
-      <c r="AT41" t="s">
+      <c r="BB41" t="s">
         <v>310</v>
       </c>
-      <c r="AV41" t="s">
+      <c r="BD41" t="s">
+        <v>309</v>
+      </c>
+      <c r="BF41" t="s">
         <v>311</v>
       </c>
-      <c r="AX41" t="s">
-        <v>310</v>
-      </c>
-      <c r="AZ41" t="s">
+      <c r="BH41" t="s">
         <v>312</v>
       </c>
-      <c r="BB41" t="s">
+      <c r="BJ41" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR41" t="s">
         <v>313</v>
       </c>
-      <c r="BD41" t="s">
+      <c r="BT41" t="s">
+        <v>185</v>
+      </c>
+      <c r="CH41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>489</v>
+      </c>
+      <c r="B42" t="s">
+        <v>490</v>
+      </c>
+      <c r="C42" t="s">
+        <v>452</v>
+      </c>
+      <c r="D42" t="s">
+        <v>491</v>
+      </c>
+      <c r="E42" t="s">
+        <v>491</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>456</v>
+      </c>
+      <c r="BV42" t="s">
+        <v>253</v>
+      </c>
+      <c r="CH42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>539</v>
+      </c>
+      <c r="B43" t="s">
+        <v>540</v>
+      </c>
+      <c r="C43" t="s">
+        <v>541</v>
+      </c>
+      <c r="D43" t="s">
+        <v>542</v>
+      </c>
+      <c r="E43" t="s">
+        <v>543</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>544</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR43" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT43" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH43" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>717</v>
+      </c>
+      <c r="B44" t="s">
+        <v>540</v>
+      </c>
+      <c r="C44" t="s">
+        <v>541</v>
+      </c>
+      <c r="D44" t="s">
+        <v>718</v>
+      </c>
+      <c r="E44" t="s">
+        <v>719</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>720</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>721</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ44" t="s">
         <v>86</v>
       </c>
-      <c r="BL41" t="s">
-        <v>314</v>
-      </c>
-      <c r="BN41" t="s">
-        <v>185</v>
-      </c>
-      <c r="CB41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B42" t="s">
-        <v>491</v>
-      </c>
-      <c r="C42" t="s">
-        <v>453</v>
-      </c>
-      <c r="D42" t="s">
-        <v>492</v>
-      </c>
-      <c r="E42" t="s">
-        <v>492</v>
-      </c>
-      <c r="BB42" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL42" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN42" t="s">
-        <v>457</v>
-      </c>
-      <c r="BP42" t="s">
-        <v>253</v>
-      </c>
-      <c r="CB42" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="43" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>540</v>
-      </c>
-      <c r="B43" t="s">
-        <v>541</v>
-      </c>
-      <c r="C43" t="s">
-        <v>542</v>
-      </c>
-      <c r="D43" t="s">
-        <v>543</v>
-      </c>
-      <c r="E43" t="s">
-        <v>544</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL43" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP43" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR43" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT43" t="s">
-        <v>545</v>
-      </c>
-      <c r="BB43" t="s">
-        <v>137</v>
-      </c>
-      <c r="BL43" t="s">
-        <v>137</v>
-      </c>
-      <c r="BN43" t="s">
-        <v>156</v>
-      </c>
-      <c r="CB43" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="44" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>718</v>
-      </c>
-      <c r="B44" t="s">
-        <v>541</v>
-      </c>
-      <c r="C44" t="s">
-        <v>542</v>
-      </c>
-      <c r="D44" t="s">
-        <v>719</v>
-      </c>
-      <c r="E44" t="s">
-        <v>720</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>721</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>156</v>
-      </c>
-      <c r="AP44" t="s">
+      <c r="BL44" t="s">
+        <v>138</v>
+      </c>
+      <c r="CH44" t="s">
         <v>722</v>
       </c>
-      <c r="BB44" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD44" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF44" t="s">
-        <v>138</v>
-      </c>
-      <c r="CB44" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="45" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>393</v>
+      </c>
+      <c r="B45" t="s">
         <v>394</v>
-      </c>
-      <c r="B45" t="s">
-        <v>395</v>
       </c>
       <c r="C45" t="s">
         <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F45" t="s">
         <v>118</v>
       </c>
       <c r="H45" t="s">
-        <v>397</v>
-      </c>
-      <c r="BB45" t="s">
+        <v>396</v>
+      </c>
+      <c r="BH45" t="s">
         <v>86</v>
       </c>
-      <c r="BL45" t="s">
+      <c r="BR45" t="s">
         <v>118</v>
       </c>
-      <c r="CB45" t="s">
+      <c r="CH45" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>646</v>
+      </c>
+      <c r="B46" t="s">
         <v>647</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>648</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>645</v>
+      </c>
+      <c r="E46" t="s">
+        <v>645</v>
+      </c>
+      <c r="AN46" t="s">
         <v>649</v>
       </c>
-      <c r="D46" t="s">
-        <v>646</v>
-      </c>
-      <c r="E46" t="s">
-        <v>646</v>
-      </c>
-      <c r="AH46" t="s">
+      <c r="AP46" t="s">
         <v>650</v>
       </c>
-      <c r="AJ46" t="s">
+      <c r="AR46" t="s">
         <v>651</v>
       </c>
-      <c r="AL46" t="s">
+      <c r="AT46" t="s">
         <v>652</v>
       </c>
-      <c r="AN46" t="s">
+      <c r="AV46" t="s">
         <v>653</v>
       </c>
-      <c r="AP46" t="s">
+      <c r="AX46" t="s">
         <v>654</v>
       </c>
-      <c r="AR46" t="s">
-        <v>655</v>
-      </c>
-      <c r="BB46" t="s">
-        <v>343</v>
-      </c>
-      <c r="BL46" t="s">
+      <c r="BH46" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR46" t="s">
         <v>250</v>
       </c>
-      <c r="BN46" t="s">
-        <v>319</v>
-      </c>
-      <c r="CB46" t="s">
+      <c r="BT46" t="s">
+        <v>318</v>
+      </c>
+      <c r="CH46" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>660</v>
+      </c>
+      <c r="B47" t="s">
         <v>661</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>648</v>
+      </c>
+      <c r="D47" t="s">
         <v>662</v>
       </c>
-      <c r="C47" t="s">
-        <v>649</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>662</v>
+      </c>
+      <c r="AN47" t="s">
         <v>663</v>
       </c>
-      <c r="E47" t="s">
-        <v>663</v>
-      </c>
-      <c r="AH47" t="s">
+      <c r="AP47" t="s">
         <v>664</v>
       </c>
-      <c r="AJ47" t="s">
+      <c r="AR47" t="s">
         <v>665</v>
       </c>
-      <c r="AL47" t="s">
+      <c r="AT47" t="s">
         <v>666</v>
       </c>
-      <c r="AN47" t="s">
+      <c r="AV47" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX47" t="s">
         <v>667</v>
       </c>
-      <c r="AP47" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR47" t="s">
+      <c r="BH47" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR47" t="s">
+        <v>250</v>
+      </c>
+      <c r="BT47" t="s">
+        <v>318</v>
+      </c>
+      <c r="CH47" t="s">
         <v>668</v>
       </c>
-      <c r="BB47" t="s">
-        <v>343</v>
-      </c>
-      <c r="BL47" t="s">
-        <v>250</v>
-      </c>
-      <c r="BN47" t="s">
-        <v>319</v>
-      </c>
-      <c r="CB47" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="48" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>384</v>
+      </c>
+      <c r="B48" t="s">
         <v>385</v>
-      </c>
-      <c r="B48" t="s">
-        <v>386</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
       </c>
       <c r="D48" t="s">
+        <v>386</v>
+      </c>
+      <c r="E48" t="s">
+        <v>386</v>
+      </c>
+      <c r="F48" t="s">
         <v>387</v>
       </c>
-      <c r="E48" t="s">
-        <v>387</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>388</v>
       </c>
-      <c r="H48" t="s">
-        <v>389</v>
-      </c>
-      <c r="BB48" t="s">
+      <c r="BH48" t="s">
         <v>86</v>
       </c>
-      <c r="BL48" t="s">
+      <c r="BR48" t="s">
         <v>185</v>
       </c>
-      <c r="CB48" t="s">
+      <c r="CH48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>202</v>
       </c>
@@ -4709,134 +4757,134 @@
       <c r="E49" t="s">
         <v>205</v>
       </c>
-      <c r="AH49" t="s">
+      <c r="AN49" t="s">
         <v>206</v>
       </c>
-      <c r="AJ49" t="s">
+      <c r="AP49" t="s">
         <v>207</v>
       </c>
-      <c r="BB49" t="s">
+      <c r="BH49" t="s">
         <v>208</v>
       </c>
-      <c r="BD49" t="s">
+      <c r="BJ49" t="s">
         <v>209</v>
       </c>
-      <c r="BF49" t="s">
+      <c r="BL49" t="s">
         <v>210</v>
       </c>
-      <c r="BL49" t="s">
+      <c r="BR49" t="s">
         <v>211</v>
       </c>
-      <c r="CB49" t="s">
+      <c r="CH49" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>562</v>
+      </c>
+      <c r="B50" t="s">
         <v>563</v>
-      </c>
-      <c r="B50" t="s">
-        <v>564</v>
       </c>
       <c r="C50" t="s">
         <v>122</v>
       </c>
       <c r="D50" t="s">
+        <v>564</v>
+      </c>
+      <c r="E50" t="s">
+        <v>564</v>
+      </c>
+      <c r="AN50" t="s">
         <v>565</v>
       </c>
-      <c r="E50" t="s">
-        <v>565</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>566</v>
-      </c>
-      <c r="BB50" t="s">
-        <v>455</v>
-      </c>
-      <c r="BD50" t="s">
+      <c r="BH50" t="s">
+        <v>454</v>
+      </c>
+      <c r="BJ50" t="s">
         <v>86</v>
       </c>
-      <c r="BL50" t="s">
+      <c r="BR50" t="s">
         <v>185</v>
       </c>
-      <c r="CB50" t="s">
+      <c r="CH50" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B51" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C51" t="s">
         <v>122</v>
       </c>
       <c r="D51" t="s">
+        <v>656</v>
+      </c>
+      <c r="E51" t="s">
+        <v>656</v>
+      </c>
+      <c r="AN51" t="s">
         <v>657</v>
       </c>
-      <c r="E51" t="s">
-        <v>657</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>658</v>
-      </c>
-      <c r="BB51" t="s">
+      <c r="BH51" t="s">
         <v>86</v>
       </c>
-      <c r="BL51" t="s">
+      <c r="BR51" t="s">
         <v>192</v>
       </c>
-      <c r="CB51" t="s">
+      <c r="CH51" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C52" t="s">
         <v>93</v>
       </c>
       <c r="D52" t="s">
+        <v>408</v>
+      </c>
+      <c r="E52" t="s">
+        <v>408</v>
+      </c>
+      <c r="F52" t="s">
         <v>409</v>
       </c>
-      <c r="E52" t="s">
-        <v>409</v>
-      </c>
-      <c r="F52" t="s">
-        <v>410</v>
-      </c>
       <c r="H52" t="s">
-        <v>397</v>
-      </c>
-      <c r="BB52" t="s">
+        <v>396</v>
+      </c>
+      <c r="BH52" t="s">
         <v>257</v>
       </c>
-      <c r="BD52" t="s">
+      <c r="BJ52" t="s">
         <v>230</v>
       </c>
-      <c r="BL52" t="s">
+      <c r="BR52" t="s">
+        <v>316</v>
+      </c>
+      <c r="BT52" t="s">
         <v>317</v>
       </c>
-      <c r="BN52" t="s">
+      <c r="BV52" t="s">
         <v>318</v>
       </c>
-      <c r="BP52" t="s">
-        <v>319</v>
-      </c>
-      <c r="BR52" t="s">
+      <c r="BX52" t="s">
         <v>185</v>
       </c>
-      <c r="CB52" t="s">
+      <c r="CH52" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -4855,96 +4903,96 @@
       <c r="F53" t="s">
         <v>95</v>
       </c>
-      <c r="BB53" t="s">
+      <c r="BH53" t="s">
         <v>96</v>
       </c>
-      <c r="BD53" t="s">
+      <c r="BJ53" t="s">
         <v>97</v>
       </c>
-      <c r="BE53" t="s">
+      <c r="BK53" t="s">
         <v>98</v>
       </c>
-      <c r="BF53" t="s">
+      <c r="BL53" t="s">
         <v>99</v>
       </c>
-      <c r="BL53" t="s">
+      <c r="BR53" t="s">
         <v>100</v>
       </c>
-      <c r="CB53" t="s">
+      <c r="CH53" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>397</v>
+      </c>
+      <c r="B54" t="s">
         <v>398</v>
-      </c>
-      <c r="B54" t="s">
-        <v>399</v>
       </c>
       <c r="C54" t="s">
         <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F54" t="s">
         <v>118</v>
       </c>
       <c r="H54" t="s">
-        <v>351</v>
-      </c>
-      <c r="BB54" t="s">
+        <v>350</v>
+      </c>
+      <c r="BH54" t="s">
         <v>257</v>
       </c>
-      <c r="CB54" t="s">
+      <c r="CH54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>641</v>
+      </c>
+      <c r="B55" t="s">
+        <v>398</v>
+      </c>
+      <c r="C55" t="s">
+        <v>452</v>
+      </c>
+      <c r="D55" t="s">
         <v>642</v>
       </c>
-      <c r="B55" t="s">
-        <v>399</v>
-      </c>
-      <c r="C55" t="s">
-        <v>453</v>
-      </c>
-      <c r="D55" t="s">
-        <v>643</v>
-      </c>
       <c r="E55" t="s">
-        <v>643</v>
-      </c>
-      <c r="BB55" t="s">
+        <v>642</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR55" t="s">
         <v>455</v>
       </c>
-      <c r="BL55" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN55" t="s">
-        <v>528</v>
-      </c>
-      <c r="BP55" t="s">
-        <v>539</v>
-      </c>
-      <c r="BR55" t="s">
-        <v>550</v>
-      </c>
       <c r="BT55" t="s">
+        <v>527</v>
+      </c>
+      <c r="BV55" t="s">
+        <v>538</v>
+      </c>
+      <c r="BX55" t="s">
+        <v>549</v>
+      </c>
+      <c r="BZ55" t="s">
         <v>236</v>
       </c>
-      <c r="BV55" t="s">
+      <c r="CB55" t="s">
         <v>300</v>
       </c>
-      <c r="CB55" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="56" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="CH55" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>129</v>
       </c>
@@ -4979,26 +5027,26 @@
       <c r="P56" t="s">
         <v>136</v>
       </c>
-      <c r="BB56" t="s">
+      <c r="BH56" t="s">
         <v>86</v>
       </c>
-      <c r="BD56" t="s">
+      <c r="BJ56" t="s">
         <v>137</v>
       </c>
-      <c r="BF56" t="s">
+      <c r="BL56" t="s">
         <v>138</v>
       </c>
-      <c r="BL56" t="s">
+      <c r="BR56" t="s">
         <v>135</v>
       </c>
-      <c r="BN56" t="s">
+      <c r="BT56" t="s">
         <v>136</v>
       </c>
-      <c r="CB56" t="s">
+      <c r="CH56" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>171</v>
       </c>
@@ -5014,91 +5062,91 @@
       <c r="E57" t="s">
         <v>173</v>
       </c>
-      <c r="AH57" t="s">
+      <c r="AN57" t="s">
         <v>174</v>
       </c>
-      <c r="AJ57" t="s">
+      <c r="AP57" t="s">
         <v>175</v>
       </c>
-      <c r="AL57" t="s">
+      <c r="AR57" t="s">
         <v>176</v>
       </c>
-      <c r="AN57" t="s">
+      <c r="AT57" t="s">
         <v>177</v>
       </c>
-      <c r="AP57" t="s">
+      <c r="AV57" t="s">
         <v>178</v>
       </c>
-      <c r="AR57" t="s">
+      <c r="AX57" t="s">
         <v>179</v>
       </c>
-      <c r="BB57" t="s">
+      <c r="BH57" t="s">
         <v>96</v>
       </c>
-      <c r="BD57" t="s">
+      <c r="BJ57" t="s">
         <v>180</v>
       </c>
-      <c r="BL57" t="s">
+      <c r="BR57" t="s">
         <v>100</v>
       </c>
-      <c r="CB57" t="s">
+      <c r="CH57" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>578</v>
+      </c>
+      <c r="B58" t="s">
         <v>579</v>
-      </c>
-      <c r="B58" t="s">
-        <v>580</v>
       </c>
       <c r="C58" t="s">
         <v>142</v>
       </c>
       <c r="D58" t="s">
+        <v>580</v>
+      </c>
+      <c r="E58" t="s">
+        <v>580</v>
+      </c>
+      <c r="AN58" t="s">
         <v>581</v>
       </c>
-      <c r="E58" t="s">
-        <v>581</v>
-      </c>
-      <c r="AH58" t="s">
+      <c r="AP58" t="s">
         <v>582</v>
       </c>
-      <c r="AJ58" t="s">
+      <c r="AR58" t="s">
         <v>583</v>
       </c>
-      <c r="AL58" t="s">
+      <c r="AT58" t="s">
         <v>584</v>
       </c>
-      <c r="AN58" t="s">
+      <c r="AV58" t="s">
+        <v>327</v>
+      </c>
+      <c r="AX58" t="s">
         <v>585</v>
       </c>
-      <c r="AP58" t="s">
-        <v>328</v>
-      </c>
-      <c r="AR58" t="s">
+      <c r="BH58" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ58" t="s">
+        <v>380</v>
+      </c>
+      <c r="BL58" t="s">
         <v>586</v>
       </c>
-      <c r="BB58" t="s">
-        <v>86</v>
-      </c>
-      <c r="BD58" t="s">
-        <v>381</v>
-      </c>
-      <c r="BF58" t="s">
-        <v>587</v>
-      </c>
-      <c r="BL58" t="s">
+      <c r="BR58" t="s">
         <v>156</v>
       </c>
-      <c r="BN58" t="s">
+      <c r="BT58" t="s">
         <v>185</v>
       </c>
-      <c r="CB58" t="s">
+      <c r="CH58" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -5114,76 +5162,76 @@
       <c r="E59" t="s">
         <v>106</v>
       </c>
-      <c r="AH59" t="s">
+      <c r="AN59" t="s">
         <v>107</v>
       </c>
-      <c r="AJ59" t="s">
+      <c r="AP59" t="s">
         <v>108</v>
       </c>
-      <c r="BB59" t="s">
+      <c r="BH59" t="s">
         <v>109</v>
       </c>
-      <c r="BD59" t="s">
+      <c r="BJ59" t="s">
         <v>86</v>
       </c>
-      <c r="BF59" t="s">
+      <c r="BL59" t="s">
         <v>85</v>
       </c>
-      <c r="BH59" t="s">
+      <c r="BN59" t="s">
         <v>110</v>
       </c>
-      <c r="BL59" t="s">
+      <c r="BR59" t="s">
         <v>111</v>
       </c>
-      <c r="BN59" t="s">
+      <c r="BT59" t="s">
         <v>112</v>
       </c>
-      <c r="CB59" t="s">
+      <c r="CH59" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>635</v>
+      </c>
+      <c r="B60" t="s">
         <v>636</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>452</v>
+      </c>
+      <c r="D60" t="s">
         <v>637</v>
       </c>
-      <c r="C60" t="s">
-        <v>453</v>
-      </c>
-      <c r="D60" t="s">
-        <v>638</v>
-      </c>
       <c r="E60" t="s">
-        <v>638</v>
-      </c>
-      <c r="BB60" t="s">
+        <v>637</v>
+      </c>
+      <c r="BH60" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR60" t="s">
         <v>455</v>
       </c>
-      <c r="BL60" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN60" t="s">
-        <v>528</v>
-      </c>
-      <c r="BP60" t="s">
-        <v>539</v>
-      </c>
-      <c r="BR60" t="s">
-        <v>550</v>
-      </c>
       <c r="BT60" t="s">
+        <v>527</v>
+      </c>
+      <c r="BV60" t="s">
+        <v>538</v>
+      </c>
+      <c r="BX60" t="s">
+        <v>549</v>
+      </c>
+      <c r="BZ60" t="s">
         <v>236</v>
       </c>
-      <c r="BV60" t="s">
+      <c r="CB60" t="s">
         <v>300</v>
       </c>
-      <c r="CB60" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="61" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="CH60" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>140</v>
       </c>
@@ -5199,41 +5247,41 @@
       <c r="E61" t="s">
         <v>143</v>
       </c>
-      <c r="AH61" t="s">
+      <c r="AN61" t="s">
         <v>144</v>
       </c>
-      <c r="AJ61" t="s">
+      <c r="AP61" t="s">
         <v>89</v>
       </c>
-      <c r="AL61" t="s">
+      <c r="AR61" t="s">
         <v>118</v>
       </c>
-      <c r="AN61" t="s">
+      <c r="AT61" t="s">
         <v>145</v>
       </c>
-      <c r="AP61" t="s">
+      <c r="AV61" t="s">
         <v>146</v>
       </c>
-      <c r="AR61" t="s">
+      <c r="AX61" t="s">
         <v>147</v>
       </c>
-      <c r="AT61" t="s">
+      <c r="AZ61" t="s">
         <v>148</v>
       </c>
-      <c r="BB61" t="s">
+      <c r="BH61" t="s">
         <v>96</v>
       </c>
-      <c r="BL61" t="s">
+      <c r="BR61" t="s">
         <v>147</v>
       </c>
-      <c r="BN61" t="s">
+      <c r="BT61" t="s">
         <v>149</v>
       </c>
-      <c r="CB61" t="s">
+      <c r="CH61" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>246</v>
       </c>
@@ -5255,279 +5303,279 @@
       <c r="H62" t="s">
         <v>118</v>
       </c>
-      <c r="BB62" t="s">
+      <c r="BH62" t="s">
         <v>251</v>
       </c>
-      <c r="BD62" t="s">
+      <c r="BJ62" t="s">
         <v>86</v>
       </c>
-      <c r="BF62" t="s">
+      <c r="BL62" t="s">
         <v>252</v>
       </c>
-      <c r="BL62" t="s">
+      <c r="BR62" t="s">
         <v>250</v>
       </c>
-      <c r="BN62" t="s">
+      <c r="BT62" t="s">
         <v>118</v>
       </c>
-      <c r="BP62" t="s">
+      <c r="BV62" t="s">
         <v>253</v>
       </c>
-      <c r="CB62" t="s">
+      <c r="CH62" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>445</v>
+      </c>
+      <c r="B63" t="s">
         <v>446</v>
-      </c>
-      <c r="B63" t="s">
-        <v>447</v>
       </c>
       <c r="C63" t="s">
         <v>82</v>
       </c>
       <c r="D63" t="s">
+        <v>447</v>
+      </c>
+      <c r="E63" t="s">
+        <v>447</v>
+      </c>
+      <c r="BR63" t="s">
         <v>448</v>
       </c>
-      <c r="E63" t="s">
-        <v>448</v>
-      </c>
-      <c r="BL63" t="s">
+      <c r="CH63" t="s">
         <v>449</v>
       </c>
-      <c r="CB63" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="64" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>516</v>
+      </c>
+      <c r="B64" t="s">
         <v>517</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>452</v>
+      </c>
+      <c r="D64" t="s">
         <v>518</v>
       </c>
-      <c r="C64" t="s">
-        <v>453</v>
-      </c>
-      <c r="D64" t="s">
-        <v>519</v>
-      </c>
       <c r="E64" t="s">
-        <v>519</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>351</v>
-      </c>
-      <c r="BB64" t="s">
+        <v>518</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>350</v>
+      </c>
+      <c r="BH64" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR64" t="s">
         <v>455</v>
       </c>
-      <c r="BL64" t="s">
+      <c r="BT64" t="s">
         <v>456</v>
       </c>
-      <c r="BN64" t="s">
+      <c r="BV64" t="s">
+        <v>253</v>
+      </c>
+      <c r="CH64" t="s">
         <v>457</v>
       </c>
-      <c r="BP64" t="s">
-        <v>253</v>
-      </c>
-      <c r="CB64" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="65" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>596</v>
+      </c>
+      <c r="B65" t="s">
         <v>597</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>452</v>
+      </c>
+      <c r="D65" t="s">
         <v>598</v>
       </c>
-      <c r="C65" t="s">
-        <v>453</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>598</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>236</v>
+      </c>
+      <c r="BH65" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR65" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT65" t="s">
+        <v>527</v>
+      </c>
+      <c r="BV65" t="s">
+        <v>538</v>
+      </c>
+      <c r="BX65" t="s">
+        <v>549</v>
+      </c>
+      <c r="BZ65" t="s">
+        <v>236</v>
+      </c>
+      <c r="CB65" t="s">
+        <v>300</v>
+      </c>
+      <c r="CH65" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>599</v>
       </c>
-      <c r="E65" t="s">
-        <v>599</v>
-      </c>
-      <c r="AH65" t="s">
+      <c r="B66" t="s">
+        <v>600</v>
+      </c>
+      <c r="C66" t="s">
+        <v>452</v>
+      </c>
+      <c r="D66" t="s">
+        <v>601</v>
+      </c>
+      <c r="E66" t="s">
+        <v>601</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>549</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>538</v>
+      </c>
+      <c r="BH66" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR66" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT66" t="s">
+        <v>527</v>
+      </c>
+      <c r="BV66" t="s">
+        <v>538</v>
+      </c>
+      <c r="BX66" t="s">
+        <v>549</v>
+      </c>
+      <c r="BZ66" t="s">
         <v>236</v>
       </c>
-      <c r="BB65" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL65" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN65" t="s">
-        <v>528</v>
-      </c>
-      <c r="BP65" t="s">
-        <v>539</v>
-      </c>
-      <c r="BR65" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT65" t="s">
-        <v>236</v>
-      </c>
-      <c r="BV65" t="s">
+      <c r="CB66" t="s">
         <v>300</v>
       </c>
-      <c r="CB65" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="66" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>600</v>
-      </c>
-      <c r="B66" t="s">
-        <v>601</v>
-      </c>
-      <c r="C66" t="s">
-        <v>453</v>
-      </c>
-      <c r="D66" t="s">
-        <v>602</v>
-      </c>
-      <c r="E66" t="s">
-        <v>602</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>550</v>
-      </c>
-      <c r="AJ66" t="s">
-        <v>539</v>
-      </c>
-      <c r="BB66" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL66" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN66" t="s">
-        <v>528</v>
-      </c>
-      <c r="BP66" t="s">
-        <v>539</v>
-      </c>
-      <c r="BR66" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT66" t="s">
-        <v>236</v>
-      </c>
-      <c r="BV66" t="s">
-        <v>300</v>
-      </c>
-      <c r="CB66" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="67" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="CH66" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="67" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>430</v>
+      </c>
+      <c r="B67" t="s">
         <v>431</v>
-      </c>
-      <c r="B67" t="s">
-        <v>432</v>
       </c>
       <c r="C67" t="s">
         <v>142</v>
       </c>
       <c r="D67" t="s">
+        <v>432</v>
+      </c>
+      <c r="E67" t="s">
+        <v>432</v>
+      </c>
+      <c r="AN67" t="s">
         <v>433</v>
       </c>
-      <c r="E67" t="s">
-        <v>433</v>
-      </c>
-      <c r="AH67" t="s">
+      <c r="AP67" t="s">
         <v>434</v>
       </c>
-      <c r="AJ67" t="s">
+      <c r="AR67" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT67" t="s">
         <v>435</v>
       </c>
-      <c r="AL67" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN67" t="s">
+      <c r="BH67" t="s">
         <v>436</v>
       </c>
-      <c r="BB67" t="s">
-        <v>437</v>
-      </c>
-      <c r="BD67" t="s">
+      <c r="BJ67" t="s">
         <v>86</v>
       </c>
-      <c r="BF67" t="s">
+      <c r="BL67" t="s">
         <v>137</v>
       </c>
-      <c r="BL67" t="s">
+      <c r="BR67" t="s">
         <v>118</v>
       </c>
-      <c r="CB67" t="s">
+      <c r="CH67" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>419</v>
+      </c>
+      <c r="B68" t="s">
         <v>420</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>421</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>422</v>
       </c>
-      <c r="D68" t="s">
-        <v>423</v>
-      </c>
       <c r="E68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F68" t="s">
-        <v>334</v>
-      </c>
-      <c r="BB68" t="s">
+        <v>333</v>
+      </c>
+      <c r="BH68" t="s">
         <v>86</v>
       </c>
-      <c r="BL68" t="s">
+      <c r="BR68" t="s">
         <v>185</v>
       </c>
-      <c r="CB68" t="s">
+      <c r="CH68" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>674</v>
+      </c>
+      <c r="B69" t="s">
+        <v>420</v>
+      </c>
+      <c r="C69" t="s">
+        <v>421</v>
+      </c>
+      <c r="D69" t="s">
         <v>675</v>
       </c>
-      <c r="B69" t="s">
-        <v>421</v>
-      </c>
-      <c r="C69" t="s">
-        <v>422</v>
-      </c>
-      <c r="D69" t="s">
-        <v>676</v>
-      </c>
       <c r="E69" t="s">
-        <v>676</v>
-      </c>
-      <c r="BB69" t="s">
+        <v>675</v>
+      </c>
+      <c r="BH69" t="s">
         <v>86</v>
       </c>
-      <c r="CB69" t="s">
+      <c r="CH69" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>479</v>
+      </c>
+      <c r="B70" t="s">
         <v>480</v>
-      </c>
-      <c r="B70" t="s">
-        <v>481</v>
       </c>
       <c r="C70" t="s">
         <v>104</v>
@@ -5536,66 +5584,66 @@
         <v>159</v>
       </c>
       <c r="E70" t="s">
+        <v>481</v>
+      </c>
+      <c r="BH70" t="s">
         <v>482</v>
       </c>
-      <c r="BB70" t="s">
+      <c r="BR70" t="s">
         <v>483</v>
       </c>
-      <c r="BL70" t="s">
+      <c r="BT70" t="s">
         <v>484</v>
       </c>
-      <c r="BN70" t="s">
+      <c r="CH70" t="s">
         <v>485</v>
       </c>
-      <c r="CB70" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="71" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>535</v>
+      </c>
+      <c r="B71" t="s">
         <v>536</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>452</v>
+      </c>
+      <c r="D71" t="s">
         <v>537</v>
       </c>
-      <c r="C71" t="s">
-        <v>453</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>537</v>
+      </c>
+      <c r="BH71" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR71" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT71" t="s">
+        <v>456</v>
+      </c>
+      <c r="BV71" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX71" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ71" t="s">
+        <v>527</v>
+      </c>
+      <c r="CB71" t="s">
         <v>538</v>
       </c>
-      <c r="E71" t="s">
-        <v>538</v>
-      </c>
-      <c r="BB71" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL71" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN71" t="s">
+      <c r="CD71" t="s">
+        <v>236</v>
+      </c>
+      <c r="CH71" t="s">
         <v>457</v>
       </c>
-      <c r="BP71" t="s">
-        <v>253</v>
-      </c>
-      <c r="BR71" t="s">
-        <v>527</v>
-      </c>
-      <c r="BT71" t="s">
-        <v>528</v>
-      </c>
-      <c r="BV71" t="s">
-        <v>539</v>
-      </c>
-      <c r="BX71" t="s">
-        <v>236</v>
-      </c>
-      <c r="CB71" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="72" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>157</v>
       </c>
@@ -5611,48 +5659,48 @@
       <c r="E72" t="s">
         <v>160</v>
       </c>
-      <c r="AH72" t="s">
+      <c r="AN72" t="s">
         <v>161</v>
       </c>
-      <c r="AJ72" t="s">
+      <c r="AP72" t="s">
         <v>162</v>
       </c>
-      <c r="AL72" t="s">
+      <c r="AR72" t="s">
         <v>163</v>
       </c>
-      <c r="AN72" t="s">
+      <c r="AT72" t="s">
         <v>164</v>
       </c>
-      <c r="AP72" t="s">
+      <c r="AV72" t="s">
         <v>111</v>
       </c>
-      <c r="AR72" t="s">
+      <c r="AX72" t="s">
         <v>165</v>
       </c>
-      <c r="AT72" t="s">
+      <c r="AZ72" t="s">
         <v>166</v>
       </c>
-      <c r="AV72" s="3" t="s">
+      <c r="BB72" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AW72" s="3"/>
-      <c r="AX72" t="s">
+      <c r="BC72" s="3"/>
+      <c r="BD72" t="s">
         <v>167</v>
       </c>
-      <c r="BB72" t="s">
+      <c r="BH72" t="s">
         <v>168</v>
       </c>
-      <c r="BD72" t="s">
+      <c r="BJ72" t="s">
         <v>86</v>
       </c>
-      <c r="BL72" t="s">
+      <c r="BR72" t="s">
         <v>169</v>
       </c>
-      <c r="CB72" t="s">
+      <c r="CH72" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>187</v>
       </c>
@@ -5668,274 +5716,274 @@
       <c r="E73" t="s">
         <v>189</v>
       </c>
-      <c r="AH73" t="s">
+      <c r="AN73" t="s">
         <v>190</v>
       </c>
-      <c r="BB73" t="s">
+      <c r="BH73" t="s">
         <v>191</v>
       </c>
-      <c r="BL73" t="s">
+      <c r="BR73" t="s">
         <v>192</v>
       </c>
-      <c r="CB73" t="s">
+      <c r="CH73" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>671</v>
+      </c>
+      <c r="B74" t="s">
         <v>672</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>452</v>
+      </c>
+      <c r="D74" t="s">
         <v>673</v>
       </c>
-      <c r="C74" t="s">
-        <v>453</v>
-      </c>
-      <c r="D74" t="s">
-        <v>674</v>
-      </c>
       <c r="E74" t="s">
-        <v>674</v>
-      </c>
-      <c r="BB74" t="s">
+        <v>673</v>
+      </c>
+      <c r="BH74" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR74" t="s">
         <v>455</v>
       </c>
-      <c r="BL74" t="s">
+      <c r="BT74" t="s">
+        <v>527</v>
+      </c>
+      <c r="BV74" t="s">
+        <v>538</v>
+      </c>
+      <c r="BX74" t="s">
+        <v>549</v>
+      </c>
+      <c r="BZ74" t="s">
+        <v>236</v>
+      </c>
+      <c r="CB74" t="s">
+        <v>300</v>
+      </c>
+      <c r="CH74" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="75" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>508</v>
+      </c>
+      <c r="B75" t="s">
+        <v>509</v>
+      </c>
+      <c r="C75" t="s">
+        <v>452</v>
+      </c>
+      <c r="D75" t="s">
+        <v>510</v>
+      </c>
+      <c r="E75" t="s">
+        <v>510</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>511</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>512</v>
+      </c>
+      <c r="BH75" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR75" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT75" t="s">
         <v>456</v>
       </c>
-      <c r="BN74" t="s">
-        <v>528</v>
-      </c>
-      <c r="BP74" t="s">
-        <v>539</v>
-      </c>
-      <c r="BR74" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT74" t="s">
-        <v>236</v>
-      </c>
-      <c r="BV74" t="s">
-        <v>300</v>
-      </c>
-      <c r="CB74" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="75" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>509</v>
-      </c>
-      <c r="B75" t="s">
-        <v>510</v>
-      </c>
-      <c r="C75" t="s">
-        <v>453</v>
-      </c>
-      <c r="D75" t="s">
-        <v>511</v>
-      </c>
-      <c r="E75" t="s">
-        <v>511</v>
-      </c>
-      <c r="AH75" t="s">
-        <v>512</v>
-      </c>
-      <c r="AJ75" t="s">
-        <v>513</v>
-      </c>
-      <c r="BB75" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL75" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN75" t="s">
+      <c r="BV75" t="s">
+        <v>253</v>
+      </c>
+      <c r="CH75" t="s">
         <v>457</v>
       </c>
-      <c r="BP75" t="s">
-        <v>253</v>
-      </c>
-      <c r="CB75" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="76" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>474</v>
+      </c>
+      <c r="B76" t="s">
         <v>475</v>
-      </c>
-      <c r="B76" t="s">
-        <v>476</v>
       </c>
       <c r="C76" t="s">
         <v>142</v>
       </c>
       <c r="D76" t="s">
+        <v>476</v>
+      </c>
+      <c r="E76" t="s">
+        <v>476</v>
+      </c>
+      <c r="AN76" t="s">
         <v>477</v>
       </c>
-      <c r="E76" t="s">
-        <v>477</v>
-      </c>
-      <c r="AH76" t="s">
+      <c r="AP76" t="s">
         <v>478</v>
       </c>
-      <c r="AJ76" t="s">
-        <v>479</v>
-      </c>
-      <c r="BB76" t="s">
+      <c r="BH76" t="s">
         <v>96</v>
       </c>
-      <c r="BL76" t="s">
+      <c r="BR76" t="s">
         <v>100</v>
       </c>
-      <c r="CB76" t="s">
+      <c r="CH76" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>428</v>
+      </c>
+      <c r="B77" t="s">
         <v>429</v>
-      </c>
-      <c r="B77" t="s">
-        <v>430</v>
       </c>
       <c r="C77" t="s">
         <v>93</v>
       </c>
       <c r="D77" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E77" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F77" t="s">
+        <v>426</v>
+      </c>
+      <c r="H77" t="s">
+        <v>380</v>
+      </c>
+      <c r="BH77" t="s">
+        <v>380</v>
+      </c>
+      <c r="BR77" t="s">
+        <v>155</v>
+      </c>
+      <c r="CH77" t="s">
         <v>427</v>
       </c>
-      <c r="H77" t="s">
-        <v>381</v>
-      </c>
-      <c r="BB77" t="s">
-        <v>381</v>
-      </c>
-      <c r="BL77" t="s">
-        <v>155</v>
-      </c>
-      <c r="CB77" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="78" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>423</v>
+      </c>
+      <c r="B78" t="s">
         <v>424</v>
-      </c>
-      <c r="B78" t="s">
-        <v>425</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
       <c r="D78" t="s">
+        <v>425</v>
+      </c>
+      <c r="E78" t="s">
+        <v>425</v>
+      </c>
+      <c r="F78" t="s">
         <v>426</v>
       </c>
-      <c r="E78" t="s">
-        <v>426</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
+        <v>380</v>
+      </c>
+      <c r="BH78" t="s">
+        <v>380</v>
+      </c>
+      <c r="BR78" t="s">
+        <v>155</v>
+      </c>
+      <c r="CH78" t="s">
         <v>427</v>
       </c>
-      <c r="H78" t="s">
-        <v>381</v>
-      </c>
-      <c r="BB78" t="s">
-        <v>381</v>
-      </c>
-      <c r="BL78" t="s">
-        <v>155</v>
-      </c>
-      <c r="CB78" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="79" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>587</v>
+      </c>
+      <c r="B79" t="s">
         <v>588</v>
-      </c>
-      <c r="B79" t="s">
-        <v>589</v>
       </c>
       <c r="C79" t="s">
         <v>82</v>
       </c>
       <c r="D79" t="s">
+        <v>589</v>
+      </c>
+      <c r="E79" t="s">
+        <v>589</v>
+      </c>
+      <c r="AN79" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP79" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR79" t="s">
         <v>590</v>
       </c>
-      <c r="E79" t="s">
-        <v>590</v>
-      </c>
-      <c r="AH79" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ79" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL79" t="s">
-        <v>591</v>
-      </c>
-      <c r="BB79" t="s">
+      <c r="BH79" t="s">
         <v>86</v>
       </c>
-      <c r="BL79" t="s">
+      <c r="BR79" t="s">
         <v>185</v>
       </c>
-      <c r="CB79" t="s">
+      <c r="CH79" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>553</v>
+      </c>
+      <c r="B80" t="s">
         <v>554</v>
-      </c>
-      <c r="B80" t="s">
-        <v>555</v>
       </c>
       <c r="C80" t="s">
         <v>142</v>
       </c>
       <c r="D80" t="s">
+        <v>555</v>
+      </c>
+      <c r="E80" t="s">
+        <v>555</v>
+      </c>
+      <c r="AN80" t="s">
         <v>556</v>
       </c>
-      <c r="E80" t="s">
-        <v>556</v>
-      </c>
-      <c r="AH80" t="s">
+      <c r="AP80" t="s">
         <v>557</v>
       </c>
-      <c r="AJ80" t="s">
+      <c r="AR80" t="s">
         <v>558</v>
       </c>
-      <c r="AL80" t="s">
+      <c r="AT80" t="s">
         <v>559</v>
       </c>
-      <c r="AN80" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP80" t="s">
+      <c r="AV80" t="s">
         <v>118</v>
       </c>
-      <c r="BB80" t="s">
+      <c r="BH80" t="s">
         <v>86</v>
       </c>
-      <c r="BL80" t="s">
+      <c r="BR80" t="s">
         <v>185</v>
       </c>
-      <c r="BN80" t="s">
+      <c r="BT80" t="s">
         <v>147</v>
       </c>
-      <c r="CB80" t="s">
+      <c r="CH80" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>181</v>
       </c>
@@ -5954,46 +6002,46 @@
       <c r="F81" t="s">
         <v>184</v>
       </c>
-      <c r="BB81" t="s">
+      <c r="BH81" t="s">
         <v>86</v>
       </c>
-      <c r="BL81" t="s">
+      <c r="BR81" t="s">
         <v>185</v>
       </c>
-      <c r="CB81" t="s">
+      <c r="CH81" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B82" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C82" t="s">
         <v>122</v>
       </c>
       <c r="D82" t="s">
+        <v>639</v>
+      </c>
+      <c r="E82" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN82" t="s">
         <v>640</v>
       </c>
-      <c r="E82" t="s">
-        <v>640</v>
-      </c>
-      <c r="AH82" t="s">
-        <v>641</v>
-      </c>
-      <c r="BB82" t="s">
+      <c r="BH82" t="s">
         <v>86</v>
       </c>
-      <c r="BL82" t="s">
+      <c r="BR82" t="s">
         <v>185</v>
       </c>
-      <c r="CB82" t="s">
+      <c r="CH82" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>120</v>
       </c>
@@ -6009,55 +6057,55 @@
       <c r="E83" t="s">
         <v>123</v>
       </c>
-      <c r="AH83" t="s">
+      <c r="AN83" t="s">
         <v>124</v>
       </c>
-      <c r="BB83" t="s">
+      <c r="BH83" t="s">
         <v>125</v>
       </c>
-      <c r="BD83" t="s">
+      <c r="BJ83" t="s">
         <v>126</v>
       </c>
-      <c r="BF83" t="s">
+      <c r="BL83" t="s">
         <v>86</v>
       </c>
-      <c r="BH83" t="s">
+      <c r="BN83" t="s">
         <v>127</v>
       </c>
-      <c r="BL83" t="s">
+      <c r="BR83" t="s">
         <v>128</v>
       </c>
-      <c r="CB83" t="s">
+      <c r="CH83" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>669</v>
+      </c>
+      <c r="B84" t="s">
+        <v>731</v>
+      </c>
+      <c r="C84" t="s">
+        <v>452</v>
+      </c>
+      <c r="D84" t="s">
         <v>670</v>
       </c>
-      <c r="B84" t="s">
-        <v>732</v>
-      </c>
-      <c r="C84" t="s">
-        <v>453</v>
-      </c>
-      <c r="D84" t="s">
-        <v>671</v>
-      </c>
       <c r="E84" t="s">
-        <v>671</v>
-      </c>
-      <c r="BB84" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL84" t="s">
-        <v>455</v>
-      </c>
-      <c r="CB84" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="85" spans="1:80" x14ac:dyDescent="0.2">
+        <v>670</v>
+      </c>
+      <c r="BH84" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR84" t="s">
+        <v>454</v>
+      </c>
+      <c r="CH84" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -6073,81 +6121,81 @@
       <c r="E85" t="s">
         <v>83</v>
       </c>
-      <c r="AH85" t="s">
+      <c r="AN85" t="s">
         <v>84</v>
       </c>
-      <c r="BB85" t="s">
+      <c r="BH85" t="s">
         <v>85</v>
       </c>
-      <c r="BD85" t="s">
+      <c r="BJ85" t="s">
         <v>86</v>
       </c>
-      <c r="BF85" t="s">
+      <c r="BL85" t="s">
         <v>87</v>
       </c>
-      <c r="BH85" t="s">
+      <c r="BN85" t="s">
         <v>88</v>
       </c>
-      <c r="BL85" t="s">
+      <c r="BR85" t="s">
         <v>89</v>
       </c>
-      <c r="CB85" t="s">
+      <c r="CH85" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>629</v>
+      </c>
+      <c r="B86" t="s">
         <v>630</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>421</v>
+      </c>
+      <c r="D86" t="s">
         <v>631</v>
       </c>
-      <c r="C86" t="s">
-        <v>422</v>
-      </c>
-      <c r="D86" t="s">
-        <v>632</v>
-      </c>
       <c r="E86" t="s">
-        <v>632</v>
-      </c>
-      <c r="BB86" t="s">
+        <v>631</v>
+      </c>
+      <c r="BH86" t="s">
         <v>86</v>
       </c>
-      <c r="BL86" t="s">
+      <c r="BR86" t="s">
         <v>185</v>
       </c>
-      <c r="CB86" t="s">
+      <c r="CH86" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>626</v>
+      </c>
+      <c r="B87" t="s">
         <v>627</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>421</v>
+      </c>
+      <c r="D87" t="s">
         <v>628</v>
       </c>
-      <c r="C87" t="s">
-        <v>422</v>
-      </c>
-      <c r="D87" t="s">
-        <v>629</v>
-      </c>
       <c r="E87" t="s">
-        <v>629</v>
-      </c>
-      <c r="BB87" t="s">
+        <v>628</v>
+      </c>
+      <c r="BH87" t="s">
         <v>86</v>
       </c>
-      <c r="BL87" t="s">
+      <c r="BR87" t="s">
         <v>185</v>
       </c>
-      <c r="CB87" t="s">
+      <c r="CH87" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>222</v>
       </c>
@@ -6164,24 +6212,24 @@
         <v>224</v>
       </c>
       <c r="F88" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H88" t="s">
         <v>297</v>
       </c>
-      <c r="BB88" t="s">
+      <c r="BH88" t="s">
         <v>86</v>
       </c>
-      <c r="BL88" t="s">
+      <c r="BR88" t="s">
         <v>185</v>
       </c>
-      <c r="CB88" t="s">
+      <c r="CH88" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B89" t="s">
         <v>223</v>
@@ -6190,31 +6238,31 @@
         <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E89" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F89" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H89" t="s">
         <v>297</v>
       </c>
-      <c r="BB89" t="s">
-        <v>343</v>
-      </c>
-      <c r="BL89" t="s">
+      <c r="BH89" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR89" t="s">
         <v>250</v>
       </c>
-      <c r="BN89" t="s">
-        <v>319</v>
-      </c>
-      <c r="CB89" t="s">
+      <c r="BT89" t="s">
+        <v>318</v>
+      </c>
+      <c r="CH89" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>225</v>
       </c>
@@ -6236,43 +6284,43 @@
       <c r="X90" t="s">
         <v>229</v>
       </c>
-      <c r="BB90" t="s">
+      <c r="BH90" t="s">
         <v>230</v>
       </c>
-      <c r="BN90" t="s">
+      <c r="BT90" t="s">
         <v>185</v>
       </c>
-      <c r="CB90" t="s">
+      <c r="CH90" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>441</v>
+      </c>
+      <c r="B91" t="s">
         <v>442</v>
-      </c>
-      <c r="B91" t="s">
-        <v>443</v>
       </c>
       <c r="C91" t="s">
         <v>122</v>
       </c>
       <c r="D91" t="s">
+        <v>443</v>
+      </c>
+      <c r="E91" t="s">
+        <v>443</v>
+      </c>
+      <c r="AN91" t="s">
         <v>444</v>
       </c>
-      <c r="E91" t="s">
-        <v>444</v>
-      </c>
-      <c r="AH91" t="s">
-        <v>445</v>
-      </c>
-      <c r="BL91" t="s">
+      <c r="BR91" t="s">
         <v>89</v>
       </c>
-      <c r="CB91" t="s">
+      <c r="CH91" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>151</v>
       </c>
@@ -6303,125 +6351,125 @@
       <c r="N92" t="s">
         <v>156</v>
       </c>
-      <c r="BB92" t="s">
+      <c r="BH92" t="s">
         <v>86</v>
       </c>
-      <c r="BD92" t="s">
+      <c r="BJ92" t="s">
         <v>137</v>
       </c>
-      <c r="BF92" t="s">
+      <c r="BL92" t="s">
         <v>138</v>
       </c>
-      <c r="BL92" t="s">
+      <c r="BR92" t="s">
         <v>118</v>
       </c>
-      <c r="CB92" t="s">
+      <c r="CH92" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>658</v>
+      </c>
+      <c r="B93" t="s">
         <v>659</v>
       </c>
-      <c r="B93" t="s">
-        <v>660</v>
-      </c>
       <c r="C93" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D93" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E93" t="s">
-        <v>657</v>
-      </c>
-      <c r="AH93" t="s">
-        <v>550</v>
-      </c>
-      <c r="AJ93" t="s">
-        <v>539</v>
-      </c>
-      <c r="BB93" t="s">
+        <v>656</v>
+      </c>
+      <c r="AN93" t="s">
+        <v>549</v>
+      </c>
+      <c r="AP93" t="s">
+        <v>538</v>
+      </c>
+      <c r="BH93" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR93" t="s">
         <v>455</v>
       </c>
-      <c r="BL93" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN93" t="s">
-        <v>528</v>
-      </c>
-      <c r="BP93" t="s">
-        <v>539</v>
-      </c>
-      <c r="BR93" t="s">
-        <v>550</v>
-      </c>
       <c r="BT93" t="s">
+        <v>527</v>
+      </c>
+      <c r="BV93" t="s">
+        <v>538</v>
+      </c>
+      <c r="BX93" t="s">
+        <v>549</v>
+      </c>
+      <c r="BZ93" t="s">
         <v>236</v>
       </c>
-      <c r="BV93" t="s">
+      <c r="CB93" t="s">
         <v>300</v>
       </c>
-      <c r="CB93" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="94" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="CH93" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="94" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>676</v>
+      </c>
+      <c r="B94" t="s">
         <v>677</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>421</v>
+      </c>
+      <c r="D94" t="s">
         <v>678</v>
       </c>
-      <c r="C94" t="s">
-        <v>422</v>
-      </c>
-      <c r="D94" t="s">
-        <v>679</v>
-      </c>
       <c r="E94" t="s">
-        <v>679</v>
-      </c>
-      <c r="BB94" t="s">
+        <v>678</v>
+      </c>
+      <c r="BH94" t="s">
         <v>86</v>
       </c>
-      <c r="BL94" t="s">
+      <c r="BR94" t="s">
         <v>185</v>
       </c>
-      <c r="CB94" t="s">
+      <c r="CH94" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C95" t="s">
         <v>122</v>
       </c>
       <c r="D95" t="s">
+        <v>530</v>
+      </c>
+      <c r="E95" t="s">
+        <v>530</v>
+      </c>
+      <c r="AN95" t="s">
         <v>531</v>
       </c>
-      <c r="E95" t="s">
-        <v>531</v>
-      </c>
-      <c r="AH95" t="s">
-        <v>532</v>
-      </c>
-      <c r="BB95" t="s">
+      <c r="BH95" t="s">
         <v>230</v>
       </c>
-      <c r="BL95" t="s">
+      <c r="BR95" t="s">
         <v>185</v>
       </c>
-      <c r="CB95" t="s">
+      <c r="CH95" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>254</v>
       </c>
@@ -6440,17 +6488,17 @@
       <c r="F96" t="s">
         <v>250</v>
       </c>
-      <c r="BB96" t="s">
+      <c r="BH96" t="s">
         <v>257</v>
       </c>
-      <c r="BL96" t="s">
+      <c r="BR96" t="s">
         <v>185</v>
       </c>
-      <c r="CB96" t="s">
+      <c r="CH96" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>258</v>
       </c>
@@ -6475,20 +6523,20 @@
       <c r="J97" t="s">
         <v>263</v>
       </c>
-      <c r="BB97" t="s">
+      <c r="BH97" t="s">
         <v>86</v>
       </c>
-      <c r="BD97" t="s">
+      <c r="BJ97" t="s">
         <v>239</v>
       </c>
-      <c r="BL97" t="s">
+      <c r="BR97" t="s">
         <v>185</v>
       </c>
-      <c r="CB97" t="s">
+      <c r="CH97" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>275</v>
       </c>
@@ -6513,23 +6561,23 @@
       <c r="J98" t="s">
         <v>279</v>
       </c>
-      <c r="BB98" t="s">
+      <c r="BH98" t="s">
         <v>86</v>
       </c>
-      <c r="BD98" t="s">
+      <c r="BJ98" t="s">
         <v>239</v>
       </c>
-      <c r="BF98" t="s">
+      <c r="BL98" t="s">
         <v>280</v>
       </c>
-      <c r="BL98" t="s">
+      <c r="BR98" t="s">
         <v>185</v>
       </c>
-      <c r="CB98" t="s">
+      <c r="CH98" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>231</v>
       </c>
@@ -6557,40 +6605,40 @@
       <c r="L99" t="s">
         <v>238</v>
       </c>
-      <c r="BB99" t="s">
+      <c r="BH99" t="s">
         <v>86</v>
       </c>
-      <c r="BD99" t="s">
+      <c r="BJ99" t="s">
         <v>239</v>
       </c>
-      <c r="BL99" t="s">
+      <c r="BR99" t="s">
         <v>185</v>
       </c>
-      <c r="CB99" t="s">
+      <c r="CH99" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" t="s">
         <v>348</v>
-      </c>
-      <c r="B100" t="s">
-        <v>349</v>
       </c>
       <c r="C100" t="s">
         <v>93</v>
       </c>
       <c r="D100" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E100" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F100" t="s">
         <v>155</v>
       </c>
       <c r="H100" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J100" t="s">
         <v>297</v>
@@ -6599,24 +6647,24 @@
         <v>285</v>
       </c>
       <c r="Z100" t="s">
-        <v>352</v>
-      </c>
-      <c r="BB100" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH100" t="s">
         <v>86</v>
       </c>
-      <c r="BL100" t="s">
+      <c r="BR100" t="s">
         <v>185</v>
       </c>
-      <c r="CB100" t="s">
+      <c r="CH100" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="101" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C101" t="s">
         <v>93</v>
@@ -6636,64 +6684,64 @@
       <c r="J101" t="s">
         <v>118</v>
       </c>
-      <c r="BB101" t="s">
+      <c r="BH101" t="s">
         <v>86</v>
       </c>
-      <c r="BL101" t="s">
+      <c r="BR101" t="s">
         <v>118</v>
       </c>
-      <c r="CB101" t="s">
+      <c r="CH101" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>569</v>
+      </c>
+      <c r="B102" t="s">
         <v>570</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
+        <v>452</v>
+      </c>
+      <c r="D102" t="s">
         <v>571</v>
       </c>
-      <c r="C102" t="s">
-        <v>453</v>
-      </c>
-      <c r="D102" t="s">
-        <v>572</v>
-      </c>
       <c r="E102" t="s">
-        <v>572</v>
-      </c>
-      <c r="BB102" t="s">
+        <v>571</v>
+      </c>
+      <c r="BH102" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR102" t="s">
         <v>455</v>
       </c>
-      <c r="BL102" t="s">
+      <c r="BT102" t="s">
         <v>456</v>
       </c>
-      <c r="BN102" t="s">
+      <c r="BV102" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX102" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ102" t="s">
+        <v>527</v>
+      </c>
+      <c r="CB102" t="s">
+        <v>538</v>
+      </c>
+      <c r="CD102" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF102" t="s">
+        <v>549</v>
+      </c>
+      <c r="CH102" t="s">
         <v>457</v>
       </c>
-      <c r="BP102" t="s">
-        <v>253</v>
-      </c>
-      <c r="BR102" t="s">
-        <v>527</v>
-      </c>
-      <c r="BT102" t="s">
-        <v>528</v>
-      </c>
-      <c r="BV102" t="s">
-        <v>539</v>
-      </c>
-      <c r="BX102" t="s">
-        <v>236</v>
-      </c>
-      <c r="BZ102" t="s">
-        <v>550</v>
-      </c>
-      <c r="CB102" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="103" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>194</v>
       </c>
@@ -6709,322 +6757,322 @@
       <c r="E103" t="s">
         <v>196</v>
       </c>
-      <c r="AH103" t="s">
+      <c r="AN103" t="s">
         <v>197</v>
       </c>
-      <c r="AJ103" t="s">
+      <c r="AP103" t="s">
         <v>198</v>
       </c>
-      <c r="AL103" t="s">
+      <c r="AR103" t="s">
         <v>199</v>
       </c>
-      <c r="BB103" t="s">
+      <c r="BH103" t="s">
         <v>96</v>
       </c>
-      <c r="BL103" t="s">
+      <c r="BR103" t="s">
         <v>200</v>
       </c>
-      <c r="CB103" t="s">
+      <c r="CH103" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>460</v>
+      </c>
+      <c r="B104" t="s">
         <v>461</v>
-      </c>
-      <c r="B104" t="s">
-        <v>462</v>
       </c>
       <c r="C104" t="s">
         <v>122</v>
       </c>
       <c r="D104" t="s">
+        <v>462</v>
+      </c>
+      <c r="E104" t="s">
+        <v>462</v>
+      </c>
+      <c r="AN104" t="s">
         <v>463</v>
       </c>
-      <c r="E104" t="s">
-        <v>463</v>
-      </c>
-      <c r="AH104" t="s">
-        <v>464</v>
-      </c>
-      <c r="BB104" t="s">
+      <c r="BH104" t="s">
         <v>86</v>
       </c>
-      <c r="BL104" t="s">
+      <c r="BR104" t="s">
         <v>146</v>
       </c>
-      <c r="CB104" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="105" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="CH104" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="105" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>546</v>
+      </c>
+      <c r="B105" t="s">
         <v>547</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>452</v>
+      </c>
+      <c r="D105" t="s">
         <v>548</v>
       </c>
-      <c r="C105" t="s">
-        <v>453</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
+        <v>548</v>
+      </c>
+      <c r="AN105" t="s">
+        <v>228</v>
+      </c>
+      <c r="BH105" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR105" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT105" t="s">
+        <v>456</v>
+      </c>
+      <c r="BV105" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX105" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ105" t="s">
+        <v>527</v>
+      </c>
+      <c r="CB105" t="s">
+        <v>538</v>
+      </c>
+      <c r="CD105" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF105" t="s">
         <v>549</v>
       </c>
-      <c r="E105" t="s">
+      <c r="CH105" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="106" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>566</v>
+      </c>
+      <c r="B106" t="s">
+        <v>567</v>
+      </c>
+      <c r="C106" t="s">
+        <v>452</v>
+      </c>
+      <c r="D106" t="s">
+        <v>568</v>
+      </c>
+      <c r="E106" t="s">
+        <v>568</v>
+      </c>
+      <c r="BH106" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR106" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT106" t="s">
+        <v>456</v>
+      </c>
+      <c r="BV106" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX106" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ106" t="s">
+        <v>527</v>
+      </c>
+      <c r="CB106" t="s">
+        <v>538</v>
+      </c>
+      <c r="CH106" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="107" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>602</v>
+      </c>
+      <c r="B107" t="s">
+        <v>603</v>
+      </c>
+      <c r="C107" t="s">
+        <v>452</v>
+      </c>
+      <c r="D107" t="s">
+        <v>604</v>
+      </c>
+      <c r="E107" t="s">
+        <v>604</v>
+      </c>
+      <c r="AN107" t="s">
+        <v>300</v>
+      </c>
+      <c r="BH107" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR107" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT107" t="s">
+        <v>527</v>
+      </c>
+      <c r="BV107" t="s">
+        <v>538</v>
+      </c>
+      <c r="BX107" t="s">
         <v>549</v>
       </c>
-      <c r="AH105" t="s">
-        <v>228</v>
-      </c>
-      <c r="BB105" t="s">
+      <c r="BZ107" t="s">
+        <v>236</v>
+      </c>
+      <c r="CB107" t="s">
+        <v>300</v>
+      </c>
+      <c r="CH107" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="108" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>608</v>
+      </c>
+      <c r="B108" t="s">
+        <v>609</v>
+      </c>
+      <c r="C108" t="s">
+        <v>452</v>
+      </c>
+      <c r="D108" t="s">
+        <v>610</v>
+      </c>
+      <c r="E108" t="s">
+        <v>610</v>
+      </c>
+      <c r="AN108" t="s">
+        <v>538</v>
+      </c>
+      <c r="BH108" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR108" t="s">
         <v>455</v>
       </c>
-      <c r="BL105" t="s">
+      <c r="BT108" t="s">
+        <v>527</v>
+      </c>
+      <c r="BV108" t="s">
+        <v>538</v>
+      </c>
+      <c r="BX108" t="s">
+        <v>549</v>
+      </c>
+      <c r="BZ108" t="s">
+        <v>236</v>
+      </c>
+      <c r="CB108" t="s">
+        <v>300</v>
+      </c>
+      <c r="CH108" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="109" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>575</v>
+      </c>
+      <c r="B109" t="s">
+        <v>576</v>
+      </c>
+      <c r="C109" t="s">
+        <v>452</v>
+      </c>
+      <c r="D109" t="s">
+        <v>577</v>
+      </c>
+      <c r="E109" t="s">
+        <v>577</v>
+      </c>
+      <c r="AN109" t="s">
+        <v>454</v>
+      </c>
+      <c r="BH109" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR109" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT109" t="s">
         <v>456</v>
       </c>
-      <c r="BN105" t="s">
+      <c r="BV109" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX109" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ109" t="s">
+        <v>527</v>
+      </c>
+      <c r="CB109" t="s">
+        <v>538</v>
+      </c>
+      <c r="CD109" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF109" t="s">
+        <v>549</v>
+      </c>
+      <c r="CH109" t="s">
         <v>457</v>
       </c>
-      <c r="BP105" t="s">
-        <v>253</v>
-      </c>
-      <c r="BR105" t="s">
-        <v>527</v>
-      </c>
-      <c r="BT105" t="s">
-        <v>528</v>
-      </c>
-      <c r="BV105" t="s">
-        <v>539</v>
-      </c>
-      <c r="BX105" t="s">
-        <v>236</v>
-      </c>
-      <c r="BZ105" t="s">
-        <v>550</v>
-      </c>
-      <c r="CB105" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="106" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>567</v>
-      </c>
-      <c r="B106" t="s">
-        <v>568</v>
-      </c>
-      <c r="C106" t="s">
-        <v>453</v>
-      </c>
-      <c r="D106" t="s">
-        <v>569</v>
-      </c>
-      <c r="E106" t="s">
-        <v>569</v>
-      </c>
-      <c r="BB106" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL106" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN106" t="s">
-        <v>457</v>
-      </c>
-      <c r="BP106" t="s">
-        <v>253</v>
-      </c>
-      <c r="BR106" t="s">
-        <v>527</v>
-      </c>
-      <c r="BT106" t="s">
-        <v>528</v>
-      </c>
-      <c r="BV106" t="s">
-        <v>539</v>
-      </c>
-      <c r="CB106" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="107" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>603</v>
-      </c>
-      <c r="B107" t="s">
-        <v>604</v>
-      </c>
-      <c r="C107" t="s">
-        <v>453</v>
-      </c>
-      <c r="D107" t="s">
-        <v>605</v>
-      </c>
-      <c r="E107" t="s">
-        <v>605</v>
-      </c>
-      <c r="AH107" t="s">
-        <v>300</v>
-      </c>
-      <c r="BB107" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL107" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN107" t="s">
-        <v>528</v>
-      </c>
-      <c r="BP107" t="s">
-        <v>539</v>
-      </c>
-      <c r="BR107" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT107" t="s">
-        <v>236</v>
-      </c>
-      <c r="BV107" t="s">
-        <v>300</v>
-      </c>
-      <c r="CB107" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="108" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>609</v>
-      </c>
-      <c r="B108" t="s">
-        <v>610</v>
-      </c>
-      <c r="C108" t="s">
-        <v>453</v>
-      </c>
-      <c r="D108" t="s">
-        <v>611</v>
-      </c>
-      <c r="E108" t="s">
-        <v>611</v>
-      </c>
-      <c r="AH108" t="s">
-        <v>539</v>
-      </c>
-      <c r="BB108" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL108" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN108" t="s">
-        <v>528</v>
-      </c>
-      <c r="BP108" t="s">
-        <v>539</v>
-      </c>
-      <c r="BR108" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT108" t="s">
-        <v>236</v>
-      </c>
-      <c r="BV108" t="s">
-        <v>300</v>
-      </c>
-      <c r="CB108" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="109" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>576</v>
-      </c>
-      <c r="B109" t="s">
-        <v>577</v>
-      </c>
-      <c r="C109" t="s">
-        <v>453</v>
-      </c>
-      <c r="D109" t="s">
-        <v>578</v>
-      </c>
-      <c r="E109" t="s">
-        <v>578</v>
-      </c>
-      <c r="AH109" t="s">
-        <v>455</v>
-      </c>
-      <c r="BB109" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL109" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN109" t="s">
-        <v>457</v>
-      </c>
-      <c r="BP109" t="s">
-        <v>253</v>
-      </c>
-      <c r="BR109" t="s">
-        <v>527</v>
-      </c>
-      <c r="BT109" t="s">
-        <v>528</v>
-      </c>
-      <c r="BV109" t="s">
-        <v>539</v>
-      </c>
-      <c r="BX109" t="s">
-        <v>236</v>
-      </c>
-      <c r="BZ109" t="s">
-        <v>550</v>
-      </c>
-      <c r="CB109" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="110" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>352</v>
+      </c>
+      <c r="B110" t="s">
         <v>353</v>
-      </c>
-      <c r="B110" t="s">
-        <v>354</v>
       </c>
       <c r="C110" t="s">
         <v>93</v>
       </c>
       <c r="D110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F110" t="s">
-        <v>319</v>
-      </c>
-      <c r="BB110" t="s">
+        <v>318</v>
+      </c>
+      <c r="BH110" t="s">
         <v>257</v>
       </c>
-      <c r="BD110" t="s">
+      <c r="BJ110" t="s">
         <v>230</v>
       </c>
-      <c r="BL110" t="s">
+      <c r="BR110" t="s">
+        <v>316</v>
+      </c>
+      <c r="BT110" t="s">
         <v>317</v>
       </c>
-      <c r="BN110" t="s">
+      <c r="BV110" t="s">
         <v>318</v>
       </c>
-      <c r="BP110" t="s">
-        <v>319</v>
-      </c>
-      <c r="CB110" t="s">
+      <c r="CH110" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="111" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>264</v>
       </c>
@@ -7044,48 +7092,48 @@
         <v>268</v>
       </c>
       <c r="H111" t="s">
-        <v>734</v>
-      </c>
-      <c r="BB111" t="s">
+        <v>733</v>
+      </c>
+      <c r="BH111" t="s">
         <v>257</v>
       </c>
-      <c r="BL111" t="s">
+      <c r="BR111" t="s">
         <v>268</v>
       </c>
-      <c r="BN111" t="s">
+      <c r="BT111" t="s">
         <v>269</v>
       </c>
-      <c r="CB111" t="s">
+      <c r="CH111" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="112" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>620</v>
+      </c>
+      <c r="B112" t="s">
         <v>621</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>421</v>
+      </c>
+      <c r="D112" t="s">
         <v>622</v>
       </c>
-      <c r="C112" t="s">
-        <v>422</v>
-      </c>
-      <c r="D112" t="s">
-        <v>623</v>
-      </c>
       <c r="E112" t="s">
-        <v>623</v>
-      </c>
-      <c r="BB112" t="s">
+        <v>622</v>
+      </c>
+      <c r="BH112" t="s">
         <v>86</v>
       </c>
-      <c r="BL112" t="s">
+      <c r="BR112" t="s">
         <v>185</v>
       </c>
-      <c r="CB112" t="s">
+      <c r="CH112" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>286</v>
       </c>
@@ -7113,17 +7161,17 @@
       <c r="AB113" t="s">
         <v>289</v>
       </c>
-      <c r="BB113" t="s">
+      <c r="BH113" t="s">
         <v>86</v>
       </c>
-      <c r="BL113" t="s">
+      <c r="BR113" t="s">
         <v>185</v>
       </c>
-      <c r="CB113" t="s">
+      <c r="CH113" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="114" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>281</v>
       </c>
@@ -7148,19 +7196,19 @@
       <c r="Z114" t="s">
         <v>285</v>
       </c>
-      <c r="BB114" t="s">
+      <c r="BH114" t="s">
         <v>86</v>
       </c>
-      <c r="BL114" t="s">
+      <c r="BR114" t="s">
         <v>185</v>
       </c>
-      <c r="CB114" t="s">
+      <c r="CH114" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="115" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B115" t="s">
         <v>282</v>
@@ -7169,10 +7217,10 @@
         <v>93</v>
       </c>
       <c r="D115" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E115" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F115" t="s">
         <v>185</v>
@@ -7180,31 +7228,31 @@
       <c r="X115" t="s">
         <v>229</v>
       </c>
-      <c r="BB115" t="s">
+      <c r="BH115" t="s">
         <v>257</v>
       </c>
-      <c r="BD115" t="s">
+      <c r="BJ115" t="s">
         <v>230</v>
       </c>
-      <c r="BL115" t="s">
+      <c r="BR115" t="s">
         <v>185</v>
       </c>
-      <c r="BN115" t="s">
+      <c r="BT115" t="s">
+        <v>316</v>
+      </c>
+      <c r="BV115" t="s">
         <v>317</v>
       </c>
-      <c r="BP115" t="s">
+      <c r="BX115" t="s">
         <v>318</v>
       </c>
-      <c r="BR115" t="s">
-        <v>319</v>
-      </c>
-      <c r="CB115" t="s">
+      <c r="CH115" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="116" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B116" t="s">
         <v>282</v>
@@ -7213,296 +7261,296 @@
         <v>93</v>
       </c>
       <c r="D116" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E116" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F116" t="s">
         <v>185</v>
       </c>
       <c r="H116" t="s">
-        <v>320</v>
-      </c>
-      <c r="BB116" t="s">
+        <v>319</v>
+      </c>
+      <c r="BH116" t="s">
         <v>257</v>
       </c>
-      <c r="BD116" t="s">
+      <c r="BJ116" t="s">
         <v>230</v>
       </c>
-      <c r="BL116" t="s">
+      <c r="BR116" t="s">
         <v>185</v>
       </c>
-      <c r="CB116" t="s">
+      <c r="CH116" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>697</v>
+      </c>
+      <c r="B117" t="s">
         <v>698</v>
-      </c>
-      <c r="B117" t="s">
-        <v>699</v>
       </c>
       <c r="C117" t="s">
         <v>142</v>
       </c>
       <c r="D117" t="s">
+        <v>699</v>
+      </c>
+      <c r="E117" t="s">
+        <v>699</v>
+      </c>
+      <c r="AN117" t="s">
         <v>700</v>
       </c>
-      <c r="E117" t="s">
-        <v>700</v>
-      </c>
-      <c r="AH117" t="s">
+      <c r="AP117" t="s">
         <v>701</v>
       </c>
-      <c r="AJ117" t="s">
+      <c r="AR117" t="s">
         <v>702</v>
       </c>
-      <c r="AL117" t="s">
-        <v>703</v>
-      </c>
-      <c r="AN117" s="3" t="s">
+      <c r="AT117" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AO117" s="3"/>
-      <c r="BB117" t="s">
+      <c r="AU117" s="3"/>
+      <c r="BH117" t="s">
         <v>86</v>
       </c>
-      <c r="BL117" s="3" t="s">
+      <c r="BR117" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="BM117" s="3"/>
-      <c r="CB117" t="s">
+      <c r="BS117" s="3"/>
+      <c r="CH117" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>523</v>
+      </c>
+      <c r="B118" t="s">
         <v>524</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
+        <v>452</v>
+      </c>
+      <c r="D118" t="s">
         <v>525</v>
       </c>
-      <c r="C118" t="s">
-        <v>453</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
+        <v>525</v>
+      </c>
+      <c r="AN118" t="s">
         <v>526</v>
       </c>
-      <c r="E118" t="s">
+      <c r="AP118" t="s">
+        <v>455</v>
+      </c>
+      <c r="BH118" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR118" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT118" t="s">
+        <v>456</v>
+      </c>
+      <c r="BV118" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX118" t="s">
         <v>526</v>
       </c>
-      <c r="AH118" t="s">
+      <c r="BZ118" t="s">
         <v>527</v>
       </c>
-      <c r="AJ118" t="s">
+      <c r="CB118" t="s">
+        <v>528</v>
+      </c>
+      <c r="CH118" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="119" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>560</v>
+      </c>
+      <c r="B119" t="s">
+        <v>524</v>
+      </c>
+      <c r="C119" t="s">
+        <v>452</v>
+      </c>
+      <c r="D119" t="s">
+        <v>561</v>
+      </c>
+      <c r="E119" t="s">
+        <v>561</v>
+      </c>
+      <c r="AN119" t="s">
+        <v>538</v>
+      </c>
+      <c r="AP119" t="s">
+        <v>455</v>
+      </c>
+      <c r="BH119" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR119" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT119" t="s">
         <v>456</v>
       </c>
-      <c r="BB118" t="s">
+      <c r="BV119" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX119" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ119" t="s">
+        <v>527</v>
+      </c>
+      <c r="CB119" t="s">
+        <v>538</v>
+      </c>
+      <c r="CH119" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="120" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>591</v>
+      </c>
+      <c r="B120" t="s">
+        <v>524</v>
+      </c>
+      <c r="C120" t="s">
+        <v>452</v>
+      </c>
+      <c r="D120" t="s">
+        <v>592</v>
+      </c>
+      <c r="E120" t="s">
+        <v>592</v>
+      </c>
+      <c r="AN120" t="s">
         <v>455</v>
       </c>
-      <c r="BL118" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN118" t="s">
+      <c r="AP120" t="s">
+        <v>538</v>
+      </c>
+      <c r="BH120" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR120" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT120" t="s">
+        <v>527</v>
+      </c>
+      <c r="BV120" t="s">
+        <v>538</v>
+      </c>
+      <c r="BX120" t="s">
+        <v>549</v>
+      </c>
+      <c r="BZ120" t="s">
+        <v>236</v>
+      </c>
+      <c r="CB120" t="s">
+        <v>300</v>
+      </c>
+      <c r="CH120" t="s">
         <v>457</v>
       </c>
-      <c r="BP118" t="s">
-        <v>253</v>
-      </c>
-      <c r="BR118" t="s">
-        <v>527</v>
-      </c>
-      <c r="BT118" t="s">
-        <v>528</v>
-      </c>
-      <c r="BV118" t="s">
-        <v>529</v>
-      </c>
-      <c r="CB118" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="119" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>561</v>
-      </c>
-      <c r="B119" t="s">
-        <v>525</v>
-      </c>
-      <c r="C119" t="s">
-        <v>453</v>
-      </c>
-      <c r="D119" t="s">
-        <v>562</v>
-      </c>
-      <c r="E119" t="s">
-        <v>562</v>
-      </c>
-      <c r="AH119" t="s">
-        <v>539</v>
-      </c>
-      <c r="AJ119" t="s">
-        <v>456</v>
-      </c>
-      <c r="BB119" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL119" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN119" t="s">
-        <v>457</v>
-      </c>
-      <c r="BP119" t="s">
-        <v>253</v>
-      </c>
-      <c r="BR119" t="s">
-        <v>527</v>
-      </c>
-      <c r="BT119" t="s">
-        <v>528</v>
-      </c>
-      <c r="BV119" t="s">
-        <v>539</v>
-      </c>
-      <c r="CB119" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="120" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>592</v>
-      </c>
-      <c r="B120" t="s">
-        <v>525</v>
-      </c>
-      <c r="C120" t="s">
-        <v>453</v>
-      </c>
-      <c r="D120" t="s">
-        <v>593</v>
-      </c>
-      <c r="E120" t="s">
-        <v>593</v>
-      </c>
-      <c r="AH120" t="s">
-        <v>456</v>
-      </c>
-      <c r="AJ120" t="s">
-        <v>539</v>
-      </c>
-      <c r="BB120" t="s">
-        <v>455</v>
-      </c>
-      <c r="BL120" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN120" t="s">
-        <v>528</v>
-      </c>
-      <c r="BP120" t="s">
-        <v>539</v>
-      </c>
-      <c r="BR120" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT120" t="s">
-        <v>236</v>
-      </c>
-      <c r="BV120" t="s">
-        <v>300</v>
-      </c>
-      <c r="CB120" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="121" spans="1:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>614</v>
+      </c>
+      <c r="B121" t="s">
         <v>615</v>
-      </c>
-      <c r="B121" t="s">
-        <v>616</v>
       </c>
       <c r="C121" t="s">
         <v>82</v>
       </c>
       <c r="D121" t="s">
+        <v>616</v>
+      </c>
+      <c r="E121" t="s">
+        <v>616</v>
+      </c>
+      <c r="AN121" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP121" t="s">
         <v>617</v>
       </c>
-      <c r="E121" t="s">
-        <v>617</v>
-      </c>
-      <c r="AH121" t="s">
-        <v>209</v>
-      </c>
-      <c r="AJ121" t="s">
+      <c r="BH121" t="s">
         <v>618</v>
       </c>
-      <c r="BB121" t="s">
+      <c r="BJ121" t="s">
+        <v>208</v>
+      </c>
+      <c r="BL121" t="s">
         <v>619</v>
       </c>
-      <c r="BD121" t="s">
-        <v>208</v>
-      </c>
-      <c r="BF121" t="s">
-        <v>620</v>
-      </c>
-      <c r="BL121" t="s">
+      <c r="BR121" t="s">
         <v>211</v>
       </c>
-      <c r="CB121" t="s">
+      <c r="CH121" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="122" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>437</v>
+      </c>
+      <c r="B122" t="s">
         <v>438</v>
-      </c>
-      <c r="B122" t="s">
-        <v>439</v>
       </c>
       <c r="C122" t="s">
         <v>142</v>
       </c>
       <c r="D122" t="s">
+        <v>439</v>
+      </c>
+      <c r="E122" t="s">
+        <v>439</v>
+      </c>
+      <c r="AN122" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP122" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR122" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT122" t="s">
         <v>440</v>
       </c>
-      <c r="E122" t="s">
-        <v>440</v>
-      </c>
-      <c r="AH122" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ122" t="s">
+      <c r="AV122" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH122" t="s">
+        <v>96</v>
+      </c>
+      <c r="BR122" t="s">
         <v>147</v>
       </c>
-      <c r="AL122" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN122" t="s">
-        <v>441</v>
-      </c>
-      <c r="AP122" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB122" t="s">
-        <v>96</v>
-      </c>
-      <c r="BL122" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB122" t="s">
+      <c r="CH122" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="123" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>213</v>
       </c>
       <c r="B123" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C123" t="s">
         <v>142</v>
@@ -7513,37 +7561,37 @@
       <c r="E123" t="s">
         <v>214</v>
       </c>
-      <c r="AH123" t="s">
+      <c r="AN123" t="s">
         <v>215</v>
       </c>
-      <c r="AJ123" t="s">
+      <c r="AP123" t="s">
         <v>216</v>
       </c>
-      <c r="AL123" t="s">
+      <c r="AR123" t="s">
         <v>217</v>
       </c>
-      <c r="AN123" t="s">
+      <c r="AT123" t="s">
         <v>218</v>
       </c>
-      <c r="AP123" t="s">
+      <c r="AV123" t="s">
         <v>219</v>
       </c>
-      <c r="AR123" t="s">
+      <c r="AX123" t="s">
         <v>220</v>
       </c>
-      <c r="AT123" t="s">
+      <c r="AZ123" t="s">
         <v>174</v>
       </c>
-      <c r="BB123" t="s">
+      <c r="BH123" t="s">
         <v>168</v>
       </c>
-      <c r="BL123" t="s">
+      <c r="BR123" t="s">
         <v>89</v>
       </c>
-      <c r="BN123" t="s">
+      <c r="BT123" t="s">
         <v>221</v>
       </c>
-      <c r="CB123" t="s">
+      <c r="CH123" t="s">
         <v>90</v>
       </c>
     </row>

--- a/events/events/_event_data_collector.xlsx
+++ b/events/events/_event_data_collector.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patcallahan/Documents/Coding/Open Science Center/lmu-osc.github.io/events/events/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E369A49-054C-1C4C-AEC6-B2D1F6A5E729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D06FAAB-5F80-5A44-8989-AA54949BB5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="46960" windowHeight="25560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="38520" windowHeight="23180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CH$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CH$122</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="743">
   <si>
     <t>file_paths</t>
   </si>
@@ -2646,14 +2646,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH123"/>
+  <dimension ref="A1:CH122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="AH42" sqref="AH42"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="174" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="61.83203125" customWidth="1"/>
     <col min="2" max="2" width="139.5" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
   </cols>
@@ -7225,6 +7226,9 @@
       <c r="F115" t="s">
         <v>185</v>
       </c>
+      <c r="H115" t="s">
+        <v>319</v>
+      </c>
       <c r="X115" t="s">
         <v>229</v>
       </c>
@@ -7252,82 +7256,94 @@
     </row>
     <row r="116" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>314</v>
+        <v>697</v>
       </c>
       <c r="B116" t="s">
-        <v>282</v>
+        <v>698</v>
       </c>
       <c r="C116" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D116" t="s">
-        <v>315</v>
+        <v>699</v>
       </c>
       <c r="E116" t="s">
-        <v>315</v>
-      </c>
-      <c r="F116" t="s">
-        <v>185</v>
-      </c>
-      <c r="H116" t="s">
-        <v>319</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="AN116" t="s">
+        <v>700</v>
+      </c>
+      <c r="AP116" t="s">
+        <v>701</v>
+      </c>
+      <c r="AR116" t="s">
+        <v>702</v>
+      </c>
+      <c r="AT116" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU116" s="3"/>
       <c r="BH116" t="s">
-        <v>257</v>
-      </c>
-      <c r="BJ116" t="s">
-        <v>230</v>
-      </c>
-      <c r="BR116" t="s">
-        <v>185</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="BR116" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BS116" s="3"/>
       <c r="CH116" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>697</v>
+        <v>523</v>
       </c>
       <c r="B117" t="s">
-        <v>698</v>
+        <v>524</v>
       </c>
       <c r="C117" t="s">
-        <v>142</v>
+        <v>452</v>
       </c>
       <c r="D117" t="s">
-        <v>699</v>
+        <v>525</v>
       </c>
       <c r="E117" t="s">
-        <v>699</v>
+        <v>525</v>
       </c>
       <c r="AN117" t="s">
-        <v>700</v>
+        <v>526</v>
       </c>
       <c r="AP117" t="s">
-        <v>701</v>
-      </c>
-      <c r="AR117" t="s">
-        <v>702</v>
-      </c>
-      <c r="AT117" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU117" s="3"/>
+        <v>455</v>
+      </c>
       <c r="BH117" t="s">
-        <v>86</v>
-      </c>
-      <c r="BR117" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="BS117" s="3"/>
+        <v>454</v>
+      </c>
+      <c r="BR117" t="s">
+        <v>455</v>
+      </c>
+      <c r="BT117" t="s">
+        <v>456</v>
+      </c>
+      <c r="BV117" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX117" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ117" t="s">
+        <v>527</v>
+      </c>
+      <c r="CB117" t="s">
+        <v>528</v>
+      </c>
       <c r="CH117" t="s">
-        <v>119</v>
+        <v>457</v>
       </c>
     </row>
     <row r="118" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="B118" t="s">
         <v>524</v>
@@ -7336,13 +7352,13 @@
         <v>452</v>
       </c>
       <c r="D118" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="E118" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="AN118" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="AP118" t="s">
         <v>455</v>
@@ -7366,7 +7382,7 @@
         <v>527</v>
       </c>
       <c r="CB118" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="CH118" t="s">
         <v>457</v>
@@ -7374,7 +7390,7 @@
     </row>
     <row r="119" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="B119" t="s">
         <v>524</v>
@@ -7383,16 +7399,16 @@
         <v>452</v>
       </c>
       <c r="D119" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="E119" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="AN119" t="s">
+        <v>455</v>
+      </c>
+      <c r="AP119" t="s">
         <v>538</v>
-      </c>
-      <c r="AP119" t="s">
-        <v>455</v>
       </c>
       <c r="BH119" t="s">
         <v>454</v>
@@ -7401,19 +7417,19 @@
         <v>455</v>
       </c>
       <c r="BT119" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="BV119" t="s">
-        <v>253</v>
+        <v>538</v>
       </c>
       <c r="BX119" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="BZ119" t="s">
-        <v>527</v>
+        <v>236</v>
       </c>
       <c r="CB119" t="s">
-        <v>538</v>
+        <v>300</v>
       </c>
       <c r="CH119" t="s">
         <v>457</v>
@@ -7421,177 +7437,130 @@
     </row>
     <row r="120" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="B120" t="s">
-        <v>524</v>
+        <v>615</v>
       </c>
       <c r="C120" t="s">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="D120" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="E120" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="AN120" t="s">
-        <v>455</v>
+        <v>209</v>
       </c>
       <c r="AP120" t="s">
-        <v>538</v>
+        <v>617</v>
       </c>
       <c r="BH120" t="s">
-        <v>454</v>
+        <v>618</v>
+      </c>
+      <c r="BJ120" t="s">
+        <v>208</v>
+      </c>
+      <c r="BL120" t="s">
+        <v>619</v>
       </c>
       <c r="BR120" t="s">
-        <v>455</v>
-      </c>
-      <c r="BT120" t="s">
-        <v>527</v>
-      </c>
-      <c r="BV120" t="s">
-        <v>538</v>
-      </c>
-      <c r="BX120" t="s">
-        <v>549</v>
-      </c>
-      <c r="BZ120" t="s">
-        <v>236</v>
-      </c>
-      <c r="CB120" t="s">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="CH120" t="s">
-        <v>457</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>614</v>
+        <v>437</v>
       </c>
       <c r="B121" t="s">
-        <v>615</v>
+        <v>438</v>
       </c>
       <c r="C121" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="D121" t="s">
-        <v>616</v>
+        <v>439</v>
       </c>
       <c r="E121" t="s">
-        <v>616</v>
+        <v>439</v>
       </c>
       <c r="AN121" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="AP121" t="s">
-        <v>617</v>
+        <v>147</v>
+      </c>
+      <c r="AR121" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT121" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV121" t="s">
+        <v>146</v>
       </c>
       <c r="BH121" t="s">
-        <v>618</v>
-      </c>
-      <c r="BJ121" t="s">
-        <v>208</v>
-      </c>
-      <c r="BL121" t="s">
-        <v>619</v>
+        <v>96</v>
       </c>
       <c r="BR121" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="CH121" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>437</v>
+        <v>213</v>
       </c>
       <c r="B122" t="s">
-        <v>438</v>
+        <v>723</v>
       </c>
       <c r="C122" t="s">
         <v>142</v>
       </c>
       <c r="D122" t="s">
-        <v>439</v>
+        <v>214</v>
       </c>
       <c r="E122" t="s">
-        <v>439</v>
+        <v>214</v>
       </c>
       <c r="AN122" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="AP122" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="AR122" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT122" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV122" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX122" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ122" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH122" t="s">
+        <v>168</v>
+      </c>
+      <c r="BR122" t="s">
         <v>89</v>
       </c>
-      <c r="AT122" t="s">
-        <v>440</v>
-      </c>
-      <c r="AV122" t="s">
-        <v>146</v>
-      </c>
-      <c r="BH122" t="s">
-        <v>96</v>
-      </c>
-      <c r="BR122" t="s">
-        <v>147</v>
+      <c r="BT122" t="s">
+        <v>221</v>
       </c>
       <c r="CH122" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>213</v>
-      </c>
-      <c r="B123" t="s">
-        <v>723</v>
-      </c>
-      <c r="C123" t="s">
-        <v>142</v>
-      </c>
-      <c r="D123" t="s">
-        <v>214</v>
-      </c>
-      <c r="E123" t="s">
-        <v>214</v>
-      </c>
-      <c r="AN123" t="s">
-        <v>215</v>
-      </c>
-      <c r="AP123" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR123" t="s">
-        <v>217</v>
-      </c>
-      <c r="AT123" t="s">
-        <v>218</v>
-      </c>
-      <c r="AV123" t="s">
-        <v>219</v>
-      </c>
-      <c r="AX123" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ123" t="s">
-        <v>174</v>
-      </c>
-      <c r="BH123" t="s">
-        <v>168</v>
-      </c>
-      <c r="BR123" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT123" t="s">
-        <v>221</v>
-      </c>
-      <c r="CH123" t="s">
         <v>90</v>
       </c>
     </row>
